--- a/N=2/NBC/data/tweet_bersih_100.xlsx
+++ b/N=2/NBC/data/tweet_bersih_100.xlsx
@@ -22,2719 +22,2719 @@
     <t>label</t>
   </si>
   <si>
-    <t>buka visi misi begitu pukau sehingga buat presiden asa jadi bebek visimisi</t>
-  </si>
-  <si>
-    <t>lebih baik pakai teknologi lama kaya negara indonesia keluar indonesia</t>
-  </si>
-  <si>
-    <t>kok arguing without menang</t>
-  </si>
-  <si>
-    <t>jalan politik politik satu bukan politik pecah belah salah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>juga fans lihat tampil serang hahaha</t>
-  </si>
-  <si>
-    <t>lemah tidak punya uang pak ngomongin tahan negara apa nyindir anak twitter nih optimisindo</t>
-  </si>
-  <si>
-    <t>si vis pacem belum bukan mantra dukun arti kalau damai siap perang top p</t>
-  </si>
-  <si>
-    <t>apa bilang pak memang benar mau bukti di ejek asing v i r a l k a n prabow</t>
-  </si>
-  <si>
-    <t>bidang perintah prabowo-sandi bahwa lembaga perintah kuat baru cipta negara kuat</t>
-  </si>
-  <si>
-    <t>percaya debat dukung ini sama seru jaman debat dukung choi taek kim junghwan</t>
-  </si>
-  <si>
-    <t>bidang hubung internasional anut prinsip kawan terlalu sedikit musuh terlalu banyak prabowo</t>
-  </si>
-  <si>
-    <t>temen pro dia bilang suka lihat mimik muka saat tiap bicara debat</t>
-  </si>
-  <si>
-    <t>apa sampai p soal e-government e-procurement ini pernah sebut tahu lalu gagal total tuh p</t>
-  </si>
-  <si>
-    <t>pak ngomong gebu bukan arti kasar galak pak ngomong pelan bukan arti lembek</t>
-  </si>
-  <si>
-    <t>mas malam bagus sekali debat serang tepat jantung tahan akhir muter jawab radar</t>
-  </si>
-  <si>
-    <t>lebih tni tni bapak pecat udah jangan</t>
-  </si>
-  <si>
-    <t>rawan kopi politik syndicate kps pro capres-cawapres - ma ruf amin bentuk tim siber tangkal</t>
-  </si>
-  <si>
-    <t>debat malam bukti sama emosional emosi pikir selamat</t>
-  </si>
-  <si>
-    <t>pak percaya mampu tni jaga daulat nkri dengan dukung alutsista baik</t>
-  </si>
-  <si>
-    <t>turut akhir marah audiens tidak kontrol emosi</t>
-  </si>
-  <si>
-    <t>pak mungkin rasa situasi perang kali</t>
-  </si>
-  <si>
-    <t>politik luar negeri perintah soal rohingya omong doang ada tuh repatriasi atas peran lebih banyak peran</t>
-  </si>
-  <si>
-    <t>lawan tuduh kubu belah pak pro hadap khilafah ingin ganti pancasila dengan tagar prabowo</t>
-  </si>
-  <si>
-    <t>pelosok desa sampang madura jatim rakyat gotong royong buat apik pak mas dukung yuk</t>
-  </si>
-  <si>
-    <t>kok berani bilang jadi mediator konflik afghanistan kayak cuma kunjung doang sana n foto sholat</t>
-  </si>
-  <si>
-    <t>pak percaya sama tni iya pak percaya saya percaya nya sama orang suka ngomong bayar</t>
-  </si>
-  <si>
-    <t>cuma orang dongo jangan masih tanya nasionalisme orang jenderal sumpah prajurit bawa mati</t>
-  </si>
-  <si>
-    <t>debat kali turut pak all keluar performa maksimal bro jokowi kasi tunduk terus kurang caca diri</t>
-  </si>
-  <si>
-    <t>menang telak sibuk molbek 2in akun sipp lah sing penting semua semangat prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>bangun sistem layan masyarakat untuk cegah korupsi bocor</t>
-  </si>
-  <si>
-    <t>woy asal bapak senang banyak tim lho menteri afkiran selalu kasih data salah sama kamu</t>
-  </si>
-  <si>
-    <t>malam dukung pak bisa tidur nyenyak akan ucap selamat tinggal pak jokowi hahaha</t>
-  </si>
-  <si>
-    <t>memang tarung pilpres sekali tentang cara pikir baru lawan cara pikir lama moga ini tarung akhir</t>
-  </si>
-  <si>
-    <t>moderator sampai haru dengar papar pak kena apa perlu cepat teknologi informasi kalau kaya ambil negara</t>
-  </si>
-  <si>
-    <t>aku rantai roda kuasa putus dia sahabat putus</t>
-  </si>
-  <si>
-    <t>henti tv lihat debat sebentar terus teriak supir bus sorak sorai ikut</t>
-  </si>
-  <si>
-    <t>hahaha closing sempurna pak gila sih nyata receh beliau yakin optimis april</t>
-  </si>
-  <si>
-    <t>ingin ganti pancasila republik ada banyak yang ingin ganti presiden jangan kok santai</t>
-  </si>
-  <si>
-    <t>si bilang bela pancasila dukung curut khilafah hti juga hapal pancasila</t>
-  </si>
-  <si>
-    <t>poin besar kalah tahana dukung ngetawain nasionalisme mas prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>saya percaya kuat pimpin ada banyak diri bapak topang tahu lebih</t>
-  </si>
-  <si>
-    <t>nasionalisme nampak sangat kental debat pilpres tuju bandara kelola asing berdikari</t>
-  </si>
-  <si>
-    <t>pak tampil malam buat makin bangga kamu lihat sangat peduli nkri</t>
-  </si>
-  <si>
-    <t>ini tni pak pecat debatpilpres 2019 https t co usdobwdlba</t>
-  </si>
-  <si>
-    <t>debat calon presiden malam pak tampil tenang visioner matang gulir gagas cara cemerlang</t>
-  </si>
-  <si>
-    <t>sekarang gilir kpps nya tidak netral makin benar curang dapat kalah</t>
-  </si>
-  <si>
-    <t>calon presiden ajak semua pihak politik negara baik saling tiada</t>
-  </si>
-  <si>
-    <t>malam debat pilpres ke tampil pak patut apresiasi beliau lebih kritis ofensif</t>
-  </si>
-  <si>
-    <t>tahan indonesia sangat lemah jauh yang harap kita punya uang prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>selesai selamat pak cinta rindu cinta rindu cinta rindu</t>
-  </si>
-  <si>
-    <t>jawab skak mat mas hadap kartu nya si jokowi apa punya banyak kartu kalau kaya keluar negeri</t>
-  </si>
-  <si>
-    <t>menang telak sih gilee bantai cara telak debat gilak brutal malam</t>
-  </si>
-  <si>
-    <t>duh pak baik banget kalau bicara bahasa inggris arti tahu kalau pak bisa bahasa inggris</t>
-  </si>
-  <si>
-    <t>percaya tni sedang sipil aku sangat percaya tni pemerintahandilan</t>
-  </si>
-  <si>
-    <t>pak kalau diplomasi jadi nice guy pak faham betul diplomasi batas ramah tamah</t>
-  </si>
-  <si>
-    <t>wongsai kok ngajak perang lama selalu ajak maju indonesia si mental ciken selalu lihat keburu</t>
-  </si>
-  <si>
-    <t>bagai minoritas yakin pak bang dapat mandat rakyat kuat rasa satu</t>
-  </si>
-  <si>
-    <t>salam presiden insyallah debat malam bapak pukau salam sayang rakyat pak bagus</t>
-  </si>
-  <si>
-    <t>siapa calon presiden tampil lebih baik debatpilpres 2019 malam pemilunesia debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>lihat kalian fitnah anti islam beliau bangun hai universitas islam international indonesia</t>
-  </si>
-  <si>
-    <t>malam tamat sepakat retwet 01caprespendustaabadi</t>
-  </si>
-  <si>
-    <t>pak kalau badan gemuk tinggi bapak baik kalau pake setel jas jangan model double breastest</t>
-  </si>
-  <si>
-    <t>tegas sekali presiden malam jangan kasih kendor jenderal idola tunjuk dunia prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>clossing pak debat kali sangat luarbiasa tuju sama bapak sahabat memang nomer</t>
-  </si>
-  <si>
-    <t>suka banget video pak memang juara terimakasihistriku https t co nm5n7irsie</t>
-  </si>
-  <si>
-    <t>bukti indonesia lebih maju bawah pimpin presiden menangjokowilagi</t>
-  </si>
-  <si>
-    <t>butuh pimpin optimis pak bukan orang pesimis marah</t>
-  </si>
-  <si>
-    <t>bareng pak jadi indonesia lebih maju selalu optimis kerja bangun bangsa</t>
-  </si>
-  <si>
-    <t>mewek curhat pak lihat tuh pak lama 4 5 tahu tuduh pki beliau biasa</t>
-  </si>
-  <si>
-    <t>prediksi telah debat empat non-prabowo pak bang popular vote jaga baik tps</t>
-  </si>
-  <si>
-    <t>masalah kondisi negara sekarang suatu distrust elite perintah</t>
-  </si>
-  <si>
-    <t>sial nyata cuma orang boneka prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>orang indonesia miskin ikan beberapa karung beras mereka vote saya</t>
-  </si>
-  <si>
-    <t>sangat kagum sikap ramah dukung prabowopresidenke 2019 https t co 3fzmdf48el</t>
-  </si>
-  <si>
-    <t>debat lebih panjang lagi jadi showcase atas hasil progress perintah</t>
-  </si>
-  <si>
-    <t>sombong klaim diri lebih tni para tni mana nyata angkuh emosional</t>
-  </si>
-  <si>
-    <t>jokowi intelijen strategis kata tahun depan akan invasi negara</t>
-  </si>
-  <si>
-    <t>pemerintahandilan perintah bas digital jadi prestasi pak tengak revolusi industri 4 0</t>
-  </si>
-  <si>
-    <t>pak tahan indonesia terlalu lemah iya bagaimana pak kalau chat hei sama mantan jangan langsung mikir besok</t>
-  </si>
-  <si>
-    <t>kini tegas tentang diri khalifah sama itu kabar buruk hti dukung</t>
-  </si>
-  <si>
-    <t>pak langsung ban klarifikasi tuduh kubu tahana tuduh khilafah</t>
-  </si>
-  <si>
-    <t>bismillah pak sukses debat mohon maaf tidak tani saya janji anak muda</t>
-  </si>
-  <si>
-    <t>sorot debatpilpres 2019 kali presiden sangat jelas masa kini masa depan realita solusi masalah</t>
-  </si>
-  <si>
-    <t>pak pidato bicara bahasa inggris baik benar teks forum internasional</t>
-  </si>
-  <si>
-    <t>indonesia syukur hasil survei lembaga independen indikasi menang telak menangjokowilagi</t>
-  </si>
-  <si>
-    <t>yang golput besok kalau udah kelar pilpres terus udah jalan perintah ada salah jangan nyalahin perintah</t>
-  </si>
-  <si>
-    <t>kecewa larang perintah kampanye akbar dalam stadion pakansari bangun rakyat ujar</t>
-  </si>
-  <si>
-    <t>debat sikap kok sama persis sikap dukung khilafah selalu sebar takut</t>
-  </si>
-  <si>
-    <t>jawab telak pak hadap kartu penting apa punya banyak kartu</t>
-  </si>
-  <si>
-    <t>benteng nkri negara belanda simpan dokumentasi selamat sandra papua prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>bukti bangun indonesia maju adab lebih baik menangjokowilagi</t>
-  </si>
-  <si>
-    <t>simak sebar doauntukprabowosandi menang pilpres hampir pasti laju</t>
-  </si>
-  <si>
-    <t>bagai muslim senang tulis yuk baca guys yang muslim baik dukung</t>
-  </si>
-  <si>
-    <t>cakep nih debat pintar ada mal layan publik harap cepat layan bisa beri usaha</t>
-  </si>
-  <si>
-    <t>aman semua pak kendali pak radar cukup pak budaya indonesia asal bapak senang jadi mohon kaji tahan sangat penting</t>
-  </si>
-  <si>
-    <t>jauh kelas banding jokowi barusan kan gaes presiden 2019-2024 sepakat retwet 19harilagicoblo</t>
-  </si>
-  <si>
-    <t>pak jokowi sering tunduk lemas lihat papar jenderal turut tuipers apa pikir jokowi</t>
-  </si>
-  <si>
-    <t>masyaallah speechless rp juta sumbang buruh migran tki tkw - sandi cibinong</t>
-  </si>
-  <si>
-    <t>sandi juang seluruh rakyat indonesia bentuk perintah bersih tegas sama</t>
-  </si>
-  <si>
-    <t>tuju sekali pak selesai soal korupsi memang benah sistem bisa potong rantai</t>
-  </si>
-  <si>
-    <t>tuju pas pak bilang ngajak toleransi dalam jalan politik politik satu</t>
-  </si>
-  <si>
-    <t>akhir rezim guna pasal karet guna bungkam lawan politik sama - sandi</t>
-  </si>
-  <si>
-    <t>pak tegas penting maju teknologi transparansi efektitivitas efisiensi perintah</t>
-  </si>
-  <si>
-    <t>sekian lama pecat tni laku culi mungkin simpan dendam</t>
-  </si>
-  <si>
-    <t>benci bilang marah kalimat bapak bilang ada sedih kalimat pak</t>
-  </si>
-  <si>
-    <t>tenang kalau sampe perang saya yakin pak udah mikirin musti bagaimana akan diam lah sistem tahan</t>
-  </si>
-  <si>
-    <t>percaya pak pancasila-is tuduh khilafah saya juga percaya pak pancasilais</t>
-  </si>
-  <si>
-    <t>presiden tukar negara kembali normal sesuai pancasila cara pilih sandi</t>
-  </si>
-  <si>
-    <t>lepas substansi debat khawatir sikap emosional pak cenderung labil merespon suatu masalah</t>
-  </si>
-  <si>
-    <t>optimisindonesiamaju kalau tetap percaya sama orang walau sering tuduh itu hehe</t>
-  </si>
-  <si>
-    <t>cuma analis bodoh menganalisa keyword https t co latbu 4q1xn</t>
-  </si>
-  <si>
-    <t>do a tulus orang ibu gendong anak rupa fans berat bapak jadi presiden ri</t>
-  </si>
-  <si>
-    <t>dong pak sangat pro ekonomi digital pemerintahandilan https t co heqqtohzri</t>
-  </si>
-  <si>
-    <t>aura menang mas makin lihat jelas kalau mas menang apa akan kamu laku sobat tuips jokowid</t>
-  </si>
-  <si>
-    <t>mantep banget nih ustad tak perlu ganti presiden cukup pilih pak di tps</t>
-  </si>
-  <si>
-    <t>kalau mau jadi nice guy jadi mediator monggo kalau juang indonesia hormat indonesia kuat</t>
-  </si>
-  <si>
-    <t>pak percaya pbb peran indonesia selesai kasus rohingya datang tiba</t>
-  </si>
-  <si>
-    <t>lagi bohong diri sendiri rakyat soal radar tahan indonesia kuat</t>
-  </si>
-  <si>
-    <t>pak kaya ken banget perang gabung twitter jangan pak hampir tiap hari perang optimisindonesiamaju</t>
-  </si>
-  <si>
-    <t>bukan tidak percaya tni ini tni taruh nyawa di tni lebih tni banyak tni</t>
-  </si>
-  <si>
-    <t>bukan figur pimpin sempurna kalau lihat debat ya lebih yakin rival tahu mau laku</t>
-  </si>
-  <si>
-    <t>tampil mas debat calon presiden malam kejut beda debat</t>
-  </si>
-  <si>
-    <t>tampil lebih semangat tegas rada ofensif justru lihat sangat natural cerdas keluar</t>
-  </si>
-  <si>
-    <t>apa cepat kalau kaya alir luar negeri lebih baik pakai teknologi lama kaya indonesia</t>
-  </si>
-  <si>
-    <t>seluruh rakyat siap bangun indonesia sama menangjokowilagi</t>
-  </si>
-  <si>
-    <t>jangan uang indonesia lari keluar negeri kata iya pak yang link ya</t>
-  </si>
-  <si>
-    <t>biasa cuma lantang retorika kata dulu banyak panglima lapor asal bapak senang</t>
-  </si>
-  <si>
-    <t>real leader lihat jangan closing statement jadi ngikut begitu orang leader</t>
-  </si>
-  <si>
-    <t>visi misi tawar baru baharu yang lebih visioner lebih detail pemerintahandilan</t>
-  </si>
-  <si>
-    <t>detik detik marah marah di tertawa debatkeempatpilpres 2019 jokowimengubahsemua 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>allah maha dengar simpuh hadap mohon pak bang beri mudah</t>
-  </si>
-  <si>
-    <t>ucap orang prajurit tak ragu tulus prabowo</t>
-  </si>
-  <si>
-    <t>satu tak lebih megalomaniak puja diri sendiri anggap diri paling hebat tni</t>
-  </si>
-  <si>
-    <t>sistem jalur mana bagai izin jadi tempat ide luar biasa pakde ayah</t>
-  </si>
-  <si>
-    <t>soal ungsi rohingya ada tuh peran jelas perintah pulang ungsi cox bazar wah bohong</t>
-  </si>
-  <si>
-    <t>keluarga bisa ajar bagaimana cara sabar terus jalan selalu bangkit</t>
-  </si>
-  <si>
-    <t>bukan emosi bos tegas tu nama nya jelas kan hadap orang buta hati nya</t>
-  </si>
-  <si>
-    <t>woi menang telak santai dikit ngapain sibuk nampolin cebong dongo biar halu alam</t>
-  </si>
-  <si>
-    <t>tahan lemah kalian ketawa sila kalian ketawa dukung memang nyata goblok dungu</t>
-  </si>
-  <si>
-    <t>pak kalian ketawa pak</t>
-  </si>
-  <si>
-    <t>biar rakyat tentu pilih baik bangsa negara prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>rap bilang lebih tni banding tni macam hina hadap tni dendam pribadi</t>
-  </si>
-  <si>
-    <t>orang adalah njenengan sendiri pak sama debatasyikjokowi karnajokowi https t co khmy 7knh85</t>
-  </si>
-  <si>
-    <t>mas janji tingkat rasio pajak jadi gaji pns akan naik tagih janji bapak</t>
-  </si>
-  <si>
-    <t>makanya jokowi bedah tuh buku undercover kampus 2019gantipresiden https t co 4udrafliab</t>
-  </si>
-  <si>
-    <t>kutip benar persen apbn singapura belanja militer https t co 8roepzmp87</t>
-  </si>
-  <si>
-    <t>bahasa inggris p keren indonesia pandang top dunia quote-nya bobot</t>
-  </si>
-  <si>
-    <t>mas puas malam dengan aura tampil pak kan garang tegas berani</t>
-  </si>
-  <si>
-    <t>kembali jaya indonesia kawal bapak tuju istana negara prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>jawab pak tanggap tahan rapuh yang sipil sangat percaya tni</t>
-  </si>
-  <si>
-    <t>bismillah pak insaallah allah mudah debat hari semangat sukses pak https t co xer 1pigoxr</t>
-  </si>
-  <si>
-    <t>kata korupsi indonesia ada taraf parah kalau sakit sudah stadium</t>
-  </si>
-  <si>
-    <t>telak momen blejekin si doi pak dhe keren debatkeempatpilpres 2019 jokowimengubahsemua 01dila</t>
-  </si>
-  <si>
-    <t>tertawa puas takut marah larang ingat pilih biar bebas tertawa batas</t>
-  </si>
-  <si>
-    <t>nilai besar jumlah duduk muslim jadi salah satu kuat diplomasi indonesia</t>
-  </si>
-  <si>
-    <t>pak tekan soal kecil anggar tahan pak</t>
-  </si>
-  <si>
-    <t>kalau sederhana bunyi jadi besar pilih tolol https t co 5jtydtkg5c</t>
-  </si>
-  <si>
-    <t>pak tinggal panggung kepala tegak laksana ayam jago habis menang tarung keren</t>
-  </si>
-  <si>
-    <t>alhamdulillah sudah tiba hotel shangri-la siap dukung pak debat empat pilpres bismilllah</t>
-  </si>
-  <si>
-    <t>pak kalau benar pikir bapak soal tahan aman mohon maaf bapak layak ganti</t>
-  </si>
-  <si>
-    <t>debat malam final sedikit ragu kepada orang subianto ideologi pancasila</t>
-  </si>
-  <si>
-    <t>sila puas bangga jadi negara mediator international sindir banyak hutang</t>
-  </si>
-  <si>
-    <t>uno jika menang 1 5 pdb alokasi sektor hankam https t co 8toa5jljcg</t>
-  </si>
-  <si>
-    <t>kayak kalau jadi presiden baru tahun udah perang deh dilikirin perang mulu</t>
-  </si>
-  <si>
-    <t>good bye pak sandi beres semua laku scaling makmur</t>
-  </si>
-  <si>
-    <t>pak kata nasionalis tinggi pak usah swis indonesia lebih tahun masa saham di nasional</t>
-  </si>
-  <si>
-    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co phy 5t8pclm</t>
-  </si>
-  <si>
-    <t>bukan apa dari sudut kota kecil jogjakarta punya semangat menang prabowo-sandi</t>
-  </si>
-  <si>
-    <t>pemerintahandilan perintah percaya tni mantap jokowilagi https t co ws2xjlvdz9</t>
-  </si>
-  <si>
-    <t>sejak dukung tahun tetap dukung menang ya tetap ngamen ada imbal proyek</t>
-  </si>
-  <si>
-    <t>mantap makin yakin indonesia menang kami pancasila ideologi final kami tekad mempertahankanya</t>
-  </si>
-  <si>
-    <t>jiwa sangat nasionalis you pak debat malam sungguh sangat luar biasa prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>ngajak maju ngajak perang jadi clear gaes siapa harus pilih pemerintahandilan</t>
-  </si>
-  <si>
-    <t>sila kalian ketawa kaya bilang bocor lalu sekarang soal tahan kalian ketawa</t>
-  </si>
-  <si>
-    <t>calon presiden nilai unggul debat calon presiden klaim kuasa soal kait tema debat</t>
-  </si>
-  <si>
-    <t>https t co mmjebjk 6md pemerintahandilan calon wakil presiden ma ruf amin kata tampil sesuai harap</t>
-  </si>
-  <si>
-    <t>deklarasi rawan nasution saudara deklarasi mutk dukung pasang prabowo-sandi pilpres alhamdulillah</t>
-  </si>
-  <si>
-    <t>manusia ada kubu tuh selalu akal sehat</t>
-  </si>
-  <si>
-    <t>sekali rendah tni bilang lebih tni tni cukk apa maksud</t>
-  </si>
-  <si>
-    <t>prabowo sandi nyerang bang beliau bicara jujur otentik pk poles apa bisa</t>
-  </si>
-  <si>
-    <t>pak korupsi turun sistem baik bagus pak pemerintahandilan</t>
-  </si>
-  <si>
-    <t>buzzer bayar siap ikut polling nih rakyat mau lawan lihat siapa menang prabowo</t>
-  </si>
-  <si>
-    <t>rada ijid ningali bobotoh deklarasi dukung paslon rek deklarasi milih</t>
-  </si>
-  <si>
-    <t>ujung debat calon presiden pak hasil jinak emosi satu kalimat santun sahabat tidak pernah putus</t>
-  </si>
-  <si>
-    <t>kuis pilpres calon presiden mana suka joged telanjang dada muka umum https t co jn0ui9jd3s c7 -</t>
-  </si>
-  <si>
-    <t>visi misi kok kayak orang surup promosi kok marah</t>
-  </si>
-  <si>
-    <t>ni adek bagi kelompok radikal mau ganti pancasila wajah jangan udah rem dukung sandi</t>
-  </si>
-  <si>
-    <t>imho pak lebih baik tak dalam debat kali</t>
-  </si>
-  <si>
-    <t>malam bungkam juga dukung tidak ada ria sorak gembira</t>
-  </si>
-  <si>
-    <t>tahan aman indonesia harga mati jenderal kalau dunia internasional lihat balik</t>
-  </si>
-  <si>
-    <t>tuh bingung jadi pak prabowo masak balik jadul makin yakin kalau pak jangan 01indonesiamaju</t>
-  </si>
-  <si>
-    <t>serentak kompak naik jokowidiambangkekalahan kita sambut pimpin baru - sandi</t>
-  </si>
-  <si>
-    <t>pak lebih percaya teknologi lama https t co nfiq 982l67</t>
-  </si>
-  <si>
-    <t>kuat tahan sangat rapuh lemah bukan salah pak tapi tidak tahu salah siapa</t>
-  </si>
-  <si>
-    <t>sering sedang naik sepeda rantai putus percaya saya pak rantai sahabat tidak pernah putus</t>
-  </si>
-  <si>
-    <t>percaya rantai sahabat pak yakin akan pernah putus sweet banget sih pakde</t>
-  </si>
-  <si>
-    <t>emosi kontrol parah audiens orang begini bahaya kalau pimpin</t>
-  </si>
-  <si>
-    <t>silah tertawa jadi presiden kalau beliau menang ketawa larang</t>
-  </si>
-  <si>
-    <t>jokowi faham model perang depan perang apa kalau jadi cyber war space war</t>
-  </si>
-  <si>
-    <t>masuk all seriousness saya ngerti topik military defense harus jadi sisi kuat malah beranta gitu</t>
-  </si>
-  <si>
-    <t>merinding tanda cinta rakyat hadap pak moga lanjut periode gaspoljokowijempol</t>
-  </si>
-  <si>
-    <t>harap harap rakyat ingin ubah indonesia adil makmur april coblos pilih</t>
-  </si>
-  <si>
-    <t>saya bela rakyat hormat sangat mulia subianto prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co 328hggut9c</t>
-  </si>
-  <si>
-    <t>debat hari lah sifat asli pak mulai keluar nampaknya beliau tidak tahan sandiwara jadi orang baik</t>
-  </si>
-  <si>
-    <t>lihat ganas malam tapi lihat prihatin seperti habis pikir gemas sendiri bisik</t>
-  </si>
-  <si>
-    <t>perintah an sigap layan rakyat bagus pak pemerintahandilan https t co vwhecy 74nd</t>
-  </si>
-  <si>
-    <t>yuk satu satu lebih asyik pemerintahandilan https t co oejifofpsx</t>
-  </si>
-  <si>
-    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut dimarahin pak</t>
-  </si>
-  <si>
-    <t>debat calon presiden malam saya ikan score 10-0 buat menang pak bisa lihat karakter pimpin kuat</t>
-  </si>
-  <si>
-    <t>sebut betul koruptor orang baik pilih jadi presiden diri beri sempat</t>
-  </si>
-  <si>
-    <t>kalau bicara nasionalisme p semangat jangan ketawa lemah itu reaksi spontan patriotik</t>
-  </si>
-  <si>
-    <t>tertawa tertawa larang sama pak debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>perlu garis bawah ke afganistan pake rompi anti peluru</t>
-  </si>
-  <si>
-    <t>marah sih pak panggil dil debatpilpres 2019 kali pemerintahandilan</t>
-  </si>
-  <si>
-    <t>milu legislatif pilih presiden april besok habis biaya tidak sedikit triliun rupiah</t>
-  </si>
-  <si>
-    <t>warga negara baik pilih pimpin baik jawab baik kita semua 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>pak masalah apa si sini cerita sini jan marah marah mulu dong kek dosen kalau ngambek mahasiswa nya</t>
-  </si>
-  <si>
-    <t>serang emosi pak tetap kata bukan salah bapak salut engkau sungguh jiwa besar</t>
-  </si>
-  <si>
-    <t>pak timses kamu bilang anak ingus nih tertib pak bapak hormat bangsa</t>
-  </si>
-  <si>
-    <t>papar visi misi klaim praktik korupsi perintah turut lemah negara</t>
-  </si>
-  <si>
-    <t>kata pak bukan lemah kalah kuat yang lambat kalah yang cepat</t>
-  </si>
-  <si>
-    <t>kpu angkat bicara soal alokasi waktu cara adil masih jangan bilang main curang hm</t>
-  </si>
-  <si>
-    <t>moga pak beri mudah lancar malam al fatihah prabowobentengnkri https t co gmhz 1husuk</t>
-  </si>
-  <si>
-    <t>bawah pimpin prabowo-sandi akan komitmen hadir harga bahan pokok stabil jangkau</t>
-  </si>
-  <si>
-    <t>kata mobil esemka bohong moga dosa 2nya ampun allah swt yang fitnah kait ini pak</t>
-  </si>
-  <si>
-    <t>insyallah allah menang indonesia jadi macan asia bukan cebong asia</t>
-  </si>
-  <si>
-    <t>sama indonesia kuat prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>presiden conference pasca debat tkn cara baca data pak kena kuat militer banding anggar</t>
-  </si>
-  <si>
-    <t>warga negara baik pilih pimpin baik jawab baik menangjokowilagi</t>
-  </si>
-  <si>
-    <t>saling hujat saling remeh saling toleransi kawan sahabat idola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debat empat pilpres tutup momen manis </t>
-  </si>
-  <si>
-    <t>konsep pak indonesia maju mantap menangjokowilagi</t>
-  </si>
-  <si>
-    <t>buah tangan perintah pak sby saja aku debat aneh demen main klaim</t>
-  </si>
-  <si>
-    <t>salut bangga pakde walaupun sipil bagai panglima tinggi baik harga kerja keras</t>
-  </si>
-  <si>
-    <t>indonesia kini sama jadi negara hebat menangjokowilagi https t co pyphejzzou</t>
-  </si>
-  <si>
-    <t>tukang kayu lebih ngerti militer yang pernah jadi militer lebih tni tni</t>
-  </si>
-  <si>
-    <t>nyawa saya taruh republik jangan ragu nasionalisme mas</t>
-  </si>
-  <si>
-    <t>pancasila hasil suatu komporomi besar cemerlang generasi diri bangsa indonesia</t>
-  </si>
-  <si>
-    <t>paling sewot sayagolput dukung kami ingat pada alam bawah sadar bahwa kalah</t>
-  </si>
-  <si>
-    <t>jember siang tadi rombong wi sambut guru honorer ria</t>
-  </si>
-  <si>
-    <t>dengan tekad kuat rubah bangsa pak mampu beri ubah bagai lini bangsa</t>
-  </si>
-  <si>
-    <t>yang tau definisi polyglot coba cek google deh nyata pak orang polyglot</t>
-  </si>
-  <si>
-    <t>sangat haru salam pisah pak jokowi barusan sahabat nomer satu presiden no</t>
-  </si>
-  <si>
-    <t>kuat 2an adu isu elektabilitas media tulis elektabilitas non-prabowo sulit kejar</t>
-  </si>
-  <si>
-    <t>rakyat percaya tni 01dilanjutkan https t co fhdmwypu 5w</t>
-  </si>
-  <si>
-    <t>pak nih kalau tongkrong tipikal semangat cerita panjang lebar tidak ditanggepin sama anak anak skip jangan gitu</t>
-  </si>
-  <si>
-    <t>pemerintahandilan keren tingkat puas publik hadap kerja perintah jokowi-jk tinggi atas</t>
-  </si>
-  <si>
-    <t>tahan bidang hankam terlalu lemah anggar sangat kecil yang kita baik</t>
-  </si>
-  <si>
-    <t>selamat pagi penganten lebih paham mana coblos mana pilih goyang jari pilih</t>
-  </si>
-  <si>
-    <t>indonesia maju infrastruktur baik menang 01dilanjutkan https t co muddzx 0kwx</t>
-  </si>
-  <si>
-    <t>selamat nama jadi trending paling banyak bicara good kerja buat anak twitter dukung</t>
-  </si>
-  <si>
-    <t>insyallah allah pak menang telak prabowobentengnkri https t co qptegiu 2ua</t>
-  </si>
-  <si>
-    <t>wajah prabohong pucet gara-gara tau apa kata pak kualitas lanjut pemerintahandilan</t>
-  </si>
-  <si>
-    <t>khas pak kena kemeja putih lengan panjang gulung 01dilanjutkan https t co re2jvkcqto</t>
-  </si>
-  <si>
-    <t>jalan demokrasi baik laksana sekarang kok tolak belakang prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>personifikasi debat empat sangat kuat itu kokoh pribadi diri bagai orang patriotik</t>
-  </si>
-  <si>
-    <t>sama orang hebat indonesia maju unggul menangjokowilagi</t>
-  </si>
-  <si>
-    <t>marah tahan negara lemah tertawa bukti sangkut paranoid atas ancam asing</t>
-  </si>
-  <si>
-    <t>jumlah massa kampanye akbar pakansari hingga jalan capai satu juta orang luar biasa bogor</t>
-  </si>
-  <si>
-    <t>kita banding pakai hati nurani akal sehat pancasila beri sejak dini</t>
-  </si>
-  <si>
-    <t>mumpung debatpilpres 2019 istirahat senyum manis dulu salam bismillah indonesia</t>
-  </si>
-  <si>
-    <t>hei kalian suka nyinyirin bapak jelek 2an beliau maaf selalu bukti beliau orang baik tanggungjawab</t>
-  </si>
-  <si>
-    <t>jual beli jabat waris sejak perintah mantan mertua kamu pak memang susah rubah mental orde baru</t>
-  </si>
-  <si>
-    <t>orasi politik ketua umum pan tegas jawa barat salah satu kunci menang</t>
-  </si>
-  <si>
-    <t>mantap bang cebong marahin mala ketawa dasar dungu akut</t>
-  </si>
-  <si>
-    <t>saya inti perintah bahwa lembaga perintah harus bersih korupsi</t>
-  </si>
-  <si>
-    <t>omong pak calon presiden pecat tni begitu pantes pecat wong sering gagal paham https t co etacadeg 8n</t>
-  </si>
-  <si>
-    <t>sangat dukung kembang ekonomi digital lalu pemerintahandilan usaha pelihara stratup</t>
-  </si>
-  <si>
-    <t>benar pak sampai tadi bahwasannya perintah sekarang banyak teori tidak sesuai nyata</t>
-  </si>
-  <si>
-    <t>ada wiranto luhut hendro agum masak jenderal dukung bila pki sendiri jenderal</t>
-  </si>
-  <si>
-    <t>culik culik hati milenial tionghoa kuaile de zhandou selamat juang</t>
-  </si>
-  <si>
-    <t>nonton kok jurus aja monoton contoh bahas korupsi lagi lagi jurus kemaren</t>
-  </si>
-  <si>
-    <t>rawan muda gelar nobar tekan golput kalang milenial https t co w4k3nrowfy</t>
-  </si>
-  <si>
-    <t>salah satu contoh kecil prestasi hasil nya jelas silah cek sendiri data</t>
-  </si>
-  <si>
-    <t>sumber foto jenderal goblok udah edit eh foto orang kamboja keren cici kamboja dukung</t>
-  </si>
-  <si>
-    <t>pak mau indonesia hormat tidak tahu cara capa tahu cara pidato</t>
-  </si>
-  <si>
-    <t>closing statement aku kuat lawan</t>
-  </si>
-  <si>
-    <t>beberapa pimpin organisasi bobotoh para suporter persib bandung deklarasi dukung pak</t>
-  </si>
-  <si>
-    <t>saya bukan salah saya kuat tahan sangat rapuh lemah bukan salah bapak</t>
-  </si>
-  <si>
-    <t>soal freeport sangat untung buat apalagi emas perak tembaga</t>
-  </si>
-  <si>
-    <t>kata p anggar tni harus naik n perlu tni kuat tahan wilayah</t>
-  </si>
-  <si>
-    <t>jenderal lawan umur tahun taruh nyawa pancasila untuk republik</t>
-  </si>
-  <si>
-    <t>pak serang hujat tahan bilang kalah nyerang akibat selalu keluar konteks tahan sesuai tema</t>
-  </si>
-  <si>
-    <t>mantap kali calon presiden pak malam cerdas tegas prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>statement soal usah ngurusin masalah negara adalah pukul telak buat dukung</t>
-  </si>
-  <si>
-    <t>wah salah nih mas kasih tahu litbang</t>
-  </si>
-  <si>
-    <t>kait aspek tahan keamananan point penting debatpilpres 2019 nyata penting kembang alutsista</t>
-  </si>
-  <si>
-    <t>senang naik sepeda sering rantai putus yakin rantai sahabat dengan tak pernah putus</t>
-  </si>
-  <si>
-    <t>sipil sangat percaya tni beliau lebih percaya tni pada mantan tni yang pecat</t>
-  </si>
-  <si>
-    <t>pak tadi maju tidak pakai teks gestur di luar kepala lulus fort cantik gitu</t>
-  </si>
-  <si>
-    <t>indonesia bawah jadi bangsa emis utang peran dunia internasional hilang presiden tak bicara</t>
-  </si>
-  <si>
-    <t>denger tuh kata pak saling harga https t co l143x7rvt5</t>
-  </si>
-  <si>
-    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin</t>
-  </si>
-  <si>
-    <t>wkkwkwkwkk asli salah satu omong wowo ngaco pecatanlebihtnidaritni mending jauh pak mana</t>
-  </si>
-  <si>
-    <t>mbak badan menang nasional jangan mau tipu sama hti angin surga buat hti akan buat dukung</t>
-  </si>
-  <si>
-    <t>marah cinta hadap negara kalian goreng sedang bohong manis si jokowi malah kalian puji</t>
-  </si>
-  <si>
-    <t>pilpres tarung akal sehat akal dungu jokowidiambangkekalahan https t co 0ygyvuuior</t>
-  </si>
-  <si>
-    <t>pak selalu tampil elegan negarawan tampil lepas penuh canda tawa tak segan joget riang</t>
-  </si>
-  <si>
-    <t>isu khilafah isu kaum keok-ers katolik pilih pimpin jujur bapak</t>
-  </si>
-  <si>
-    <t>sumpah tahan pancasila titik darah akhir bohong kecewa bapak luka dikit jangan udah pakai sarung tangan</t>
-  </si>
-  <si>
-    <t>kalau kayak gin performa pak jadi menhan perintah presiden 2019-2024 tak pantas</t>
-  </si>
-  <si>
-    <t>bapak info sesat petinggi tni woi om wowo lupa bukankah kamu lebih parah dibohongin sama dukung sendiri</t>
-  </si>
-  <si>
-    <t>alhamdulillah debat langsung lancar berkat doa semua cinta indonesia sayang</t>
-  </si>
-  <si>
-    <t>lebih tni tni bagus pak aku overdosis jadi makin mudah kami pilih presiden</t>
-  </si>
-  <si>
-    <t>subianto ragu mampu ri bidang tahan situs global fire power fokus masalah</t>
-  </si>
-  <si>
-    <t>satu sisi tegas bilang akan ubah nkri jadi khilafah di sisi badan menang nasional malah janji hti hidup</t>
-  </si>
-  <si>
-    <t>siap bawa indonesia maju cuma pak 01dilanjutkan https t co mhvlauseoz</t>
-  </si>
-  <si>
-    <t>2beer unpopular opinion pak mungkin punya track record tidak gitu baik saya percaya kalau beliau orang baik</t>
-  </si>
-  <si>
-    <t>apa sampai mas tema debat isi tegas lugas mudah erti sesuai lapang</t>
-  </si>
-  <si>
-    <t>pak biar paham rata skor cpi dunia tahu kalau indonesia arti bawah rata</t>
-  </si>
-  <si>
-    <t>pak all keluar debat malam semua umpan lawan lahap habis bahkan jawab kerap jadi serang balik</t>
-  </si>
-  <si>
-    <t>rekam jejak bersih segala kasus langgar hukum menangjokowilagi</t>
-  </si>
-  <si>
-    <t>ketua umum pan insyallah allah jawa barat jadi menang pan - sandi</t>
-  </si>
-  <si>
-    <t>ken cepat punya presiden tegas berkharisma prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>paling penting bagaimana beri didik</t>
-  </si>
-  <si>
-    <t>jadi keliru kalau badan menang nasional beri angin hti harap suara hti justru hti percaya demokrasi</t>
-  </si>
-  <si>
-    <t>juang sama sama rakyat biar rakyat tentu</t>
-  </si>
-  <si>
-    <t>pakdhe budhe iriana suka kampanye suasana positif optimis penuh canda tawa ceria</t>
-  </si>
-  <si>
-    <t>astaga 2nya ngomong kalau dukung yang nuduh soal khilafah yang jelek 2in</t>
-  </si>
-  <si>
-    <t>kena tuduh pro-khilafah milik argumen menep mentah olah bela khilafah</t>
-  </si>
-  <si>
-    <t>pimpin garis beri contoh jaga satu bukan pecah belah mantap mas</t>
-  </si>
-  <si>
-    <t>mantap sekali nyata pak moga selalu konsisten prabowobentengnkri https t co apdde 5ubll</t>
-  </si>
-  <si>
-    <t>mantaaab yang tunggu argument cerdas tegas bapak pkivspancasila 18harilagicobloscapres02</t>
-  </si>
-  <si>
-    <t>hasil prediksi menang telak tema ahli beliau notabene milik wawasanya</t>
-  </si>
-  <si>
-    <t>andal jual kartu bangga layan satu pintu bangga program yang kata mampu kurang korupsi</t>
-  </si>
-  <si>
-    <t>lihat segi mana pak lebih unggul prabowobentengnkri https t co ksmrfawt 0c</t>
-  </si>
-  <si>
-    <t>dukung waktu fitnah kristen hebertus bila bila bila semua mereka tuduh malah di</t>
-  </si>
-  <si>
-    <t>dukung pak sukarela buat avatar dukung dukung pak</t>
-  </si>
-  <si>
-    <t>deklarasi maaruf amin menang yang singkat sebut jomang gagal laksana</t>
-  </si>
-  <si>
-    <t>tenaga medis paham penting sehat jantung jantung pak tetap sehat</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 paling kasihan sama orang percaya jadi aparat</t>
-  </si>
-  <si>
-    <t>jangan putus saudara biar rakyat tentu siapa baik bangsa -</t>
-  </si>
-  <si>
-    <t>sih pak selalu bandingin kondisi tni jaman sukarno jelas dulu ancam militer tinggi</t>
-  </si>
-  <si>
-    <t>baru telepon ibu maryani djoyohadikusumo kakak pak subianto memang kenal baik beliau</t>
-  </si>
-  <si>
-    <t>jangan ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu kata</t>
-  </si>
-  <si>
-    <t>habis sih telanjang debat mantap pak debatpilpres 2019 prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>hanya harap kelak negeri maju sama prabowo-sandi banyak bisa bantu pak</t>
-  </si>
-  <si>
-    <t>paling mantap debat malam prabowobentengnkri prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>perintah kuat pimpin tegas pihak prabowo-sandi yakin wujud jadi harap</t>
-  </si>
-  <si>
-    <t>pak mungkin inspirasi netijen haus tikai makanya marah</t>
-  </si>
-  <si>
-    <t>menang mbak sepenuh yakin pak menang</t>
-  </si>
-  <si>
-    <t>moga pak selalu sehat amin debatasyikjokowi https t co lww 2w8bb30</t>
-  </si>
-  <si>
-    <t>calon presiden nilai tak keluar narasi besar sendiri tak tampil istimewa</t>
-  </si>
-  <si>
-    <t>paslon calon presiden 01 jokowi-kh ma ruf amin terima deklarasi dukung kelompok supporter sepak bola viking bandung</t>
-  </si>
-  <si>
-    <t>nah pas jokowidiambangkekalahan prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>beda kelas bapak true warrior ksatria sejati</t>
-  </si>
-  <si>
-    <t>mantap pak malam kamu tunjuk sikap tegas nasionalis patriot sejati tolong jaga emosi</t>
-  </si>
-  <si>
-    <t>wowo kali ingat pak bapak hati para bisik bapak kena tahan</t>
-  </si>
-  <si>
-    <t>malam mantap prabowomenangdebat jokowidiambangkekalahan</t>
-  </si>
-  <si>
-    <t>insyallah jatim solid dukung nahdliyinbukanjokower nahdliyindukung 02 sayanusayamilih 02</t>
-  </si>
-  <si>
-    <t>jangan bilang salah hanya mau bilang fakta saya pulang kampung begini kondisi infrastruktur</t>
-  </si>
-  <si>
-    <t>singkir kali akan gagal akan lantik jadi presiden republik indonesia ke -</t>
-  </si>
-  <si>
-    <t>ngeri kalau lihat dukung beri viking amin jokowimengubahsemua 01jokowi3pdip kusukajokowiamin</t>
-  </si>
-  <si>
-    <t>kalau cuma pinter bahasa inggris usah cinta laura tukang becak dijogja banyak</t>
-  </si>
-  <si>
-    <t>sedih pilpres buat orang orang jadi benci lebih sekaligus puja lebih sama sama babi buta</t>
-  </si>
-  <si>
-    <t>deklarasi bobotoh dukung bobotohngahiji https t co ck2zv5jzvq</t>
-  </si>
-  <si>
-    <t>sandi cita cita indonesia adil makmur berdikari bidang ekonomi yuk terus gerak indonenesia</t>
-  </si>
-  <si>
-    <t>ambil sudut pandang pas ledak boom dilan 2014 cc prabowobentengnkri jokowidiambang</t>
-  </si>
-  <si>
-    <t>suka heran sama orang benci parah sama pak disakitin sakit apa sih https t co efc 7clo0mb</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni</t>
-  </si>
-  <si>
-    <t>lah malah ngulang omong</t>
-  </si>
-  <si>
-    <t>insyallah allah aroma menang buat pak bang sudah nampak jelas lihat tinggal kawal menang</t>
-  </si>
-  <si>
-    <t>pak benar orang baik pilih jadi presiden yang kali</t>
-  </si>
-  <si>
-    <t>turut ini tampil pak paling lepas benar</t>
-  </si>
-  <si>
-    <t>alas pilih prabowo menang debat april coblos sandi</t>
-  </si>
-  <si>
-    <t>udah deh cor usah banyak omong viking bobotoh buat deklarasi dukung</t>
-  </si>
-  <si>
-    <t>pak mantap jawab tenang jokowimengubahsemua nya jadi lebih baik maju jokowilagi</t>
-  </si>
-  <si>
-    <t>tuju pak presiden amin kalau lembaga perintah kuat korupsi jual beli jabat</t>
-  </si>
-  <si>
-    <t>pemerintahandilan tol langit rupa karya bangun bukti mampu dukung maju ekonomi digital</t>
-  </si>
-  <si>
-    <t>bangga baris pak prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>milenial love ya gaya milenial kena ott ahy partai demokrat demokrat dukung</t>
-  </si>
-  <si>
-    <t>lebih tni banyak tni</t>
-  </si>
-  <si>
-    <t>sistem alat teknologi semua bagus layan publik inti perintah bersih korupsi</t>
-  </si>
-  <si>
-    <t>isu khilafah hembus sutradara gempur patah ronde pertama katolik makin percaya</t>
-  </si>
-  <si>
-    <t>dil digital layan lebih baik guna teknologi lama pel deh pikir</t>
-  </si>
-  <si>
-    <t>clossing statement isyarat pisah bangga bapak segera gegas pulang serah kuasa</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni telak sekali bro tak kutik</t>
-  </si>
-  <si>
-    <t>buat tonton ketawa saat bilang bukan salah bapak tidak tau salah siapa</t>
-  </si>
-  <si>
-    <t>siapa bicara cara umum soal ini jangan korupsi perintah bersih</t>
-  </si>
-  <si>
-    <t>indonesia negara duduk muslim besar dunia percaya selesai banyak yang besar</t>
-  </si>
-  <si>
-    <t>baru kali tenang banget prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>milenial cinta pemerintahandilan keren https t co gg7eokdtnw</t>
-  </si>
-  <si>
-    <t>hormat bapak debat momen baik papar gagas rencana hadap benang kusut bangsa</t>
-  </si>
-  <si>
-    <t>tuduh itu saya diam tidak jawab bohong banget prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>rendah dukung tahana rupa bukti bila cara tak langsung sedang hukum publik</t>
-  </si>
-  <si>
-    <t>leceh tagar 02capresabadi lama 4 5 tahun juang ubah tidur cantik jangan sana</t>
-  </si>
-  <si>
-    <t>tetap fokus doa allah maha kuasa menang indonesia satu</t>
-  </si>
-  <si>
-    <t>percaya tni pecatanlebihtnidaritni https t co qtfysc 93hd</t>
-  </si>
-  <si>
-    <t>depan negara cepat kalah negara lambat kata pak cepat super cepat lompat depan</t>
-  </si>
-  <si>
-    <t>makin yakin rakyat ubah tunjuk kelas bagai orang memang paham soal bangsa depan</t>
-  </si>
-  <si>
-    <t>lho kok ngeles pak tadi kata ada perang sekarang bilang kira kok pucat</t>
-  </si>
-  <si>
-    <t>repost jokowi amin pak hidup pancasila pimpin bisa beri contoh baik</t>
-  </si>
-  <si>
-    <t>telah debat calon presiden kpu setel lagu mesra jangan cepat lalu romantisasi sahabat</t>
-  </si>
-  <si>
-    <t>siap nonton debatpilpreskeempat tema debat malam untung p kuasa tema debat</t>
-  </si>
-  <si>
-    <t>hebat sekali dlm respon akhir debat pilpres tegas bagus indonesia kuat berdikari</t>
-  </si>
-  <si>
-    <t>nyerocos pakai bahas inggris debatpilpres 2019 malam sontak hilang kosentrasi fokus</t>
-  </si>
-  <si>
-    <t>dong selalu fokus masalah bicara perlu banyak kerja kepoinpemilu jokowimengubahsemua</t>
-  </si>
-  <si>
-    <t>prinsip perintah pak era revolusi 40 cepat tele simple pak yakin kata</t>
-  </si>
-  <si>
-    <t>gigi sampai hilang sakit gara-gara lihat performa pak keren nendang jokowi</t>
-  </si>
-  <si>
-    <t>terimakasih pak malam sekali bapak bukti mereka juang rakyat</t>
-  </si>
-  <si>
-    <t>dulur sebut apa buat optimis pak 01dilanjutkan kata tagar</t>
-  </si>
-  <si>
-    <t>pak bagaimana bilang orang asing indonesia punya potensial besar bukan nya bersukur di doa sama</t>
-  </si>
-  <si>
-    <t>acu adalah mertua bukti keluarga mertua di baris yang mau mundur masa lalu</t>
-  </si>
-  <si>
-    <t>baru kali mau fitnah labil kadang bilang sholat bukan islam pernah jumat</t>
-  </si>
-  <si>
-    <t>juga pak hendro pak luhut coba lihat dukung sandi biar mikirin khilafah terus</t>
-  </si>
-  <si>
-    <t>https t co gfse 1zynfq siap indonesia hadap industri 4 0 makin siap pakde tau cara</t>
-  </si>
-  <si>
-    <t>debat hari konfirmasi menang terima kasih mas tampil mas bowo hari ruarbiasa</t>
-  </si>
-  <si>
-    <t>kadang bingung sih dukung sama antem substansi saling jatuh</t>
-  </si>
-  <si>
-    <t>itu nyata raut wajah tampak lelah pucat pasrah akhir sadar ucap salam pisah</t>
-  </si>
-  <si>
-    <t>orang dungu beri label kubu kubu dukung khilafah lain waktu membully</t>
-  </si>
-  <si>
-    <t>pak masalah nasional bisa selesai cara emosional maaf sekadar ingat</t>
-  </si>
-  <si>
-    <t>bagai tni wakaf jiwa raga bela negara walo mati medan laga</t>
-  </si>
-  <si>
-    <t>pakde beri fasilitas lalu bangun gedung inkubasi para laku usaha rintis startup</t>
-  </si>
-  <si>
-    <t>malam hebat miss makin yakin indonesia menang prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>cetar bahana porak poranda tahana buat suka gaya lho jenderal prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>mbak jaga stamina istirahat pas</t>
-  </si>
-  <si>
-    <t>terima kasih bapak atas tampil luar biasa malam saya keluarga histeria doa bapak menang</t>
-  </si>
-  <si>
-    <t>jadi benar sepakat semua usul program pak tuju silah lanjut periode</t>
-  </si>
-  <si>
-    <t>sekarang begini untuk uji nyali berani nyata libas juang hizbut tahrir</t>
-  </si>
-  <si>
-    <t>eh tunggu jual beli jabat angkat pak menteri sumber internal perintah sekarang</t>
-  </si>
-  <si>
-    <t>jokowi muka merah saya lawan - jokowidiambangkekalahan jokowidiambangkekalahan</t>
-  </si>
-  <si>
-    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co nugbqspxbc</t>
-  </si>
-  <si>
-    <t>colokin nih jenderal pecat militer indonesia lebih kuat israel australia - the global firepower</t>
-  </si>
-  <si>
-    <t>istimewa sangat istimewa closing statement pak betul tunjuk beliau memang orang negarawan</t>
-  </si>
-  <si>
-    <t>tau betul ibu dukung kang dukung bukan ganti pancasila</t>
-  </si>
-  <si>
-    <t>milik gagas cerdas beliau rela mati indonesia benar prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>era jaman sekarang teknologi sangat penting pak bangga unicorn indonesia</t>
-  </si>
-  <si>
-    <t>pas bilang pernah militer pak cuma senyum pecat koq bangga sih wowo tuh punya malu</t>
-  </si>
-  <si>
-    <t>subianto figur hebat panglima tinggi ri seluruh komponen bangsa dukung kamu</t>
-  </si>
-  <si>
-    <t>apik kami pesan kami ke akar rumput semua ni sisih kan uang belanja ubah</t>
-  </si>
-  <si>
-    <t>malam pak luar biasa menangjokowilagi</t>
-  </si>
-  <si>
-    <t>tadbir nan pantas layan rakyat bagus bandela pemerintahandilan https t co gkgy 6lrpko</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 pancasila ideologi final pancasila ideologi final</t>
-  </si>
-  <si>
-    <t>apa pake teknologi lama ajar ilmu perang ribu tahun hahaha gin kali kalau ikut pilpres mulu</t>
-  </si>
-  <si>
-    <t>jangan biar pak juang sendiri ayo satu suara satu pilih april coblos baju putih</t>
-  </si>
-  <si>
-    <t>sedih khawatir diri prabowobentengnkri prabowobentengnkri https t co xoemzw 201d</t>
-  </si>
-  <si>
-    <t>tampil paling hebat lama prabowomenangdebat prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>apresiasi saudara di papua pakde jadi percuma kalian tebar bohong papua derita</t>
-  </si>
-  <si>
-    <t>pak yusril tegas pbb dukung insyallah allah siap kawal pancasila tidak ganti</t>
-  </si>
-  <si>
-    <t>ehem kecewa nyenyak tidur insyallah yakin presiden aamiin prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>kawan semua kita dukung pemerintahandilan lanjut era untuk pimpin indonesia makin baik</t>
-  </si>
-  <si>
-    <t>rezim halal segala cara untuk kuasa tak duli meski bangsa hancur porak poranda</t>
-  </si>
-  <si>
-    <t>satu yakin tni satu pesimis jadi pemerintahandilan lanjut indonesia maju</t>
-  </si>
-  <si>
-    <t>https t co m1u7nlbagq insyallah pak bang menang tanggal april amin</t>
-  </si>
-  <si>
-    <t>semangat salam kompak all tnt-pepes semua dukung juang sama pak tuju indonesia jaya</t>
-  </si>
-  <si>
-    <t>kapabilitas dlm istirahat down materi debat jelas tanggap trengginas gilas</t>
-  </si>
-  <si>
-    <t>pilpres kali kurang seru hanya sebar ilusi takut jargon jatuh visi misi program lebih baik</t>
-  </si>
-  <si>
-    <t>tadbir nan pantas layan rakyat bagus bandela pemerintahandilan https t co dmjpr 2uqyg</t>
-  </si>
-  <si>
-    <t>paranoid perang mulu sama asing padahal dikhawatirin benar justru perang sodara</t>
-  </si>
-  <si>
-    <t>duh sumpah merinding dengar pidato mas ini negarawan sejati selalu usaha abdi</t>
-  </si>
-  <si>
-    <t>dear pak taun bapak jabat akan awas kritisi omel bapak coblos temiik</t>
-  </si>
-  <si>
-    <t>01caprespendustaabadi bayang pun kecoh dusta</t>
-  </si>
-  <si>
-    <t>enak dukung ajak pak tatap masa depan optimis hadap dinamika era iot kalau ajak balik masa lalu</t>
-  </si>
-  <si>
-    <t>pak jangan sampe korban nyawa ibu pertiwi kita</t>
-  </si>
-  <si>
-    <t>mas tegas lawan siapa ingin rubah ideologi pancasila dengerin tuh bong</t>
-  </si>
-  <si>
-    <t>memang sekarang jaman digital bro perintah pemerintahandilan dong keren digital layan</t>
-  </si>
-  <si>
-    <t>kerja perintah jelas unggul 01dilanjutkan https t co yjves 25euq</t>
-  </si>
-  <si>
-    <t>mantap pak tegas cerdazzz</t>
-  </si>
-  <si>
-    <t>saya bisa hadir sama ibu bahagia banget acara bapak bal luarbiasa</t>
-  </si>
-  <si>
-    <t>closing statement pak gambar demokrasi yang sungguh</t>
-  </si>
-  <si>
-    <t>benar bangsa jadi bangsa kuat segani bukan besar sanjung</t>
-  </si>
-  <si>
-    <t>lihat udah cukup percaya diri sama base konservatif religius makanya berani kenal narasi</t>
-  </si>
-  <si>
-    <t>malam bapak jadi serang tangguh bagus pak buat tahana ngelap keringat mulu</t>
-  </si>
-  <si>
-    <t>sobat sekali milu ajang gembira dlm beda aja pak kena baju putih tps</t>
-  </si>
-  <si>
-    <t>sama presiden perintah indonesia konsisten bela negara palestina bagai warga dunia 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>dapat lembaga perintah kuat</t>
-  </si>
-  <si>
-    <t>sepakat sama om trik basi minggu kelar jadi mau periode</t>
-  </si>
-  <si>
-    <t>hal perintah bukan teori soal bagaimana jalan perintah baik</t>
-  </si>
-  <si>
-    <t>lho cak bisa mbentengi nkri sangat paham betul sistem tahan negara</t>
-  </si>
-  <si>
-    <t>rizal ramli pak mau revisi hehe kubu jokowi ada tanggpan rr sebut hehe seram</t>
-  </si>
-  <si>
-    <t>memang sosok pimpin teladan bangga 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>pak debat kemaren kasih amunisi kayak debat saya paling suka cara bapak debat</t>
-  </si>
-  <si>
-    <t>pak pribadi sederhana senang semua kalang menangjokowilagi</t>
-  </si>
-  <si>
-    <t>untung pilpres pak menang makanya bangun tol proyek tol perdana aceh rumah khusus masyarakat</t>
-  </si>
-  <si>
-    <t>perintah mau keluar paris tuju kata mikirin masa depan indonesia mau keluar pakta</t>
-  </si>
-  <si>
-    <t>pak bijak sikap hasil survei nyata menang tebal menangjokowilagi</t>
-  </si>
-  <si>
-    <t>kamu lihat jujur pak indonesia beliau segan tegur siapa tertawa indonesia</t>
-  </si>
-  <si>
-    <t>adalah agum gumelar dengan lantang wajah bicara jelek hadap sby</t>
-  </si>
-  <si>
-    <t>kaya rakyat indonesia sedot luar negeri kaya sendiri numpuk di luar negeri hehe -</t>
-  </si>
-  <si>
-    <t>kalau pak jadi presiden hidup mau ketawa jangan dimarahin</t>
-  </si>
-  <si>
-    <t>kalau kalian mau jadi kaum asal bapak senang jokowi kuasa hak kalian saya suka tampil malam</t>
-  </si>
-  <si>
-    <t>lebih tni tni jangan kamu maling muka manusia sombong</t>
-  </si>
-  <si>
-    <t>bongkar data uang orang kaya indonesia swiss ada korupsi simpan uang sana</t>
-  </si>
-  <si>
-    <t>sumpah debat pilpres x pak benar cadas keren prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>pak kata tahan lemah kompak tertawa kira 2 alas apa</t>
-  </si>
-  <si>
-    <t>tertawa tertawa larang pemerintahandilan 01dilanjutkan debatkeempatpilpres 2019</t>
-  </si>
-  <si>
-    <t>kamu bukan tni kamu pecat sandang gelar purnawirawan</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 malam telah balik dia jadi sosok luar biasa efek kejut</t>
-  </si>
-  <si>
-    <t>anak bangsa perlu bapak tegas bisa bangun karakter disiplin lihat debat bapak</t>
-  </si>
-  <si>
-    <t>turut konflik sosial libat muslim rohingya rakhine konflik sudah sangat lama sulit</t>
-  </si>
-  <si>
-    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut marah debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>pak beri harap optimisme 01dilanjutkan https t co rxwogeijvs</t>
-  </si>
-  <si>
-    <t>pak bilang pancasila final kalau mungkin beliau larang bendera larang hti kampanye</t>
-  </si>
-  <si>
-    <t>hahaha habis peluru ni si buat cerita pak marah segala lah</t>
-  </si>
-  <si>
-    <t>malam minggu adalah malam baik kita saksi pak sangat elegan</t>
-  </si>
-  <si>
-    <t>bong optimis unggul debat yang usung tema ideologi aman tahan</t>
-  </si>
-  <si>
-    <t>pak kalau ngeritik punya gagas tanding lebih baik jelas ketidakpastian</t>
-  </si>
-  <si>
-    <t>takar kadar pancasila harga mati calon presiden sini pak calon presiden pecat tni kok pernah bilang dukung</t>
-  </si>
-  <si>
-    <t>senyum optimis pak dhe sukses lancar debat malam ya pak tuhan kati</t>
-  </si>
-  <si>
-    <t>kalau tidak nonton debat pak menang jadi tidur alhamdulillah nyata pakde hajar</t>
-  </si>
-  <si>
-    <t>raja hutang satu 2nya calon presiden beban hutang nila rp 7 6 triliun apa</t>
-  </si>
-  <si>
-    <t>tak sisa sedikit celah buat lawan argumentasi memang tidak paham prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>fix bagai orang purbalingga banyumasan dukung pak</t>
-  </si>
-  <si>
-    <t>kuat apa kurang insyallah alah teyap gagal prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>sampe bingung banyak kutip luar biasa tohok banget</t>
-  </si>
-  <si>
-    <t>siapa pilih rakyat akan tunduk patuh - karawang maret https t co h7ihhwk8sr</t>
-  </si>
-  <si>
-    <t>pak lebih tni tni bapak jangan inferior begini dong kata negara tak hormat</t>
-  </si>
-  <si>
-    <t>pecaaahh banget mashaallah sama wujud indonesia adil makmur</t>
-  </si>
-  <si>
-    <t>pikir kalau benar serang armada perang ada sekarang bukan ketawa malah nang darah</t>
-  </si>
-  <si>
-    <t>terima kasih rakyat jambi insyallah allah akan jumpa di masa lebih baik merdeka https t co ms7crkhozf</t>
-  </si>
-  <si>
-    <t>ibu fatimah kalla adik pak jusuf kalla dukung sandi jokowi silah ngaciro</t>
-  </si>
-  <si>
-    <t>pantai panjang bengkulu bumi raflesia terima kasih jaga tps kalian masing-masing jangan demokrasi akal</t>
-  </si>
-  <si>
-    <t>marah si jayen sok tahu sebut indonesia ratus suku bangsa</t>
-  </si>
-  <si>
-    <t>kok malah bangga songong betul sih om eee panjoel genderuwo</t>
-  </si>
-  <si>
-    <t>duh jadi melow gitu akhir mas tak laku closing statement lebih prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>agak fatal ketika sampai klaim orang banyumas sebut keras salah banget</t>
-  </si>
-  <si>
-    <t>innalillaahi wa innailaihiraaji un keluarga besar turut duka cita bela sungkawa</t>
-  </si>
-  <si>
-    <t>kata tni milik budaya asal bapak senang asal bapak senang ini efek pernah pecat tni</t>
-  </si>
-  <si>
-    <t>pak tenang banget hari</t>
-  </si>
-  <si>
-    <t>terus kok si pecat omong doang ejek hina tni rapuh</t>
-  </si>
-  <si>
-    <t>salawi masuk neraka neraka panas mana jangan mana infrastruktur langit kalian janji</t>
-  </si>
-  <si>
-    <t>catat pak sudah laku delapan bohong besar tahun beberapa bohong lai</t>
-  </si>
-  <si>
-    <t>arus ubah tak bendung era tiba prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>beri kesan bagai orang orator cara essensi banyak terlalu subjektif</t>
-  </si>
-  <si>
-    <t>rindu cinta sayang mari menang beliau jemput pulang</t>
-  </si>
-  <si>
-    <t>lihat kalian fitnah anti islam mesjid at-taqarrub luluh lantak gempa aceh lalu</t>
-  </si>
-  <si>
-    <t>lho kok aneh sini menang tidak punya partai bukan buzzer pampang nyata</t>
-  </si>
-  <si>
-    <t>ibu ibu lawan biar larang kampanye mall penting menang prabowodansandipilihanrakyat</t>
-  </si>
-  <si>
-    <t>yes akhir bilang turut pribadi yang jahat orang belakang pak</t>
-  </si>
-  <si>
-    <t>arti jokowidiambangkekalahan lihat lebih banyak tunduk tolah toleh bingung</t>
-  </si>
-  <si>
-    <t>sebut budaya asal bapak senang asal bapak senang kental kalang tni</t>
-  </si>
-  <si>
-    <t>terima kasih jenderal ku malam kamu beri harap rakyat yakin pilih tepat</t>
-  </si>
-  <si>
-    <t>dasar tukang bohong kapan henti bohong pak kpk diri tahun ngawur kamu jokowi</t>
-  </si>
-  <si>
-    <t>sejahtera tni lama tahun perintah gaji tni pernah naik sejahtera tni jangan kurang</t>
-  </si>
-  <si>
-    <t>catat tanggal siap diri putih gbk sama sabtu april asjb barengjokowi asjb putihkangbk</t>
-  </si>
-  <si>
-    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin -</t>
-  </si>
-  <si>
-    <t>tanah papua memang selalu penuh hangat kunjung merauke lebih asa pulang kampung pada kampanye</t>
-  </si>
-  <si>
-    <t>lama kawan lalu musuh lama tetangga lalu tak saling bicara semua karena beda pilih</t>
-  </si>
-  <si>
-    <t>sangat percaya mampu tni kata calon presiden pecat tni https t co kc5cpgca0n</t>
-  </si>
-  <si>
-    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing cara militan</t>
-  </si>
-  <si>
-    <t>wow pakai bahasa inggris debat buat plonga plongo https t co chujvskyv 4 prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>closing statement orang pamit nuansa khawatir takut tinggal kalau kalah</t>
-  </si>
-  <si>
-    <t>terima kasih papua terima kasih rakyat merauke moga temu ada lebih baik</t>
-  </si>
-  <si>
-    <t>hari jum at nanya prabowojumatandimana nanya jauh mana islam</t>
-  </si>
-  <si>
-    <t>pesta demokrasi nama pesta harus senang lo man teman pak sama pak bisa saling santai</t>
-  </si>
-  <si>
-    <t>jadi presiden berat biar pak prabowobentengnkri jokowidiambangkekalahan https t co ehlgdl 2mcx</t>
-  </si>
-  <si>
-    <t>terimakasih pak datang manado bangga salam sama bapak insyallah allah bapak bang sandi menang</t>
-  </si>
-  <si>
-    <t>makin baik sama pak menangjokowilagi</t>
-  </si>
-  <si>
-    <t>berangkat bawah ke pucuk tinggi makanya tak pernah takut https t co 7ftilehkv1</t>
-  </si>
-  <si>
-    <t>front bela islam hti jelas di balik kalau yang bantah jelas sedang bohong https t co mwfxk 96sye</t>
-  </si>
-  <si>
-    <t>bangga prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>contoh orang tidak di ajak maju debatpilpres 2019 jokowimengubahsemua https t co omp 0spnmur</t>
-  </si>
-  <si>
-    <t>the strong will do what they can the weak will suffer nilai tahan indonesia terlalu lemah</t>
-  </si>
-  <si>
-    <t>rantai sahabat pak pak akan putus debatpilpres 2019 dengerin tuh tkn-bpn cebong kampret</t>
-  </si>
-  <si>
-    <t>dengar pak meski sangat lambat https t co aydhf 1aca7</t>
-  </si>
-  <si>
-    <t>pak jangan jelek tni ini lho salah satu prestasi tni 01dilanjutkan https t co ibgmfaixw 1</t>
-  </si>
-  <si>
-    <t>sepakat bang pak menang sejak pikir mental menang yang ngga milik pak</t>
-  </si>
-  <si>
-    <t>debat malam mas tampil luar biasa tegas lugas cerdas wibawa jadi macan indonesia perkasa</t>
-  </si>
-  <si>
-    <t>percaya pak rantai sahabat tidak pernah putus iya pak pun saya hormat</t>
-  </si>
-  <si>
-    <t>insyallah allah p kuasa debat malam dengan elegan n presidential saksi studio</t>
-  </si>
-  <si>
-    <t>malam pak tampil serang lugas skakmaat</t>
-  </si>
-  <si>
-    <t>prabowomenangdebat insyallah allah menang pilpres</t>
-  </si>
-  <si>
-    <t>debat kali tidak pegang telinga tanda tidak pikir panjang debat sorot mata tebar kosong</t>
-  </si>
-  <si>
-    <t>lah pak akan lupa sahabat lain jika masalah hukum</t>
-  </si>
-  <si>
-    <t>bagus pak lebih tni tni lucu nuduh percaya tni lah wong pak ex militer</t>
-  </si>
-  <si>
-    <t>politik luar negeri makin turun sering absen p forum internasional n sidang pbb</t>
-  </si>
-  <si>
-    <t>jangan pilih pimpin bohong ingkar janji provokasi rakyat kacang lupa kulit pilih pimpin jujur</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni saya sipil sangat percaya tni -</t>
-  </si>
-  <si>
-    <t>makanya kalau pilpres ada debat jangan beri tahu buat rusuh</t>
-  </si>
-  <si>
-    <t>sepakat malam pak kabul semua harap dukung debat kali nampol banget</t>
-  </si>
-  <si>
-    <t>political will cermin praktik berantas korupsi kata pula demokrasi</t>
-  </si>
-  <si>
-    <t>industri kreatif indonesia era presiden tumbuh sangat pesat</t>
-  </si>
-  <si>
-    <t>sudah jelas bisa ikut rombong wong sejak awal visi beda visi commuter line mau bikin maju jangan</t>
-  </si>
-  <si>
-    <t>helmy faishal debat kandidat tahap empat menang alam https t co 5iueilxkxo</t>
-  </si>
-  <si>
-    <t>juang hormat akan diri kaki sendiri kita tidak akan impor pangan</t>
-  </si>
-  <si>
-    <t>korupsi parah stadium empat https t co 4sqd2cyjnw prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>sangat untung jadi orang kualitas ilmu minim bisa jadi orang presiden</t>
-  </si>
-  <si>
-    <t>dulu pernah asal bapak senang asal bapak senang sujud sukur live lho tv one apa live lho asal bapak senang nya wow</t>
-  </si>
-  <si>
-    <t>santai banget screamo mantap jadi pasang bagus kek jokowi-ahok</t>
-  </si>
-  <si>
-    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 ngebacot kaya luar negeri ngomongin diri sendiri https t co tirpkmgt 4g</t>
-  </si>
-  <si>
-    <t>nkri harga mati pancasila selalu hati presidennnya tetap pancasilavskhilafah tim 88untukjokowi tim 88</t>
-  </si>
-  <si>
-    <t>kritik solusi bagai kaca air keruh kerja beri solusi nyata tumbuh ekonomi</t>
-  </si>
-  <si>
-    <t>si banyak omong soal tax rio rendah perusaaan sendiri nunggak pajak miliar</t>
-  </si>
-  <si>
-    <t>presiden bisa tidak bicara detail alutsista indonesia itu yang sensitif tahan</t>
-  </si>
-  <si>
-    <t>malam inj gak ikut nonton debtamu pak saya bagai dukung ikut gemetar pak takut yang lalu</t>
-  </si>
-  <si>
-    <t>malam benar keren prabowotidakmenyalahkanboneka prabowomenangdebat jokowidiambangkekalahan</t>
-  </si>
-  <si>
-    <t>haha yen wahid bilang salah cara ngebaca data anggar tahan</t>
-  </si>
-  <si>
-    <t>closing statement dingin pak makin mantap 17aprilcoblosbajuputih https t co gu7yd7owzz</t>
-  </si>
-  <si>
-    <t>pokok malam pak jos sekali mantap banget buat lawan klepek-klepek kaya ikan kurang air</t>
-  </si>
-  <si>
-    <t>debat udah selesai unggul - satu pujat 01caprespendustaabadi prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>kalau terima mandat akan bersih kuat lembaga perintah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>lebih semangat jaga momentum sd april prabowobentengnkri https t co evpzax 3bax</t>
-  </si>
-  <si>
-    <t>bidang tahan aman masih terlalu lemah anggar terlalu kecil yang kita baik</t>
-  </si>
-  <si>
-    <t>membully pak tak istri lalu pamer mesra keluarga</t>
-  </si>
-  <si>
-    <t>yakin lubuk hati dukung pada malu lihat jagoanya kaya gitu mata publik</t>
-  </si>
-  <si>
-    <t>pemerintahandilan tekan layan perintah baik butuh efektifitas efisiensi</t>
-  </si>
-  <si>
-    <t>hakul yakin indonesia hebat rakyat sejahtera wujud sama - prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 bagaimana mau maju tni kalau baru jadi mayor jangan udah pensiun sekarang jadi timses bapak</t>
-  </si>
-  <si>
-    <t>turut pk diplomasi arti tahan inti national interest bukan cuma senyam-senyum</t>
-  </si>
-  <si>
-    <t>bisik si jokowi lebih sibuk cari cara gebuk lawan politik waspada jaga nkri</t>
-  </si>
-  <si>
-    <t>bukan percaya sama tni tni lebih tni para tni orang patriot cinta nkri</t>
-  </si>
-  <si>
-    <t>ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu ujar</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 tidak harga internasional tuh doang mah dihargain kok</t>
-  </si>
-  <si>
-    <t>komplit tukang bohong main curang piye pak de</t>
-  </si>
-  <si>
-    <t>dong pak sangat percaya tni jokowidilan pemerintahandilan https t co uunuy 9su9e</t>
-  </si>
-  <si>
-    <t>unggul april menangjokowilagi</t>
-  </si>
-  <si>
-    <t>saat perintah kibal-kibul akhir jokowidiambangkekalahan masyarakat hilang percaya perintah</t>
-  </si>
-  <si>
-    <t>politik luar negeri sampai tak sesuai realitas dia sering tak hadir forum internasional</t>
-  </si>
-  <si>
-    <t>distrust paham apa makna hanya plonga-plongo debatpilpres 2019 https t co qpr 2qpbcj1</t>
-  </si>
-  <si>
-    <t>harus utama tuju perintah sendiri tuju perintah jelas akan jadi gaduh</t>
-  </si>
-  <si>
-    <t>depan mau ubah pancasila hadap https t co znzz 94ncaj</t>
-  </si>
-  <si>
-    <t>menang gagas menang debat menang pilpres prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>anak beri tahu toleransi kita beda - optimisindonesiamaju</t>
-  </si>
-  <si>
-    <t>nama benteng harus kokoh masuk allah uji waktu kondisi</t>
-  </si>
-  <si>
-    <t>percaya kalau pak pimpin baik pemerintahandilan</t>
-  </si>
-  <si>
-    <t>pak ini sering naik sepeda rantai sering putus paksa ganti rantai makan pak</t>
-  </si>
-  <si>
-    <t>meski indonesia milik saham persen freeport sebut untung freeport jauh lebih besar</t>
-  </si>
-  <si>
-    <t>ghiroh kab kalong menang sungguh haru bangga dlm parau suara brandal</t>
-  </si>
-  <si>
-    <t>mantap pak jokowidiambangkekalahan https t co 5aqu8vfkic</t>
-  </si>
-  <si>
-    <t>benteng nkri benteng bukan banteng prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>pak siap papar visi misi beliau tema debat malam 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>sosok pimpin baik maka tak ada alas golput 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>debat calon presiden kali seperti lihat orang dewasa wawas santun lawan</t>
-  </si>
-  <si>
-    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi indonesia</t>
-  </si>
-  <si>
-    <t>nah inti juang hasil panen raya jaga lumbung tikus</t>
-  </si>
-  <si>
-    <t>warga karawang mana kalau knytaan y laut manusia hadir sambut presiden</t>
-  </si>
-  <si>
-    <t>cuma doa moga terima nyata walaupun pahit rakyat presiden ri</t>
-  </si>
-  <si>
-    <t>simpul debat malam sangat cinta nkri jokowi sangat cinta dagang prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>lembaga perintah kuat baru negara kuat program bangun laksana</t>
-  </si>
-  <si>
-    <t>lebih baik pakai teknologi lama kaya indonesia keluar indonesia -</t>
-  </si>
-  <si>
-    <t>bapak info asal bapak senang https t co 11g3jkmdz3</t>
-  </si>
-  <si>
-    <t>indonesia maju sama pemerintahandilan https t co ue10thkyey</t>
-  </si>
-  <si>
-    <t>warkop dki tagline warkop dki memang visioner tertawa prabowomarah https t co 8wsgualxi6</t>
-  </si>
-  <si>
-    <t>nahkan sistem perintah udah oke banget deh poko pemerintahandilan keren pak https t co 1tomcggkxy</t>
-  </si>
-  <si>
-    <t>debat kami terima bagai saudara wahai mualaf politik memang pantas pimpin nkri</t>
-  </si>
-  <si>
-    <t>kalau pecat pensiun dong bapak dapat pensiun</t>
-  </si>
-  <si>
-    <t>karawang maret siapa pilih rakyat akan tunduk patuh - negarawan sejati</t>
-  </si>
-  <si>
-    <t>apa pak paham skor cpi indonesia maka indonesia masuk kategori hybrid regime</t>
-  </si>
-  <si>
-    <t>perintah dil digital layan sangat perlu</t>
-  </si>
-  <si>
-    <t>teknologi lama kaya tetap di negara sendiri kata duh maksud internetan pake dial-up</t>
-  </si>
-  <si>
-    <t>dari bumi pertiwi yang lepas nyata gera separatis hantu</t>
-  </si>
-  <si>
-    <t>bantu retwet teman teman seluruh dunia paham kalau sosok sangat depan toleransi</t>
-  </si>
-  <si>
-    <t>itu ma ruf amin senang tak provokasi https t co fmhnp 7nafz</t>
-  </si>
-  <si>
-    <t>mc kepada pak sila tanggap nyata pak kira ada beda</t>
-  </si>
-  <si>
-    <t>jadi presiden jangan prabohong udah ngamuk tertawa kok larang hancur prabowomarah</t>
-  </si>
-  <si>
-    <t>prabowo bahasa terlalu tinggi buat planga plongo</t>
-  </si>
-  <si>
-    <t>aman negara malah ketawa ngawur tidak nasionalis tuh pak tegor jangan prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>debat pak serang tapi beliau sabar balas</t>
-  </si>
-  <si>
-    <t>harus buat sistem henti bocor cegah korupsi prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>prabowomenangdebat prabowobentengnkri malam jadi kuat tekad sama menang</t>
-  </si>
-  <si>
-    <t>entah tahan negara mana maksud lemah palelu diketawain tonton tonton bentak ngeri</t>
-  </si>
-  <si>
-    <t>negara rakyat makmur selalu iring teknologi mumpuni tinggal teknologi</t>
-  </si>
-  <si>
-    <t>do a sama pak moga allah subhanahu wa ta ala meridhoi beri menang buat beliau</t>
-  </si>
-  <si>
-    <t>ini muncul survei senang debatpilpres 2019 ideasrabbani</t>
-  </si>
-  <si>
-    <t>pemerintahandilan turun tingkat korupsi https t co cwcotkvzyo</t>
-  </si>
-  <si>
-    <t>turut pimpin politik boleh buat situasi pecah belah nasional https t co butzybqt 6a</t>
-  </si>
-  <si>
-    <t>moga pak pimpin negara dengan adil cipta makmur prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>calon presiden sempat geram debat calon presiden langsung bicara soal tahan aman lemah</t>
-  </si>
-  <si>
-    <t>memang benar pak cenderung optimistis sisi pak cenderung pesimistis</t>
-  </si>
-  <si>
-    <t>sebut budaya asal bapak senang asal bapak senang kental dunia militer nasional https t co andtnmbmi 6</t>
-  </si>
-  <si>
-    <t>buat rindu negeri maju jadi masa depan anak cucu pak jokowi pimpin dekat kesana tentu sempurna</t>
-  </si>
-  <si>
-    <t>ustad maheer bahaya bisa jadi oceh frontal seluruh dukung kena cap khilafah curiga nih</t>
-  </si>
-  <si>
-    <t>wahai berani 2nya bilang indonesia daya fakta indonesia capai minimum essential tekan</t>
-  </si>
-  <si>
-    <t>selalu tiap sempat ada tanya nikah culi kudeta apa bosan bung</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 laku tidak harga internasional puas kamu langgar ham</t>
-  </si>
-  <si>
-    <t>istilah tak kenal tak peduli kita jalin silaturahmi ada saudara tanya tanya</t>
-  </si>
-  <si>
-    <t>bang yang jauh pelosok kalimantan rasa bangga lihat debat malam</t>
-  </si>
-  <si>
-    <t>dil digital layan mantap pak pemerintahandilan</t>
-  </si>
-  <si>
-    <t>ucap selamat pak cara naluri aku bagai menang pilpres</t>
-  </si>
-  <si>
-    <t>diplomasi kalau senyum jadi nice guy hanya saja pak prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>prabowo-sandi beri sempat anak bangsa bisa karya jadi main negara sendiri</t>
-  </si>
-  <si>
-    <t>lembaga perintah kuat baru program bangun kuat subianto prabowobentengnkri debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>refleksi buat dia kutuk jahat jahat tatap jadi satu diri</t>
-  </si>
-  <si>
-    <t>menang telak prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>swear deh puas banget malam ni nengok mr planga plongo tak kutik hajar macan asia</t>
-  </si>
-  <si>
-    <t>pagelaran kelas pilpres dukung asing sangat penting jangan kelas suharto bisa kondisi asing</t>
-  </si>
-  <si>
-    <t>tegas sekali debat kali insyallah allah hendak bapak jadi presiden ri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>udahlah matiin jangan tipi simpilkan jangan kalau pak kalah debat masa iya calon presiden ada optimis</t>
-  </si>
-  <si>
-    <t>ditanyain diplomasi luar negeri jawab putar jarak peluru kendali oke</t>
-  </si>
-  <si>
-    <t>hahaha yang bakar jenggot sama imbau pakai baju putih tps</t>
-  </si>
-  <si>
-    <t>wow menang tebal nih mantap pak lanjut 01dilanj</t>
-  </si>
-  <si>
-    <t>penting jangan asal bapak senang kata sindir prabowobentengnkri asal bapak senang tau kondisi riil rakyat</t>
-  </si>
-  <si>
-    <t>ingin negara kuat ekonomi pilih ingin negara kuat tentara pilih gitu kok repot</t>
-  </si>
-  <si>
-    <t>kok nyata sabar luarbiasa maaf kok seperti persepsi distortif lama</t>
-  </si>
-  <si>
-    <t>betul prabowomenangdebat jelas lah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>lihat semua hasil kerja nyata ubah semua besar bangsa indonesia ubah semua</t>
-  </si>
-  <si>
-    <t>zaman teknologi 4 0 ko mau pake teknologi jadul makin tinggal bangsa dong pak</t>
-  </si>
-  <si>
-    <t>sandi penting manusia biasa kalian maa allah pernah mimpi dekat dengan presiden</t>
-  </si>
-  <si>
-    <t>tenang pak papar pemerintahandilan solusi tepat baik birokrasi perintah</t>
-  </si>
-  <si>
-    <t>wow jawab bapak prabowo sandi atas tanya buat onoh tel ludah deh macaaan asia bapak mulai</t>
-  </si>
-  <si>
-    <t>mantaf malam nih pak semua debat yang paling oke prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>indonesia sentris laksana pak sangat luar biasa menang 01dilanjutkan https t co dbeyzg 9edb</t>
-  </si>
-  <si>
-    <t>saja subianto visi jauh depan tidak lupa sejahtera rakyat mantap</t>
-  </si>
-  <si>
-    <t>calon presiden subianto sebut di garda depan tumpas bahaya komunis masuk gera radikal</t>
-  </si>
-  <si>
-    <t>malu - arogan - emosi - pesimis - tak taat atur debat - ngedongeng bilang lebih tni tni</t>
-  </si>
-  <si>
-    <t>pemerintahandilan presiden selalu usaha tingkat mutu tenaga kerja</t>
-  </si>
-  <si>
-    <t>apa bosan terus tuding - nya kritik habis</t>
-  </si>
-  <si>
-    <t>pak komitmen dukung e-government salah satu e-budgeting konkrit cegah korupsi</t>
-  </si>
-  <si>
-    <t>tuju sama tompi cukup baik eksekutif pilih legislatif perlu baik</t>
-  </si>
-  <si>
-    <t>debatkeempatpilpres 2019 calon presiden tanggap teknologi cepat ala</t>
-  </si>
-  <si>
-    <t>dukung calon presiden no urut jokowi-ma ruf kali datang viking makin dekat hari coblos dukung terus</t>
-  </si>
-  <si>
-    <t>nampak debatpilpres 2019 dari sisi ilmu komplit alam bijaksana perilaku jelas lebih unggul</t>
-  </si>
-  <si>
-    <t>aje maling teriak maling bung</t>
-  </si>
-  <si>
-    <t>pak bilang beri contoh toleransi tetapi dukung kerap laku tindak intoleran</t>
-  </si>
-  <si>
-    <t>debat pilpres empat tutup statement tutup penuh damai dua calon presiden buat dingin</t>
-  </si>
-  <si>
-    <t>pak beri contoh dewasa memang lahir dalam diri 01dilanjutkan https t co 68tqfjd530</t>
-  </si>
-  <si>
-    <t>optimisme pak ragu bagai warga sipil pak sangat percaya tentara nasional</t>
-  </si>
-  <si>
-    <t>lembaga polmark indonesia rilis rilis survei tunjuk elektabilitas pasang milik elektabilitas</t>
-  </si>
-  <si>
-    <t>hari perintah bawah pak sangat maju infrastruktur udara ada</t>
-  </si>
-  <si>
-    <t>kasihan pak tahan ketawa pecatanlebihtnidaritni</t>
-  </si>
-  <si>
-    <t>rendah dukung tahana rupa bukti rupa bukti bila cara tak langsung sedang hukum publik</t>
-  </si>
-  <si>
-    <t>pak kaget tingkah laku jabat perintah sendiri laku jual beli jabat</t>
-  </si>
-  <si>
-    <t>semua kata mas benar indonesia luas uni eropa jumlah tni cuma segitu lemah pak</t>
-  </si>
-  <si>
-    <t>pulau kecil tambang jaya tani nelayan ikut ruang hidup terus ancam parah baik maupun</t>
-  </si>
-  <si>
-    <t>daniel sibolang durian medan nyanyi lagu kocak kamu pingin kaya kerja tidur jangan</t>
-  </si>
-  <si>
-    <t>perintah oss dulunya kalau urus izin bulan bahkan tahun sekarang izin keluar jam kata</t>
-  </si>
-  <si>
-    <t>orang golkar dukung jadi jangan heran kalau bowo sedang main politik kaki jatuh</t>
-  </si>
-  <si>
-    <t>admin mau bahas kata militer lemah https t co raliyooy 3e</t>
-  </si>
-  <si>
-    <t>tidak apa apa to h pecat pada presiden bohong nggedabrus plonga plongo</t>
-  </si>
-  <si>
-    <t>bang kalau jadi presiden siapa ibu negara apa benar kita jadi negara piatu</t>
-  </si>
-  <si>
-    <t>dukung terus pak pemerintahandilan https t co rzz 6pqhmus</t>
-  </si>
-  <si>
-    <t>pemerintahandilan ma ruf amin ungkap hasil presiden pak hanya lihat proyek</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni pemerintahandilan memang nampol</t>
-  </si>
-  <si>
-    <t>calon presiden nomor urut sangat siap tema debat ideologi perintah tahan aman</t>
-  </si>
-  <si>
-    <t>pemerintahandilan siap data akan bagai amunisi debat malam semangat pagi</t>
-  </si>
-  <si>
-    <t>bidang perintah pak kuat lembaga lembaga kuat prabowobentengnkri negara kuat</t>
-  </si>
-  <si>
-    <t>bangun indonesia desa bangun adab lebih baik tuju lanjut 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>diplomasi kalau senyam senyum diplomasi butuh kuat - penting jaga daulat nkri</t>
-  </si>
-  <si>
-    <t>yunarto debat kali adalah tampil buruk calon presiden bahkan sejak lalu</t>
-  </si>
-  <si>
-    <t>kalau opung tak percaya diri citra nempel pak</t>
-  </si>
-  <si>
-    <t>sabar bangsa rasa ubah ken buru buru ganti presiden era tidak ada ubah hebat</t>
-  </si>
-  <si>
-    <t>ayo seluruh masyarakat indonesia dukung penuh calon presiden 01 debat - pilpres</t>
-  </si>
-  <si>
-    <t>debat malam liat banget siapa dewasa tanggap ya pak buat bangga 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>makanya jangan ragu prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>depan mau ubah pancasila hadap prabowobentengnkri doauntukprabowosandi</t>
-  </si>
-  <si>
-    <t>halah halaaah dulu kamu kalah pilpres jangan ngamuk ngamuk kaya orang mabuk jamur https t co 0dbjt9cspe</t>
-  </si>
-  <si>
-    <t>gitu dong pak gahar dikit inti pak mau menang tidak jangan sia 2kan juang pak</t>
-  </si>
-  <si>
-    <t>bukan ngetawain tahan negara cuma ngetawain</t>
-  </si>
-  <si>
-    <t>kampanye lama tahana lampu c o arti pilih sedang hukum</t>
-  </si>
-  <si>
-    <t>ini keras banyu mas minahasa banyumas batak nya jawa tengah</t>
-  </si>
-  <si>
-    <t>pulang kaya tambang emas papua pangku ibu pertiwi taruh jabat bagai presiden indonesia</t>
-  </si>
-  <si>
-    <t>dengan pemerintahandilan buat calon presiden tahan terus sosialisasi manfaat revolusi industri</t>
-  </si>
-  <si>
-    <t>bocor bocor tahun diksi bocor jangan ada gagas makanya pakai aquaproof pak</t>
-  </si>
-  <si>
-    <t>debat curhat tonton gebu tetap ulang tema lama solusi</t>
-  </si>
-  <si>
-    <t>era milenial era pakde presiden paling keren ketimbang sudah pemerintahandilan</t>
-  </si>
-  <si>
-    <t>pemerintahandilan nyata perintah pak hanya benah atas masalah jaring broadband daerah 3t</t>
-  </si>
-  <si>
-    <t>pak percaya yang pecatanlebihtnidaritni pecatanlebihtnidaritni https t co jrlvbdoafw</t>
-  </si>
-  <si>
-    <t>kaget beneran menangkanprabowosandi april datang tps pilih</t>
-  </si>
-  <si>
-    <t>calon presiden kata lembaga bubar anggap buat layan publik belit</t>
-  </si>
-  <si>
-    <t>bidang tahan aman terlalu lemah anggar terlalu kecil perlu baik -</t>
-  </si>
-  <si>
-    <t>tetap sahabat pak sinyal siap siap bawa pulang kecebong solo</t>
-  </si>
-  <si>
-    <t>pak ngebahas perihal pemerintahandilan tuju wowo sayang wowo jawab nya asal bunyi</t>
-  </si>
-  <si>
-    <t>gubernur pahe m tidak tanya kamu lulus mana tidak tanya prestasi apa saya tanya kamu punya uang</t>
-  </si>
-  <si>
-    <t>tahan indonesia terlalu lemah jauh yang harap karena tidak punya uang -</t>
-  </si>
-  <si>
-    <t>tegas pak barusan keluar parah orang tertawa rapuh tahan negara</t>
-  </si>
-  <si>
-    <t>bagaimana tonton tertawa kalau kali kata militer indonesia sangat lemah padahal kuat militer</t>
-  </si>
-  <si>
-    <t>marah tahan bangsa tertawa audiens marah diri hina netizen</t>
-  </si>
-  <si>
-    <t>yim habib rizieq bilang sama ya sengaja harus pasang ulama islam jelas</t>
-  </si>
-  <si>
-    <t>maju era android ke era pecatanlebihtnidaritni</t>
-  </si>
-  <si>
-    <t>natural badan menang nasional mirip orang habis bangun tidur mau nyabu ada bong terus marah tonton</t>
-  </si>
-  <si>
-    <t>kompas koplak kamu salah kutip bilang gdp apbn</t>
-  </si>
-  <si>
-    <t>mummmeeettt sekarang kali hahaha</t>
-  </si>
-  <si>
-    <t>mutu banget twetnya kentara berat belah</t>
-  </si>
-  <si>
-    <t>kayak panik banget jadi sedi liat</t>
-  </si>
-  <si>
-    <t>i love kurang masuk sama kartu</t>
-  </si>
-  <si>
-    <t>keren banget jawab pak soal tuduh</t>
-  </si>
-  <si>
-    <t>catat paling atas seba kalah laku dukung</t>
-  </si>
-  <si>
-    <t>dengar sendiri maher at thuwailibi dukung prabowo-sandi ejek polisi menthogutkan nkri</t>
-  </si>
-  <si>
-    <t>tim sehat tekan darah pak pantau masa acara debat begini marah</t>
-  </si>
-  <si>
-    <t>kuat tahan sangat rapuh lemah bukan salah bapak salah enggak tahu -</t>
-  </si>
-  <si>
-    <t>pak i am proud of you closing statement lawan debat nyambung bukan manfaat tampil prima</t>
-  </si>
-  <si>
-    <t>turut tahan lemah implikasi uang indonesia lemah turut indonesia</t>
-  </si>
-  <si>
-    <t>oknum kepala desa cikopo - bogor maksa warga milih o1 virallkan gaes lapor</t>
-  </si>
-  <si>
-    <t>jangan bawa asa laper di fitnah tahu jangan mengapa masa baru gitu jangan udah ngambek si</t>
-  </si>
-  <si>
-    <t>duh tonton kok dimarahin salah apa sabar pak jangan marah ngopi sik pak</t>
-  </si>
-  <si>
-    <t>jenderal pecat sekadar ingat jelas lebih paham bos very smart responses comprehesif</t>
-  </si>
-  <si>
-    <t>bandara akses keluar masuk asing indonesia kalau kelola serah asing</t>
-  </si>
-  <si>
-    <t>ngomong apa ujung bocor tanya urus tahan inti bocor lah ini calon presiden apa tukang tambal ban</t>
-  </si>
-  <si>
-    <t>jadi soal digital layan inimah lama rakyat antri dapat layan e-ktp yang gagal lah so</t>
-  </si>
-  <si>
-    <t>jangan coba ganti ideologi pancasila nkri harga mati harga mati harga tidak tawar</t>
-  </si>
-  <si>
-    <t>wow percaya tni ragu kuat tni lemah tni rasa lebih tni tni</t>
-  </si>
-  <si>
-    <t>ampun sih tiap tanya kamu jawab bocor bocor uang negara alir luar</t>
-  </si>
-  <si>
-    <t>tidak terlalu hormat luar negeri jangan tebar pesimisme pak</t>
-  </si>
-  <si>
-    <t>pak kata kuat lembaga perintah hilang korupsi</t>
-  </si>
-  <si>
-    <t>tertawa tertawa dimarahain</t>
-  </si>
-  <si>
-    <t>g nyambung kalau masalah kalau bandara udah kuasa asing pesawat suka nya keluar masuk apa milik</t>
-  </si>
-  <si>
-    <t>tengah debat calon presiden dadak marah hadirin tertawa tengah acara https t co xj1ofes136</t>
-  </si>
-  <si>
-    <t>terus hina bangsa indonesia kata percaya dunia internasional</t>
-  </si>
-  <si>
-    <t>lebih baik kalau tipu halusinasi parah coba muncul ngaku golput</t>
-  </si>
-  <si>
-    <t>lihat negara bagai alat maju kualitas masyarakat lihat negara bagai alat perang</t>
-  </si>
-  <si>
-    <t>freeport lapor nse mereka dapat manfaat jadi saham ethok prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>insaallah zalim rezim rakyat allah subhanawataala balas copot kuasa wenang wenang</t>
-  </si>
-  <si>
-    <t>soal tahan benar beri briefing pak kalau presiden pecat subianto</t>
-  </si>
-  <si>
-    <t>tidak hormat luar negeri utang banyak impor banyak bagaimana mau hormat</t>
-  </si>
-  <si>
-    <t>lawan tak daya lawan mantap oy</t>
-  </si>
-  <si>
-    <t>presiden ajak keluarga makan siang rumah makan bilang jalan sabang jakarta pusat sayang dua putra hadir</t>
-  </si>
-  <si>
-    <t>cek fakta cek fakta sebut dana tahan ri kecil singapura gdp https t co hv6u1urlj5</t>
-  </si>
-  <si>
-    <t>beda negara debat maaf keras tengah banyumas</t>
-  </si>
-  <si>
-    <t>kamu cm nyinyir udah ngerasain terjun lapang kamu lahir</t>
-  </si>
-  <si>
-    <t>malam minggu duduk depan layar tv nonton debat empat calon presiden semangat pak 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>lah situ nyinyir apa balik aki aki apa nenek peot calon presidenya jadul</t>
-  </si>
-  <si>
-    <t>bilang rapuh skor kuat militer indonesia turut global fire power di peringkat tinggi</t>
-  </si>
-  <si>
-    <t>cakep jenderal makin kita hidup rukun tidak ajar benci mistericapjempol</t>
-  </si>
-  <si>
-    <t>tidak jajah bangsa lai rugi banyak pak salah orang amerika sedikit bicara banyak kerja</t>
-  </si>
-  <si>
-    <t>nama ngomong ngasal jangan penting gaya dulu wkwkqk kasi babak bur hajar jenderal</t>
-  </si>
-  <si>
-    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019</t>
-  </si>
-  <si>
-    <t>bukan mau nyerang pisik fakta gerombol badan menang nasional banyak gembul perut kayak gentong</t>
-  </si>
-  <si>
-    <t>kalau jadi nice guy masalah ada yang bapak rasa tidak hormat luar indonesia</t>
-  </si>
-  <si>
-    <t>kalau anak anak antem si kurus udah mewek pojok yang gemuk tega</t>
-  </si>
-  <si>
-    <t>si manusia gadungan hibur diri junjung kalah sol sol</t>
-  </si>
-  <si>
-    <t>komitmen nkri pancasila tak perlu ragu propaganda ubah sistem demokrasi sistem khilafah</t>
-  </si>
-  <si>
-    <t>luar biasa demen kali sama pak dungu natural akhir keluar</t>
-  </si>
-  <si>
-    <t>rasa posisi selalu posisi aman buat indonesia tak hormat asing</t>
-  </si>
-  <si>
-    <t>pak saya hormat lebih baik kamu daftar jadi tni biar paham percaya berani</t>
-  </si>
-  <si>
-    <t>set up nya padahal kuat bat sayang punchline nya beri terlalu banyak rusa</t>
-  </si>
-  <si>
-    <t>mau ngecapruk apa bodoh sudah jadi kadang ucap nya sua nyata</t>
-  </si>
-  <si>
-    <t>turut dalam tahan aman boleh anggap akan perang masa depan</t>
-  </si>
-  <si>
-    <t>wah salah nih mas kasih tahu litbang bela apa apa admin cer</t>
-  </si>
-  <si>
-    <t>sumpah tahan pancasila titik darah akhir bohong kecewa bapak luka dikit jangan udah pakai sarung t</t>
-  </si>
-  <si>
-    <t>latar belakang karya intel amerika defense intelligence agency soal serang asing p</t>
-  </si>
-  <si>
-    <t>bapak info sesat petinggi tni woi om wowo lupa bukankah kamu lebih parah dibohongin sam</t>
-  </si>
-  <si>
-    <t>malu kompas kamu salah kutip bilang gdp apbn ralat https t co parepqmlyn</t>
-  </si>
-  <si>
-    <t>kena tuduh pro-khilafah milik argumen menep mentah olah bela khilafah tak masuk akal</t>
-  </si>
-  <si>
-    <t>strategi upaya modernisasi alutsista tni material khusus polri tahan lemah kita punya alutsista canggih</t>
-  </si>
-  <si>
-    <t>calon presiden nilai tak keluar narasi besar sendiri tak tampil istimewa nilai buruk</t>
-  </si>
-  <si>
-    <t>beda kelas bapak true warrior ksatria sejati perlu malu orang sudah malu</t>
-  </si>
-  <si>
-    <t>mau kalah sama gurita dukun piala dunia kucing milih fokus nonton tanda optimisindonesiamaju</t>
-  </si>
-  <si>
-    <t>selalu ulang soal kaya ambil asing masa mertua kali sekarang rok mahakam freeport udah jadi milik indonesia</t>
-  </si>
-  <si>
-    <t>lawan lihat dunia luar jahat pretensi kuasa padahal hidup era kolaborasi kira mindset keliru</t>
-  </si>
-  <si>
-    <t>awal gila antek antek dukung mulai pilpres mana hasil oleh suara sangat sedikit</t>
-  </si>
-  <si>
-    <t>kata anggar tahan indonesia di angka 0 8 persen gdp pun banding singapura</t>
-  </si>
-  <si>
-    <t>bicara entry gerbang safety strategic point jokowi jawab investasi asing nyambung prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>sandi mas anis sini traktir jadi gubernur tak lama sandi izin mas mau nraktir pak</t>
-  </si>
-  <si>
-    <t>acu adalah mertua bukti keluarga mertua di baris</t>
-  </si>
-  <si>
-    <t>dear pak taun bapak jabat akan awas kritisi omel bapak</t>
-  </si>
-  <si>
-    <t>pada nyemplung kolam malu lihat bos bom bardir</t>
-  </si>
-  <si>
-    <t>sepakat sama om trik basi minggu kelar jadi mau periode jual dil laku</t>
-  </si>
-  <si>
-    <t>rizal ramli pak mau revisi hehe kubu jokowi ada tanggpan rr sebut hehe seram undang sebut dipake disalahgunakan</t>
-  </si>
-  <si>
-    <t>perintah mau keluar paris tuju kata mikirin masa depan indonesia mau keluar pakta sama</t>
-  </si>
-  <si>
-    <t>adalah agum gumelar dengan lantang wajah bicara jelek hadap sby nyata hadap taipan manis</t>
-  </si>
-  <si>
-    <t>kalau pak jadi presiden hidup mau ketawa jangan dimarahin https t co b7dymmekfs</t>
-  </si>
-  <si>
-    <t>deh makan dulu siap debat awas pulpen lupa</t>
-  </si>
-  <si>
-    <t>kamu bukan tni kamu pecat sandang gelar purnawirawan kamu pantas</t>
-  </si>
-  <si>
-    <t>nyata pak debat empat ragu tni 01dilanjutkan jokowilagi</t>
-  </si>
-  <si>
-    <t>makanya kamu mikir belum tuntas belum prioritas jangan sebut kebo</t>
-  </si>
-  <si>
-    <t>juga tuduh pki jawab hahaha hari saya saya lawan saya akan lawan</t>
-  </si>
-  <si>
-    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing</t>
-  </si>
-  <si>
-    <t>nya punya ambisi wowo ambisi jangka pendek harta</t>
-  </si>
-  <si>
-    <t>political will cermin praktik berantas korupsi kata</t>
-  </si>
-  <si>
-    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni salut</t>
-  </si>
-  <si>
-    <t>presiden bisa tidak bicara detail alutsista indonesia itu yang sensitif tahan indonesia</t>
-  </si>
-  <si>
-    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi</t>
-  </si>
-  <si>
-    <t>hahaha yang bakar jenggot sama imbau pakai baju putih tps jangan ngambek gitu dong</t>
-  </si>
-  <si>
-    <t>gubernur pahe m tanya kamu lulus mana tidak tanya prestasi apa saya tanya kamu punya uang tidak</t>
-  </si>
-  <si>
-    <t>bagaimana tonton tertawa kalau kali kata militer indonesia sangat lemah padahal kuat militer indonesia masuk kuat dunia</t>
-  </si>
-  <si>
-    <t>banyak catat jadi kalau kalah mana letak kalah juga balik</t>
-  </si>
-  <si>
-    <t>bukan percaya mampu tni harus tni siap the worst scenario lindung indonesia prabowo</t>
-  </si>
-  <si>
-    <t>tidak mau mati jabat bpk dulu pernah kurus dia</t>
-  </si>
-  <si>
-    <t>turut tahan lemah implikasi uang indonesia lemah</t>
-  </si>
-  <si>
-    <t>baru era daulat laut nasional tega kapal kapal asing kini takut curi ikan teritori nasional</t>
-  </si>
-  <si>
-    <t>kalau bahasa simpel jin numpang sama genderuwo</t>
-  </si>
-  <si>
-    <t>ahmad tangkap polisi ujar benci ada hubung pilpres sama bahar bin smith tangkap polisi</t>
-  </si>
-  <si>
-    <t>makan tuh radar prabowobentengnkri 01caprespendustaabadi</t>
-  </si>
-  <si>
-    <t>kesi tuh si engkong g mau pilih kong prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>soal tahan benar beri briefing pak kalau presiden pecat</t>
-  </si>
-  <si>
-    <t>pak upaya masyarakat sulit tarik pungli urus segala</t>
-  </si>
-  <si>
-    <t>salah kali zo justru pak laksana clean government jadi pada gerah panas dapat uang</t>
-  </si>
-  <si>
-    <t>bogor tadi siang lihat massa riil wiwis perlu banyak banyak omong lihat prab</t>
-  </si>
-  <si>
-    <t>berangkat kerja naik taksi kepala pusing bawa motor jaman susah korupsi padahal banyak harus setor</t>
-  </si>
-  <si>
-    <t>panjang debat lihat goyah argumen kokoh tak yakin</t>
-  </si>
-  <si>
-    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019 republik</t>
-  </si>
-  <si>
-    <t>sakit masa konflik timur rupa konflik negeri bilang perang</t>
-  </si>
-  <si>
-    <t>calon presiden nomor urut khawatir kalau semua labuh bandara operate usaha asing</t>
-  </si>
-  <si>
-    <t>mantap keren moga ikut seluruh pelosok nusantara</t>
-  </si>
-  <si>
-    <t>pns pilih sulit laku pungli anggar potong ketat anggar</t>
-  </si>
-  <si>
-    <t>pilih sandi saya ingin bpjs puruk terus tidak optimal beri solusi awat sehat</t>
-  </si>
-  <si>
-    <t>salah besar sih pilih pak lembaga perintah bebas korupsi jual beli jabat</t>
-  </si>
-  <si>
-    <t>milik banyak prestasi ada prestasi milik salah satu cabut subsidi bbm</t>
-  </si>
-  <si>
-    <t>bagaimana mau pulang habib rizieq kalau tidak menang jadi presiden kata subianto</t>
-  </si>
-  <si>
-    <t>kalau pasu asing masuk tentara tindak adi napitupulu dukung calon presiden</t>
-  </si>
-  <si>
-    <t>justru makna bersit nada kalah rasa kalah</t>
-  </si>
-  <si>
-    <t>rubah watak susah susah jadi presiden https t co esw 5qi9add</t>
-  </si>
-  <si>
-    <t>banyak bandara asai asing buat khawatir serang luar https t co xj1ofes136</t>
-  </si>
-  <si>
-    <t>bahas pancasila udah final organisasi transnasional ideologi radikal pernah singgung</t>
-  </si>
-  <si>
-    <t>aduh salah data oy bong pinter dikit prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>mau begini acung jari telunjuk tak enak tim jokowi-maruf benci tauhid kan mereka benci tauhid</t>
-  </si>
-  <si>
-    <t>tadi ngomongin perang perang perang memang rencana pak wo mau bawa indonesia perang</t>
-  </si>
-  <si>
-    <t>pak sama pak sama emosional emosi pikir selamat nkri</t>
-  </si>
-  <si>
-    <t>narasi utama pakai debat kali adalah narasi asing narasi anti asing memang erat topik debat</t>
-  </si>
-  <si>
-    <t>lama kita suguh fitnah keji hadap presiden nyata justru konon turun khianat</t>
-  </si>
-  <si>
-    <t>pak emosi kalau bicara daulat aman nkri balik rakyat lindung</t>
-  </si>
-  <si>
-    <t>orang masa lalu sukses masa lalu gagal sesuai ubah hari memang tolak pak</t>
-  </si>
-  <si>
-    <t>pak kayak kakak lagi ngospek jangan buat ketawa terus marah kalau orang ketawa</t>
-  </si>
-  <si>
-    <t>terlalu asik bayang bebas ketawa larang culik hal jika jadi presiden</t>
-  </si>
-  <si>
-    <t>oke oce bangkrut gagal tingkat daya beli masyarakat</t>
-  </si>
-  <si>
-    <t>gagal paham cuma percaya bisik ngaco masa daulat kira kira prabowobentengnkri jok</t>
-  </si>
-  <si>
-    <t>kesi banget kamu sahal pilpres kamu jual ancam takut melulu khilafah lah culik lah</t>
-  </si>
-  <si>
-    <t>yang lemes nih kaya data salah ban semua pak prabowobentengnkri https t co 1yqfosvy7a</t>
-  </si>
-  <si>
-    <t>mau kalah disalahin khilafah hti bukankah hti bunuh</t>
-  </si>
-  <si>
-    <t>pikir pak tau masalah myanmar</t>
-  </si>
-  <si>
-    <t>tertawa pancing pidato closingnya beranta</t>
-  </si>
-  <si>
-    <t>bukan tidak percaya ini tni pak taruh nyawa tni lebih tni tni</t>
-  </si>
-  <si>
-    <t>gemetar apes malam kata di bentak jenderal prabowobentengnkri</t>
+    <t>buka visi misi begitu pukau sehingga buat presiden asa jadi bebek visimisi bukavisi visimisi misibegitu begitupukau pukausehingga sehinggabuat buatpresiden presidenasa asajadi jadibebek bebekvisimisi</t>
+  </si>
+  <si>
+    <t>lebih baik pakai teknologi lama kaya negara indonesia keluar indonesia lebihbaik baikpakai pakaiteknologi teknologilama lamakaya kayanegara negaraindonesia indonesiakeluar keluarindonesia</t>
+  </si>
+  <si>
+    <t>kok arguing without menang kokarguing arguingwithout withoutmenang</t>
+  </si>
+  <si>
+    <t>jalan politik politik satu bukan politik pecah belah salah prabowobentengnkri jalanpolitik politikpolitik politiksatu satubukan bukanpolitik politikpecah pecahbelah belahsalah salahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>juga fans lihat tampil serang hahaha jugafans fanslihat lihattampil tampilserang seranghahaha</t>
+  </si>
+  <si>
+    <t>lemah tidak punya uang pak ngomongin tahan negara apa nyindir anak twitter nih optimisindo lemahtidak tidakpunya punyauang uangpak pakngomongin ngomongintahan tahannegara negaraapa apanyindir nyindiranak anaktwitter twitternih nihoptimisindo</t>
+  </si>
+  <si>
+    <t>si vis pacem belum bukan mantra dukun arti kalau damai siap perang top p sivis vispacem pacembelum belumbukan bukanmantra mantradukun dukunarti artikalau kalaudamai damaisiap siapperang perangtop topp</t>
+  </si>
+  <si>
+    <t>apa bilang pak memang benar mau bukti di ejek asing v i r a l k a n prabow apabilang bilangpak pakmemang memangbenar benarmau maubukti buktidi diejek ejekasing asingv vi ir ra al lk ka an nprabow</t>
+  </si>
+  <si>
+    <t>bidang perintah prabowo-sandi bahwa lembaga perintah kuat baru cipta negara kuat bidangperintah perintahprabowo-sandi prabowo-sandibahwa bahwalembaga lembagaperintah perintahkuat kuatbaru barucipta ciptanegara negarakuat</t>
+  </si>
+  <si>
+    <t>percaya debat dukung ini sama seru jaman debat dukung choi taek kim junghwan percayadebat debatdukung dukungini inisama samaseru serujaman jamandebat debatdukung dukungchoi choitaek taekkim kimjunghwan</t>
+  </si>
+  <si>
+    <t>bidang hubung internasional anut prinsip kawan terlalu sedikit musuh terlalu banyak prabowo bidanghubung hubunginternasional internasionalanut anutprinsip prinsipkawan kawanterlalu terlalusedikit sedikitmusuh musuhterlalu terlalubanyak banyakprabowo</t>
+  </si>
+  <si>
+    <t>temen pro dia bilang suka lihat mimik muka saat tiap bicara debat temenpro prodia diabilang bilangsuka sukalihat lihatmimik mimikmuka mukasaat saattiap tiapbicara bicaradebat</t>
+  </si>
+  <si>
+    <t>apa sampai p soal e-government e-procurement ini pernah sebut tahu lalu gagal total tuh p apasampai sampaip psoal soale-government e-governmente-procurement e-procurementini inipernah pernahsebut sebuttahu tahulalu lalugagal gagaltotal totaltuh tuhp</t>
+  </si>
+  <si>
+    <t>pak ngomong gebu bukan arti kasar galak pak ngomong pelan bukan arti lembek pakngomong ngomonggebu gebubukan bukanarti artikasar kasargalak galakpak pakngomong ngomongpelan pelanbukan bukanarti artilembek</t>
+  </si>
+  <si>
+    <t>mas malam bagus sekali debat serang tepat jantung tahan akhir muter jawab radar masmalam malambagus bagussekali sekalidebat debatserang serangtepat tepatjantung jantungtahan tahanakhir akhirmuter muterjawab jawabradar</t>
+  </si>
+  <si>
+    <t>lebih tni tni bapak pecat udah jangan lebihtni tnitni tnibapak bapakpecat pecatudah udahjangan</t>
+  </si>
+  <si>
+    <t>rawan kopi politik syndicate kps pro capres-cawapres - ma ruf amin bentuk tim siber tangkal rawankopi kopipolitik politiksyndicate syndicatekps kpspro procapres-cawapres capres-cawapres- -ma maruf rufamin aminbentuk bentuktim timsiber sibertangkal</t>
+  </si>
+  <si>
+    <t>debat malam bukti sama emosional emosi pikir selamat debatmalam malambukti buktisama samaemosional emosionalemosi emosipikir pikirselamat</t>
+  </si>
+  <si>
+    <t>pak percaya mampu tni jaga daulat nkri dengan dukung alutsista baik pakpercaya percayamampu mamputni tnijaga jagadaulat daulatnkri nkridengan dengandukung dukungalutsista alutsistabaik</t>
+  </si>
+  <si>
+    <t>turut akhir marah audiens tidak kontrol emosi turutakhir akhirmarah marahaudiens audienstidak tidakkontrol kontrolemosi</t>
+  </si>
+  <si>
+    <t>pak mungkin rasa situasi perang kali pakmungkin mungkinrasa rasasituasi situasiperang perangkali</t>
+  </si>
+  <si>
+    <t>politik luar negeri perintah soal rohingya omong doang ada tuh repatriasi atas peran lebih banyak peran politikluar luarnegeri negeriperintah perintahsoal soalrohingya rohingyaomong omongdoang doangada adatuh tuhrepatriasi repatriasiatas atasperan peranlebih lebihbanyak banyakperan</t>
+  </si>
+  <si>
+    <t>lawan tuduh kubu belah pak pro hadap khilafah ingin ganti pancasila dengan tagar prabowo lawantuduh tuduhkubu kububelah belahpak pakpro prohadap hadapkhilafah khilafahingin inginganti gantipancasila pancasiladengan dengantagar tagarprabowo</t>
+  </si>
+  <si>
+    <t>pelosok desa sampang madura jatim rakyat gotong royong buat apik pak mas dukung yuk pelosokdesa desasampang sampangmadura madurajatim jatimrakyat rakyatgotong gotongroyong royongbuat buatapik apikpak pakmas masdukung dukungyuk</t>
+  </si>
+  <si>
+    <t>kok berani bilang jadi mediator konflik afghanistan kayak cuma kunjung doang sana n foto sholat kokberani beranibilang bilangjadi jadimediator mediatorkonflik konflikafghanistan afghanistankayak kayakcuma cumakunjung kunjungdoang doangsana sanan nfoto fotosholat</t>
+  </si>
+  <si>
+    <t>pak percaya sama tni iya pak percaya saya percaya nya sama orang suka ngomong bayar pakpercaya percayasama samatni tniiya iyapak pakpercaya percayasaya sayapercaya percayanya nyasama samaorang orangsuka sukangomong ngomongbayar</t>
+  </si>
+  <si>
+    <t>cuma orang dongo jangan masih tanya nasionalisme orang jenderal sumpah prajurit bawa mati cumaorang orangdongo dongojangan janganmasih masihtanya tanyanasionalisme nasionalismeorang orangjenderal jenderalsumpah sumpahprajurit prajuritbawa bawamati</t>
+  </si>
+  <si>
+    <t>debat kali turut pak all keluar performa maksimal bro jokowi kasi tunduk terus kurang caca diri debatkali kaliturut turutpak pakall allkeluar keluarperforma performamaksimal maksimalbro brojokowi jokowikasi kasitunduk tundukterus teruskurang kurangcaca cacadiri</t>
+  </si>
+  <si>
+    <t>menang telak sibuk molbek 2in akun sipp lah sing penting semua semangat prabowobentengnkri menangtelak telaksibuk sibukmolbek molbek2in 2inakun akunsipp sipplah lahsing singpenting pentingsemua semuasemangat semangatprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>bangun sistem layan masyarakat untuk cegah korupsi bocor bangunsistem sistemlayan layanmasyarakat masyarakatuntuk untukcegah cegahkorupsi korupsibocor</t>
+  </si>
+  <si>
+    <t>woy asal bapak senang banyak tim lho menteri afkiran selalu kasih data salah sama kamu woyasal asalbapak bapaksenang senangbanyak banyaktim timlho lhomenteri menteriafkiran afkiranselalu selalukasih kasihdata datasalah salahsama samakamu</t>
+  </si>
+  <si>
+    <t>malam dukung pak bisa tidur nyenyak akan ucap selamat tinggal pak jokowi hahaha malamdukung dukungpak pakbisa bisatidur tidurnyenyak nyenyakakan akanucap ucapselamat selamattinggal tinggalpak pakjokowi jokowihahaha</t>
+  </si>
+  <si>
+    <t>memang tarung pilpres sekali tentang cara pikir baru lawan cara pikir lama moga ini tarung akhir memangtarung tarungpilpres pilpressekali sekalitentang tentangcara carapikir pikirbaru barulawan lawancara carapikir pikirlama lamamoga mogaini initarung tarungakhir</t>
+  </si>
+  <si>
+    <t>moderator sampai haru dengar papar pak kena apa perlu cepat teknologi informasi kalau kaya ambil negara moderatorsampai sampaiharu harudengar dengarpapar paparpak pakkena kenaapa apaperlu perlucepat cepatteknologi teknologiinformasi informasikalau kalaukaya kayaambil ambilnegara</t>
+  </si>
+  <si>
+    <t>aku rantai roda kuasa putus dia sahabat putus akurantai rantairoda rodakuasa kuasaputus putusdia diasahabat sahabatputus</t>
+  </si>
+  <si>
+    <t>henti tv lihat debat sebentar terus teriak supir bus sorak sorai ikut hentitv tvlihat lihatdebat debatsebentar sebentarterus terusteriak teriaksupir supirbus bussorak soraksorai soraiikut</t>
+  </si>
+  <si>
+    <t>hahaha closing sempurna pak gila sih nyata receh beliau yakin optimis april hahahaclosing closingsempurna sempurnapak pakgila gilasih sihnyata nyatareceh recehbeliau beliauyakin yakinoptimis optimisapril</t>
+  </si>
+  <si>
+    <t>ingin ganti pancasila republik ada banyak yang ingin ganti presiden jangan kok santai inginganti gantipancasila pancasilarepublik republikada adabanyak banyakyang yangingin inginganti gantipresiden presidenjangan jangankok koksantai</t>
+  </si>
+  <si>
+    <t>si bilang bela pancasila dukung curut khilafah hti juga hapal pancasila sibilang bilangbela belapancasila pancasiladukung dukungcurut curutkhilafah khilafahhti htijuga jugahapal hapalpancasila</t>
+  </si>
+  <si>
+    <t>poin besar kalah tahana dukung ngetawain nasionalisme mas prabowobentengnkri poinbesar besarkalah kalahtahana tahanadukung dukungngetawain ngetawainnasionalisme nasionalismemas masprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>saya percaya kuat pimpin ada banyak diri bapak topang tahu lebih sayapercaya percayakuat kuatpimpin pimpinada adabanyak banyakdiri diribapak bapaktopang topangtahu tahulebih</t>
+  </si>
+  <si>
+    <t>nasionalisme nampak sangat kental debat pilpres tuju bandara kelola asing berdikari nasionalismenampak nampaksangat sangatkental kentaldebat debatpilpres pilprestuju tujubandara bandarakelola kelolaasing asingberdikari</t>
+  </si>
+  <si>
+    <t>pak tampil malam buat makin bangga kamu lihat sangat peduli nkri paktampil tampilmalam malambuat buatmakin makinbangga banggakamu kamulihat lihatsangat sangatpeduli pedulinkri</t>
+  </si>
+  <si>
+    <t>ini tni pak pecat debatpilpres 2019 https t co usdobwdlba initni tnipak pakpecat pecatdebatpilpres debatpilpres2019 2019https httpst tco cousdobwdlba</t>
+  </si>
+  <si>
+    <t>debat calon presiden malam pak tampil tenang visioner matang gulir gagas cara cemerlang debatcalon calonpresiden presidenmalam malampak paktampil tampiltenang tenangvisioner visionermatang matanggulir gulirgagas gagascara caracemerlang</t>
+  </si>
+  <si>
+    <t>sekarang gilir kpps nya tidak netral makin benar curang dapat kalah sekaranggilir gilirkpps kppsnya nyatidak tidaknetral netralmakin makinbenar benarcurang curangdapat dapatkalah</t>
+  </si>
+  <si>
+    <t>calon presiden ajak semua pihak politik negara baik saling tiada calonpresiden presidenajak ajaksemua semuapihak pihakpolitik politiknegara negarabaik baiksaling salingtiada</t>
+  </si>
+  <si>
+    <t>malam debat pilpres ke tampil pak patut apresiasi beliau lebih kritis ofensif malamdebat debatpilpres pilpreske ketampil tampilpak pakpatut patutapresiasi apresiasibeliau beliaulebih lebihkritis kritisofensif</t>
+  </si>
+  <si>
+    <t>tahan indonesia sangat lemah jauh yang harap kita punya uang prabowobentengnkri tahanindonesia indonesiasangat sangatlemah lemahjauh jauhyang yangharap harapkita kitapunya punyauang uangprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>selesai selamat pak cinta rindu cinta rindu cinta rindu selesaiselamat selamatpak pakcinta cintarindu rinducinta cintarindu rinducinta cintarindu</t>
+  </si>
+  <si>
+    <t>jawab skak mat mas hadap kartu nya si jokowi apa punya banyak kartu kalau kaya keluar negeri jawabskak skakmat matmas mashadap hadapkartu kartunya nyasi sijokowi jokowiapa apapunya punyabanyak banyakkartu kartukalau kalaukaya kayakeluar keluarnegeri</t>
+  </si>
+  <si>
+    <t>menang telak sih gilee bantai cara telak debat gilak brutal malam menangtelak telaksih sihgilee gileebantai bantaicara caratelak telakdebat debatgilak gilakbrutal brutalmalam</t>
+  </si>
+  <si>
+    <t>duh pak baik banget kalau bicara bahasa inggris arti tahu kalau pak bisa bahasa inggris duhpak pakbaik baikbanget bangetkalau kalaubicara bicarabahasa bahasainggris inggrisarti artitahu tahukalau kalaupak pakbisa bisabahasa bahasainggris</t>
+  </si>
+  <si>
+    <t>percaya tni sedang sipil aku sangat percaya tni pemerintahandilan percayatni tnisedang sedangsipil sipilaku akusangat sangatpercaya percayatni tnipemerintahandilan</t>
+  </si>
+  <si>
+    <t>pak kalau diplomasi jadi nice guy pak faham betul diplomasi batas ramah tamah pakkalau kalaudiplomasi diplomasijadi jadinice niceguy guypak pakfaham fahambetul betuldiplomasi diplomasibatas batasramah ramahtamah</t>
+  </si>
+  <si>
+    <t>wongsai kok ngajak perang lama selalu ajak maju indonesia si mental ciken selalu lihat keburu wongsaikok kokngajak ngajakperang peranglama lamaselalu selaluajak ajakmaju majuindonesia indonesiasi simental mentalciken cikenselalu selalulihat lihatkeburu</t>
+  </si>
+  <si>
+    <t>bagai minoritas yakin pak bang dapat mandat rakyat kuat rasa satu bagaiminoritas minoritasyakin yakinpak pakbang bangdapat dapatmandat mandatrakyat rakyatkuat kuatrasa rasasatu</t>
+  </si>
+  <si>
+    <t>salam presiden insyallah debat malam bapak pukau salam sayang rakyat pak bagus salampresiden presideninsyallah insyallahdebat debatmalam malambapak bapakpukau pukausalam salamsayang sayangrakyat rakyatpak pakbagus</t>
+  </si>
+  <si>
+    <t>siapa calon presiden tampil lebih baik debatpilpres 2019 malam pemilunesia debatpilpres 2019 siapacalon calonpresiden presidentampil tampillebih lebihbaik baikdebatpilpres debatpilpres2019 2019malam malampemilunesia pemilunesiadebatpilpres debatpilpres2019</t>
+  </si>
+  <si>
+    <t>lihat kalian fitnah anti islam beliau bangun hai universitas islam international indonesia lihatkalian kalianfitnah fitnahanti antiislam islambeliau beliaubangun bangunhai haiuniversitas universitasislam islaminternational internationalindonesia</t>
+  </si>
+  <si>
+    <t>malam tamat sepakat retwet 01caprespendustaabadi malamtamat tamatsepakat sepakatretwet retwet01caprespendustaabadi</t>
+  </si>
+  <si>
+    <t>pak kalau badan gemuk tinggi bapak baik kalau pake setel jas jangan model double breastest pakkalau kalaubadan badangemuk gemuktinggi tinggibapak bapakbaik baikkalau kalaupake pakesetel seteljas jasjangan janganmodel modeldouble doublebreastest</t>
+  </si>
+  <si>
+    <t>tegas sekali presiden malam jangan kasih kendor jenderal idola tunjuk dunia prabowobentengnkri tegassekali sekalipresiden presidenmalam malamjangan jangankasih kasihkendor kendorjenderal jenderalidola idolatunjuk tunjukdunia duniaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>clossing pak debat kali sangat luarbiasa tuju sama bapak sahabat memang nomer clossingpak pakdebat debatkali kalisangat sangatluarbiasa luarbiasatuju tujusama samabapak bapaksahabat sahabatmemang memangnomer</t>
+  </si>
+  <si>
+    <t>suka banget video pak memang juara terimakasihistriku https t co nm5n7irsie sukabanget bangetvideo videopak pakmemang memangjuara juaraterimakasihistriku terimakasihistrikuhttps httpst tco conm5n7irsie</t>
+  </si>
+  <si>
+    <t>bukti indonesia lebih maju bawah pimpin presiden menangjokowilagi buktiindonesia indonesialebih lebihmaju majubawah bawahpimpin pimpinpresiden presidenmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>butuh pimpin optimis pak bukan orang pesimis marah butuhpimpin pimpinoptimis optimispak pakbukan bukanorang orangpesimis pesimismarah</t>
+  </si>
+  <si>
+    <t>bareng pak jadi indonesia lebih maju selalu optimis kerja bangun bangsa barengpak pakjadi jadiindonesia indonesialebih lebihmaju majuselalu selaluoptimis optimiskerja kerjabangun bangunbangsa</t>
+  </si>
+  <si>
+    <t>mewek curhat pak lihat tuh pak lama 4 5 tahu tuduh pki beliau biasa mewekcurhat curhatpak paklihat lihattuh tuhpak paklama lama4 45 5tahu tahutuduh tuduhpki pkibeliau beliaubiasa</t>
+  </si>
+  <si>
+    <t>prediksi telah debat empat non-prabowo pak bang popular vote jaga baik tps prediksitelah telahdebat debatempat empatnon-prabowo non-prabowopak pakbang bangpopular popularvote votejaga jagabaik baiktps</t>
+  </si>
+  <si>
+    <t>masalah kondisi negara sekarang suatu distrust elite perintah masalahkondisi kondisinegara negarasekarang sekarangsuatu suatudistrust distrustelite eliteperintah</t>
+  </si>
+  <si>
+    <t>sial nyata cuma orang boneka prabowobentengnkri sialnyata nyatacuma cumaorang orangboneka bonekaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>orang indonesia miskin ikan beberapa karung beras mereka vote saya orangindonesia indonesiamiskin miskinikan ikanbeberapa beberapakarung karungberas berasmereka merekavote votesaya</t>
+  </si>
+  <si>
+    <t>sangat kagum sikap ramah dukung prabowopresidenke 2019 https t co 3fzmdf48el sangatkagum kagumsikap sikapramah ramahdukung dukungprabowopresidenke prabowopresidenke2019 2019https httpst tco co3fzmdf48el</t>
+  </si>
+  <si>
+    <t>debat lebih panjang lagi jadi showcase atas hasil progress perintah debatlebih lebihpanjang panjanglagi lagijadi jadishowcase showcaseatas atashasil hasilprogress progressperintah</t>
+  </si>
+  <si>
+    <t>sombong klaim diri lebih tni para tni mana nyata angkuh emosional sombongklaim klaimdiri dirilebih lebihtni tnipara paratni tnimana mananyata nyataangkuh angkuhemosional</t>
+  </si>
+  <si>
+    <t>jokowi intelijen strategis kata tahun depan akan invasi negara jokowiintelijen intelijenstrategis strategiskata katatahun tahundepan depanakan akaninvasi invasinegara</t>
+  </si>
+  <si>
+    <t>pemerintahandilan perintah bas digital jadi prestasi pak tengak revolusi industri 4 0 pemerintahandilanperintah perintahbas basdigital digitaljadi jadiprestasi prestasipak paktengak tengakrevolusi revolusiindustri industri4 40</t>
+  </si>
+  <si>
+    <t>pak tahan indonesia terlalu lemah iya bagaimana pak kalau chat hei sama mantan jangan langsung mikir besok paktahan tahanindonesia indonesiaterlalu terlalulemah lemahiya iyabagaimana bagaimanapak pakkalau kalauchat chathei heisama samamantan mantanjangan janganlangsung langsungmikir mikirbesok</t>
+  </si>
+  <si>
+    <t>kini tegas tentang diri khalifah sama itu kabar buruk hti dukung kinitegas tegastentang tentangdiri dirikhalifah khalifahsama samaitu itukabar kabarburuk burukhti htidukung</t>
+  </si>
+  <si>
+    <t>pak langsung ban klarifikasi tuduh kubu tahana tuduh khilafah paklangsung langsungban banklarifikasi klarifikasituduh tuduhkubu kubutahana tahanatuduh tuduhkhilafah</t>
+  </si>
+  <si>
+    <t>bismillah pak sukses debat mohon maaf tidak tani saya janji anak muda bismillahpak paksukses suksesdebat debatmohon mohonmaaf maaftidak tidaktani tanisaya sayajanji janjianak anakmuda</t>
+  </si>
+  <si>
+    <t>sorot debatpilpres 2019 kali presiden sangat jelas masa kini masa depan realita solusi masalah sorotdebatpilpres debatpilpres2019 2019kali kalipresiden presidensangat sangatjelas jelasmasa masakini kinimasa masadepan depanrealita realitasolusi solusimasalah</t>
+  </si>
+  <si>
+    <t>pak pidato bicara bahasa inggris baik benar teks forum internasional pakpidato pidatobicara bicarabahasa bahasainggris inggrisbaik baikbenar benarteks teksforum foruminternasional</t>
+  </si>
+  <si>
+    <t>indonesia syukur hasil survei lembaga independen indikasi menang telak menangjokowilagi indonesiasyukur syukurhasil hasilsurvei surveilembaga lembagaindependen independenindikasi indikasimenang menangtelak telakmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>yang golput besok kalau udah kelar pilpres terus udah jalan perintah ada salah jangan nyalahin perintah yanggolput golputbesok besokkalau kalauudah udahkelar kelarpilpres pilpresterus terusudah udahjalan jalanperintah perintahada adasalah salahjangan jangannyalahin nyalahinperintah</t>
+  </si>
+  <si>
+    <t>kecewa larang perintah kampanye akbar dalam stadion pakansari bangun rakyat ujar kecewalarang larangperintah perintahkampanye kampanyeakbar akbardalam dalamstadion stadionpakansari pakansaribangun bangunrakyat rakyatujar</t>
+  </si>
+  <si>
+    <t>debat sikap kok sama persis sikap dukung khilafah selalu sebar takut debatsikap sikapkok koksama samapersis persissikap sikapdukung dukungkhilafah khilafahselalu selalusebar sebartakut</t>
+  </si>
+  <si>
+    <t>jawab telak pak hadap kartu penting apa punya banyak kartu jawabtelak telakpak pakhadap hadapkartu kartupenting pentingapa apapunya punyabanyak banyakkartu</t>
+  </si>
+  <si>
+    <t>benteng nkri negara belanda simpan dokumentasi selamat sandra papua prabowobentengnkri bentengnkri nkrinegara negarabelanda belandasimpan simpandokumentasi dokumentasiselamat selamatsandra sandrapapua papuaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>bukti bangun indonesia maju adab lebih baik menangjokowilagi buktibangun bangunindonesia indonesiamaju majuadab adablebih lebihbaik baikmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>simak sebar doauntukprabowosandi menang pilpres hampir pasti laju simaksebar sebardoauntukprabowosandi doauntukprabowosandimenang menangpilpres pilpreshampir hampirpasti pastilaju</t>
+  </si>
+  <si>
+    <t>bagai muslim senang tulis yuk baca guys yang muslim baik dukung bagaimuslim muslimsenang senangtulis tulisyuk yukbaca bacaguys guysyang yangmuslim muslimbaik baikdukung</t>
+  </si>
+  <si>
+    <t>cakep nih debat pintar ada mal layan publik harap cepat layan bisa beri usaha cakepnih nihdebat debatpintar pintarada adamal mallayan layanpublik publikharap harapcepat cepatlayan layanbisa bisaberi beriusaha</t>
+  </si>
+  <si>
+    <t>aman semua pak kendali pak radar cukup pak budaya indonesia asal bapak senang jadi mohon kaji tahan sangat penting amansemua semuapak pakkendali kendalipak pakradar radarcukup cukuppak pakbudaya budayaindonesia indonesiaasal asalbapak bapaksenang senangjadi jadimohon mohonkaji kajitahan tahansangat sangatpenting</t>
+  </si>
+  <si>
+    <t>jauh kelas banding jokowi barusan kan gaes presiden 2019-2024 sepakat retwet 19harilagicoblo jauhkelas kelasbanding bandingjokowi jokowibarusan barusankan kangaes gaespresiden presiden2019-2024 2019-2024sepakat sepakatretwet retwet19harilagicoblo</t>
+  </si>
+  <si>
+    <t>pak jokowi sering tunduk lemas lihat papar jenderal turut tuipers apa pikir jokowi pakjokowi jokowisering seringtunduk tunduklemas lemaslihat lihatpapar paparjenderal jenderalturut turuttuipers tuipersapa apapikir pikirjokowi</t>
+  </si>
+  <si>
+    <t>masyaallah speechless rp juta sumbang buruh migran tki tkw - sandi cibinong masyaallahspeechless speechlessrp rpjuta jutasumbang sumbangburuh buruhmigran migrantki tkitkw tkw- -sandi sandicibinong</t>
+  </si>
+  <si>
+    <t>sandi juang seluruh rakyat indonesia bentuk perintah bersih tegas sama sandijuang juangseluruh seluruhrakyat rakyatindonesia indonesiabentuk bentukperintah perintahbersih bersihtegas tegassama</t>
+  </si>
+  <si>
+    <t>tuju sekali pak selesai soal korupsi memang benah sistem bisa potong rantai tujusekali sekalipak pakselesai selesaisoal soalkorupsi korupsimemang memangbenah benahsistem sistembisa bisapotong potongrantai</t>
+  </si>
+  <si>
+    <t>tuju pas pak bilang ngajak toleransi dalam jalan politik politik satu tujupas paspak pakbilang bilangngajak ngajaktoleransi toleransidalam dalamjalan jalanpolitik politikpolitik politiksatu</t>
+  </si>
+  <si>
+    <t>akhir rezim guna pasal karet guna bungkam lawan politik sama - sandi akhirrezim rezimguna gunapasal pasalkaret karetguna gunabungkam bungkamlawan lawanpolitik politiksama sama- -sandi</t>
+  </si>
+  <si>
+    <t>pak tegas penting maju teknologi transparansi efektitivitas efisiensi perintah paktegas tegaspenting pentingmaju majuteknologi teknologitransparansi transparansiefektitivitas efektitivitasefisiensi efisiensiperintah</t>
+  </si>
+  <si>
+    <t>sekian lama pecat tni laku culi mungkin simpan dendam sekianlama lamapecat pecattni tnilaku lakuculi culimungkin mungkinsimpan simpandendam</t>
+  </si>
+  <si>
+    <t>benci bilang marah kalimat bapak bilang ada sedih kalimat pak bencibilang bilangmarah marahkalimat kalimatbapak bapakbilang bilangada adasedih sedihkalimat kalimatpak</t>
+  </si>
+  <si>
+    <t>tenang kalau sampe perang saya yakin pak udah mikirin musti bagaimana akan diam lah sistem tahan tenangkalau kalausampe sampeperang perangsaya sayayakin yakinpak pakudah udahmikirin mikirinmusti mustibagaimana bagaimanaakan akandiam diamlah lahsistem sistemtahan</t>
+  </si>
+  <si>
+    <t>percaya pak pancasila-is tuduh khilafah saya juga percaya pak pancasilais percayapak pakpancasila-is pancasila-istuduh tuduhkhilafah khilafahsaya sayajuga jugapercaya percayapak pakpancasilais</t>
+  </si>
+  <si>
+    <t>presiden tukar negara kembali normal sesuai pancasila cara pilih sandi presidentukar tukarnegara negarakembali kembalinormal normalsesuai sesuaipancasila pancasilacara carapilih pilihsandi</t>
+  </si>
+  <si>
+    <t>lepas substansi debat khawatir sikap emosional pak cenderung labil merespon suatu masalah lepassubstansi substansidebat debatkhawatir khawatirsikap sikapemosional emosionalpak pakcenderung cenderunglabil labilmerespon meresponsuatu suatumasalah</t>
+  </si>
+  <si>
+    <t>optimisindonesiamaju kalau tetap percaya sama orang walau sering tuduh itu hehe optimisindonesiamajukalau kalautetap tetappercaya percayasama samaorang orangwalau walausering seringtuduh tuduhitu ituhehe</t>
+  </si>
+  <si>
+    <t>cuma analis bodoh menganalisa keyword https t co latbu 4q1xn cumaanalis analisbodoh bodohmenganalisa menganalisakeyword keywordhttps httpst tco colatbu latbu4q1xn</t>
+  </si>
+  <si>
+    <t>do a tulus orang ibu gendong anak rupa fans berat bapak jadi presiden ri doa atulus tulusorang orangibu ibugendong gendonganak anakrupa rupafans fansberat beratbapak bapakjadi jadipresiden presidenri</t>
+  </si>
+  <si>
+    <t>dong pak sangat pro ekonomi digital pemerintahandilan https t co heqqtohzri dongpak paksangat sangatpro proekonomi ekonomidigital digitalpemerintahandilan pemerintahandilanhttps httpst tco coheqqtohzri</t>
+  </si>
+  <si>
+    <t>aura menang mas makin lihat jelas kalau mas menang apa akan kamu laku sobat tuips jokowid auramenang menangmas masmakin makinlihat lihatjelas jelaskalau kalaumas masmenang menangapa apaakan akankamu kamulaku lakusobat sobattuips tuipsjokowid</t>
+  </si>
+  <si>
+    <t>mantep banget nih ustad tak perlu ganti presiden cukup pilih pak di tps mantepbanget bangetnih nihustad ustadtak takperlu perluganti gantipresiden presidencukup cukuppilih pilihpak pakdi ditps</t>
+  </si>
+  <si>
+    <t>kalau mau jadi nice guy jadi mediator monggo kalau juang indonesia hormat indonesia kuat kalaumau maujadi jadinice niceguy guyjadi jadimediator mediatormonggo monggokalau kalaujuang juangindonesia indonesiahormat hormatindonesia indonesiakuat</t>
+  </si>
+  <si>
+    <t>pak percaya pbb peran indonesia selesai kasus rohingya datang tiba pakpercaya percayapbb pbbperan peranindonesia indonesiaselesai selesaikasus kasusrohingya rohingyadatang datangtiba</t>
+  </si>
+  <si>
+    <t>lagi bohong diri sendiri rakyat soal radar tahan indonesia kuat lagibohong bohongdiri dirisendiri sendirirakyat rakyatsoal soalradar radartahan tahanindonesia indonesiakuat</t>
+  </si>
+  <si>
+    <t>pak kaya ken banget perang gabung twitter jangan pak hampir tiap hari perang optimisindonesiamaju pakkaya kayaken kenbanget bangetperang peranggabung gabungtwitter twitterjangan janganpak pakhampir hampirtiap tiaphari hariperang perangoptimisindonesiamaju</t>
+  </si>
+  <si>
+    <t>bukan tidak percaya tni ini tni taruh nyawa di tni lebih tni banyak tni bukantidak tidakpercaya percayatni tniini initni tnitaruh taruhnyawa nyawadi ditni tnilebih lebihtni tnibanyak banyaktni</t>
+  </si>
+  <si>
+    <t>bukan figur pimpin sempurna kalau lihat debat ya lebih yakin rival tahu mau laku bukanfigur figurpimpin pimpinsempurna sempurnakalau kalaulihat lihatdebat debatya yalebih lebihyakin yakinrival rivaltahu tahumau maulaku</t>
+  </si>
+  <si>
+    <t>tampil mas debat calon presiden malam kejut beda debat tampilmas masdebat debatcalon calonpresiden presidenmalam malamkejut kejutbeda bedadebat</t>
+  </si>
+  <si>
+    <t>tampil lebih semangat tegas rada ofensif justru lihat sangat natural cerdas keluar tampillebih lebihsemangat semangattegas tegasrada radaofensif ofensifjustru justrulihat lihatsangat sangatnatural naturalcerdas cerdaskeluar</t>
+  </si>
+  <si>
+    <t>apa cepat kalau kaya alir luar negeri lebih baik pakai teknologi lama kaya indonesia apacepat cepatkalau kalaukaya kayaalir alirluar luarnegeri negerilebih lebihbaik baikpakai pakaiteknologi teknologilama lamakaya kayaindonesia</t>
+  </si>
+  <si>
+    <t>seluruh rakyat siap bangun indonesia sama menangjokowilagi seluruhrakyat rakyatsiap siapbangun bangunindonesia indonesiasama samamenangjokowilagi</t>
+  </si>
+  <si>
+    <t>jangan uang indonesia lari keluar negeri kata iya pak yang link ya janganuang uangindonesia indonesialari larikeluar keluarnegeri negerikata kataiya iyapak pakyang yanglink linkya</t>
+  </si>
+  <si>
+    <t>biasa cuma lantang retorika kata dulu banyak panglima lapor asal bapak senang biasacuma cumalantang lantangretorika retorikakata katadulu dulubanyak banyakpanglima panglimalapor laporasal asalbapak bapaksenang</t>
+  </si>
+  <si>
+    <t>real leader lihat jangan closing statement jadi ngikut begitu orang leader realleader leaderlihat lihatjangan janganclosing closingstatement statementjadi jadingikut ngikutbegitu begituorang orangleader</t>
+  </si>
+  <si>
+    <t>visi misi tawar baru baharu yang lebih visioner lebih detail pemerintahandilan visimisi misitawar tawarbaru barubaharu baharuyang yanglebih lebihvisioner visionerlebih lebihdetail detailpemerintahandilan</t>
+  </si>
+  <si>
+    <t>detik detik marah marah di tertawa debatkeempatpilpres 2019 jokowimengubahsemua 01dilanjutkan detikdetik detikmarah marahmarah marahdi ditertawa tertawadebatkeempatpilpres debatkeempatpilpres2019 2019jokowimengubahsemua jokowimengubahsemua01dilanjutkan</t>
+  </si>
+  <si>
+    <t>allah maha dengar simpuh hadap mohon pak bang beri mudah allahmaha mahadengar dengarsimpuh simpuhhadap hadapmohon mohonpak pakbang bangberi berimudah</t>
+  </si>
+  <si>
+    <t>ucap orang prajurit tak ragu tulus prabowo ucaporang orangprajurit prajurittak takragu ragutulus tulusprabowo</t>
+  </si>
+  <si>
+    <t>satu tak lebih megalomaniak puja diri sendiri anggap diri paling hebat tni satutak taklebih lebihmegalomaniak megalomaniakpuja pujadiri dirisendiri sendirianggap anggapdiri diripaling palinghebat hebattni</t>
+  </si>
+  <si>
+    <t>sistem jalur mana bagai izin jadi tempat ide luar biasa pakde ayah sistemjalur jalurmana manabagai bagaiizin izinjadi jaditempat tempatide ideluar luarbiasa biasapakde pakdeayah</t>
+  </si>
+  <si>
+    <t>soal ungsi rohingya ada tuh peran jelas perintah pulang ungsi cox bazar wah bohong soalungsi ungsirohingya rohingyaada adatuh tuhperan peranjelas jelasperintah perintahpulang pulangungsi ungsicox coxbazar bazarwah wahbohong</t>
+  </si>
+  <si>
+    <t>keluarga bisa ajar bagaimana cara sabar terus jalan keluargabisa bisaajar ajarbagaimana bagaimanacara carasabar sabarterus terusjalan selalu bangkit selalubangkit</t>
+  </si>
+  <si>
+    <t>bukan emosi bos tegas tu nama nya jelas kan hadap orang buta hati nya bukanemosi emosibos bostegas tegastu tunama namanya nyajelas jelaskan kanhadap hadaporang orangbuta butahati hatinya</t>
+  </si>
+  <si>
+    <t>woi menang telak santai dikit ngapain sibuk nampolin cebong dongo biar halu alam woimenang menangtelak telaksantai santaidikit dikitngapain ngapainsibuk sibuknampolin nampolincebong cebongdongo dongobiar biarhalu halualam</t>
+  </si>
+  <si>
+    <t>tahan lemah kalian ketawa sila kalian ketawa dukung memang nyata goblok dungu tahanlemah lemahkalian kalianketawa ketawasila silakalian kalianketawa ketawadukung dukungmemang memangnyata nyatagoblok goblokdungu</t>
+  </si>
+  <si>
+    <t>pak kalian ketawa pak pakkalian kalianketawa ketawapak</t>
+  </si>
+  <si>
+    <t>biar rakyat tentu pilih baik bangsa negara prabowobentengnkri biarrakyat rakyattentu tentupilih pilihbaik baikbangsa bangsanegara negaraprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>rap bilang lebih tni banding tni macam hina hadap tni dendam pribadi rapbilang bilanglebih lebihtni tnibanding bandingtni tnimacam macamhina hinahadap hadaptni tnidendam dendampribadi</t>
+  </si>
+  <si>
+    <t>orang adalah njenengan sendiri pak sama debatasyikjokowi karnajokowi https t co khmy 7knh85 orangadalah adalahnjenengan njenengansendiri sendiripak paksama samadebatasyikjokowi debatasyikjokowikarnajokowi karnajokowihttps httpst tco cokhmy khmy7knh85</t>
+  </si>
+  <si>
+    <t>mas janji tingkat rasio pajak jadi gaji pns akan naik tagih janji bapak masjanji janjitingkat tingkatrasio rasiopajak pajakjadi jadigaji gajipns pnsakan akannaik naiktagih tagihjanji janjibapak</t>
+  </si>
+  <si>
+    <t>makanya jokowi bedah tuh buku undercover kampus 2019gantipresiden https t co 4udrafliab makanyajokowi jokowibedah bedahtuh tuhbuku bukuundercover undercoverkampus kampus2019gantipresiden 2019gantipresidenhttps httpst tco co4udrafliab</t>
+  </si>
+  <si>
+    <t>kutip benar persen apbn singapura belanja militer https t co 8roepzmp87 kutipbenar benarpersen persenapbn apbnsingapura singapurabelanja belanjamiliter militerhttps httpst tco co8roepzmp87</t>
+  </si>
+  <si>
+    <t>bahasa inggris p keren indonesia pandang top dunia quote-nya bobot bahasainggris inggrisp pkeren kerenindonesia indonesiapandang pandangtop topdunia duniaquote-nya quote-nyabobot</t>
+  </si>
+  <si>
+    <t>mas puas malam dengan aura tampil pak kan garang tegas berani maspuas puasmalam malamdengan denganaura auratampil tampilpak pakkan kangarang garangtegas tegasberani</t>
+  </si>
+  <si>
+    <t>kembali jaya indonesia kawal bapak tuju istana negara prabowobentengnkri prabowobentengnkri kembalijaya jayaindonesia indonesiakawal kawalbapak bapaktuju tujuistana istananegara negaraprabowobentengnkri prabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>jawab pak tanggap tahan rapuh yang sipil sangat percaya tni jawabpak paktanggap tanggaptahan tahanrapuh rapuhyang yangsipil sipilsangat sangatpercaya percayatni</t>
+  </si>
+  <si>
+    <t>bismillah pak insaallah allah mudah debat hari semangat sukses pak https t co xer 1pigoxr bismillahpak pakinsaallah insaallahallah allahmudah mudahdebat debathari harisemangat semangatsukses suksespak pakhttps httpst tco coxer xer1pigoxr</t>
+  </si>
+  <si>
+    <t>kata korupsi indonesia ada taraf parah kalau sakit sudah stadium katakorupsi korupsiindonesia indonesiaada adataraf tarafparah parahkalau kalausakit sakitsudah sudahstadium</t>
+  </si>
+  <si>
+    <t>telak momen blejekin si doi pak dhe keren debatkeempatpilpres 2019 jokowimengubahsemua 01dila telakmomen momenblejekin blejekinsi sidoi doipak pakdhe dhekeren kerendebatkeempatpilpres debatkeempatpilpres2019 2019jokowimengubahsemua jokowimengubahsemua01dila</t>
+  </si>
+  <si>
+    <t>tertawa puas takut marah larang ingat pilih biar bebas tertawa batas tertawapuas puastakut takutmarah marahlarang larangingat ingatpilih pilihbiar biarbebas bebastertawa tertawabatas</t>
+  </si>
+  <si>
+    <t>nilai besar jumlah duduk muslim jadi salah satu kuat diplomasi indonesia nilaibesar besarjumlah jumlahduduk dudukmuslim muslimjadi jadisalah salahsatu satukuat kuatdiplomasi diplomasiindonesia</t>
+  </si>
+  <si>
+    <t>pak tekan soal kecil anggar tahan pak paktekan tekansoal soalkecil kecilanggar anggartahan tahanpak</t>
+  </si>
+  <si>
+    <t>kalau sederhana bunyi jadi besar pilih tolol https t co 5jtydtkg5c kalausederhana sederhanabunyi bunyijadi jadibesar besarpilih pilihtolol tololhttps httpst tco co5jtydtkg5c</t>
+  </si>
+  <si>
+    <t>pak tinggal panggung kepala tegak laksana ayam jago habis menang tarung keren paktinggal tinggalpanggung panggungkepala kepalategak tegaklaksana laksanaayam ayamjago jagohabis habismenang menangtarung tarungkeren</t>
+  </si>
+  <si>
+    <t>alhamdulillah sudah tiba hotel shangri-la siap dukung pak debat empat pilpres bismilllah alhamdulillahsudah sudahtiba tibahotel hotelshangri-la shangri-lasiap siapdukung dukungpak pakdebat debatempat empatpilpres pilpresbismilllah</t>
+  </si>
+  <si>
+    <t>pak kalau benar pikir bapak soal tahan aman mohon maaf bapak layak ganti pakkalau kalaubenar benarpikir pikirbapak bapaksoal soaltahan tahanaman amanmohon mohonmaaf maafbapak bapaklayak layakganti</t>
+  </si>
+  <si>
+    <t>debat malam final sedikit ragu kepada orang subianto ideologi pancasila debatmalam malamfinal finalsedikit sedikitragu ragukepada kepadaorang orangsubianto subiantoideologi ideologipancasila</t>
+  </si>
+  <si>
+    <t>sila puas bangga jadi negara mediator international sindir banyak hutang silapuas puasbangga banggajadi jadinegara negaramediator mediatorinternational internationalsindir sindirbanyak banyakhutang</t>
+  </si>
+  <si>
+    <t>uno jika unojika menang 1 5 pdb alokasi sektor hankam https t co 8toa5jljcg menang1 15 5pdb pdbalokasi alokasisektor sektorhankam hankamhttps httpst tco co8toa5jljcg</t>
+  </si>
+  <si>
+    <t>kayak kalau jadi presiden baru tahun udah perang deh dilikirin perang mulu kayakkalau kalaujadi jadipresiden presidenbaru barutahun tahunudah udahperang perangdeh dehdilikirin dilikirinperang perangmulu</t>
+  </si>
+  <si>
+    <t>good bye pak sandi beres semua laku scaling makmur goodbye byepak paksandi sandiberes beressemua semualaku lakuscaling scalingmakmur</t>
+  </si>
+  <si>
+    <t>pak kata nasionalis tinggi pak usah swis indonesia lebih tahun masa saham di nasional pakkata katanasionalis nasionalistinggi tinggipak pakusah usahswis swisindonesia indonesialebih lebihtahun tahunmasa masasaham sahamdi dinasional</t>
+  </si>
+  <si>
+    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co phy 5t8pclm perintahyng yngsigap sigaplayan layanrakyat rakyatbagus baguspak pakpemerintahandilan pemerintahandilanhttps httpst tco cophy phy5t8pclm</t>
+  </si>
+  <si>
+    <t>bukan apa dari sudut kota kecil jogjakarta punya semangat menang prabowo-sandi bukanapa apadari darisudut sudutkota kotakecil keciljogjakarta jogjakartapunya punyasemangat semangatmenang menangprabowo-sandi</t>
+  </si>
+  <si>
+    <t>pemerintahandilan perintah percaya tni mantap jokowilagi https t co ws2xjlvdz9 pemerintahandilanperintah perintahpercaya percayatni tnimantap mantapjokowilagi jokowilagihttps httpst tco cows2xjlvdz9</t>
+  </si>
+  <si>
+    <t>sejak dukung tahun tetap dukung menang ya tetap ngamen ada imbal proyek sejakdukung dukungtahun tahuntetap tetapdukung dukungmenang menangya yatetap tetapngamen ngamenada adaimbal imbalproyek</t>
+  </si>
+  <si>
+    <t>mantap makin yakin indonesia menang kami pancasila ideologi final kami tekad mempertahankanya mantapmakin makinyakin yakinindonesia indonesiamenang menangkami kamipancasila pancasilaideologi ideologifinal finalkami kamitekad tekadmempertahankanya</t>
+  </si>
+  <si>
+    <t>jiwa sangat nasionalis you pak debat malam sungguh sangat luar biasa prabowobentengnkri jiwasangat sangatnasionalis nasionalisyou youpak pakdebat debatmalam malamsungguh sungguhsangat sangatluar luarbiasa biasaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>ngajak maju ngajak perang jadi clear gaes siapa harus pilih pemerintahandilan ngajakmaju majungajak ngajakperang perangjadi jadiclear cleargaes gaessiapa siapaharus haruspilih pilihpemerintahandilan</t>
+  </si>
+  <si>
+    <t>sila kalian ketawa kaya bilang bocor lalu sekarang soal tahan kalian ketawa silakalian kalianketawa ketawakaya kayabilang bilangbocor bocorlalu lalusekarang sekarangsoal soaltahan tahankalian kalianketawa</t>
+  </si>
+  <si>
+    <t>calon presiden nilai unggul debat calon presiden klaim kuasa soal kait tema debat calonpresiden presidennilai nilaiunggul ungguldebat debatcalon calonpresiden presidenklaim klaimkuasa kuasasoal soalkait kaittema temadebat</t>
+  </si>
+  <si>
+    <t>https t co mmjebjk 6md pemerintahandilan calon wakil presiden ma ruf amin kata tampil sesuai harap httpst tco commjebjk mmjebjk6md 6mdpemerintahandilan pemerintahandilancalon calonwakil wakilpresiden presidenma maruf rufamin aminkata katatampil tampilsesuai sesuaiharap</t>
+  </si>
+  <si>
+    <t>deklarasi rawan nasution saudara deklarasi mutk dukung pasang prabowo-sandi pilpres alhamdulillah deklarasirawan rawannasution nasutionsaudara saudaradeklarasi deklarasimutk mutkdukung dukungpasang pasangprabowo-sandi prabowo-sandipilpres pilpresalhamdulillah</t>
+  </si>
+  <si>
+    <t>manusia ada kubu tuh selalu akal sehat manusiaada adakubu kubutuh tuhselalu selaluakal akalsehat</t>
+  </si>
+  <si>
+    <t>sekali rendah tni bilang lebih tni tni cukk apa maksud sekalirendah rendahtni tnibilang bilanglebih lebihtni tnitni tnicukk cukkapa apamaksud</t>
+  </si>
+  <si>
+    <t>prabowo sandi nyerang bang beliau bicara jujur otentik pk poles apa bisa prabowosandi sandinyerang nyerangbang bangbeliau beliaubicara bicarajujur jujurotentik otentikpk pkpoles polesapa apabisa</t>
+  </si>
+  <si>
+    <t>pak korupsi turun sistem baik bagus pak pemerintahandilan pakkorupsi korupsiturun turunsistem sistembaik baikbagus baguspak pakpemerintahandilan</t>
+  </si>
+  <si>
+    <t>buzzer bayar siap ikut polling nih rakyat mau lawan lihat siapa menang prabowo buzzerbayar bayarsiap siapikut ikutpolling pollingnih nihrakyat rakyatmau maulawan lawanlihat lihatsiapa siapamenang menangprabowo</t>
+  </si>
+  <si>
+    <t>rada ijid ningali bobotoh deklarasi dukung paslon rek deklarasi milih radaijid ijidningali ningalibobotoh bobotohdeklarasi deklarasidukung dukungpaslon paslonrek rekdeklarasi deklarasimilih</t>
+  </si>
+  <si>
+    <t>ujung debat calon presiden pak hasil jinak emosi satu kalimat santun sahabat tidak pernah putus ujungdebat debatcalon calonpresiden presidenpak pakhasil hasiljinak jinakemosi emosisatu satukalimat kalimatsantun santunsahabat sahabattidak tidakpernah pernahputus</t>
+  </si>
+  <si>
+    <t>kuis pilpres calon presiden mana suka joged telanjang dada muka umum https t co jn0ui9jd3s c7 - kuispilpres pilprescalon calonpresiden presidenmana manasuka sukajoged jogedtelanjang telanjangdada dadamuka mukaumum umumhttps httpst tco cojn0ui9jd3s jn0ui9jd3sc7 c7-</t>
+  </si>
+  <si>
+    <t>visi misi kok kayak orang surup promosi kok marah visimisi misikok kokkayak kayakorang orangsurup suruppromosi promosikok kokmarah</t>
+  </si>
+  <si>
+    <t>ni adek bagi kelompok radikal mau ganti pancasila wajah jangan udah rem dukung sandi niadek adekbagi bagikelompok kelompokradikal radikalmau mauganti gantipancasila pancasilawajah wajahjangan janganudah udahrem remdukung dukungsandi</t>
+  </si>
+  <si>
+    <t>imho pak lebih baik tak dalam debat kali imhopak paklebih lebihbaik baiktak takdalam dalamdebat debatkali</t>
+  </si>
+  <si>
+    <t>malam bungkam juga dukung tidak ada ria sorak gembira malambungkam bungkamjuga jugadukung dukungtidak tidakada adaria riasorak sorakgembira</t>
+  </si>
+  <si>
+    <t>tahan aman indonesia harga mati jenderal kalau dunia internasional lihat balik tahanaman amanindonesia indonesiaharga hargamati matijenderal jenderalkalau kalaudunia duniainternasional internasionallihat lihatbalik</t>
+  </si>
+  <si>
+    <t>tuh bingung jadi pak prabowo masak balik jadul makin yakin kalau pak jangan 01indonesiamaju tuhbingung bingungjadi jadipak pakprabowo prabowomasak masakbalik balikjadul jadulmakin makinyakin yakinkalau kalaupak pakjangan jangan01indonesiamaju</t>
+  </si>
+  <si>
+    <t>serentak kompak naik jokowidiambangkekalahan kita sambut pimpin baru - sandi serentakkompak kompaknaik naikjokowidiambangkekalahan jokowidiambangkekalahankita kitasambut sambutpimpin pimpinbaru baru- -sandi</t>
+  </si>
+  <si>
+    <t>pak lebih percaya teknologi lama https t co nfiq 982l67 paklebih lebihpercaya percayateknologi teknologilama lamahttps httpst tco confiq nfiq982l67</t>
+  </si>
+  <si>
+    <t>kuat tahan sangat rapuh lemah bukan salah pak tapi tidak tahu salah siapa kuattahan tahansangat sangatrapuh rapuhlemah lemahbukan bukansalah salahpak paktapi tapitidak tidaktahu tahusalah salahsiapa</t>
+  </si>
+  <si>
+    <t>sering sedang naik sepeda rantai putus percaya saya pak rantai sahabat tidak pernah putus seringsedang sedangnaik naiksepeda sepedarantai rantaiputus putuspercaya percayasaya sayapak pakrantai rantaisahabat sahabattidak tidakpernah pernahputus</t>
+  </si>
+  <si>
+    <t>percaya rantai sahabat percayarantai rantaisahabat pak yakin akan pernah putus sweet banget sih pakde pakyakin yakinakan akanpernah pernahputus putussweet sweetbanget bangetsih sihpakde</t>
+  </si>
+  <si>
+    <t>emosi kontrol parah audiens orang begini bahaya kalau pimpin emosikontrol kontrolparah parahaudiens audiensorang orangbegini beginibahaya bahayakalau kalaupimpin</t>
+  </si>
+  <si>
+    <t>silah tertawa jadi presiden kalau beliau menang ketawa larang silahtertawa tertawajadi jadipresiden presidenkalau kalaubeliau beliaumenang menangketawa ketawalarang</t>
+  </si>
+  <si>
+    <t>jokowi faham model perang depan perang apa kalau jadi cyber war space war jokowifaham fahammodel modelperang perangdepan depanperang perangapa apakalau kalaujadi jadicyber cyberwar warspace spacewar</t>
+  </si>
+  <si>
+    <t>masuk all seriousness saya ngerti topik military defense harus jadi sisi kuat malah beranta gitu masukall allseriousness seriousnesssaya sayangerti ngertitopik topikmilitary militarydefense defenseharus harusjadi jadisisi sisikuat kuatmalah malahberanta berantagitu</t>
+  </si>
+  <si>
+    <t>merinding tanda cinta rakyat hadap pak moga lanjut periode gaspoljokowijempol merindingtanda tandacinta cintarakyat rakyathadap hadappak pakmoga mogalanjut lanjutperiode periodegaspoljokowijempol</t>
+  </si>
+  <si>
+    <t>harap harap rakyat ingin ubah indonesia adil makmur april coblos pilih harapharap haraprakyat rakyatingin inginubah ubahindonesia indonesiaadil adilmakmur makmurapril aprilcoblos coblospilih</t>
+  </si>
+  <si>
+    <t>saya bela rakyat hormat sangat mulia subianto prabowobentengnkri sayabela belarakyat rakyathormat hormatsangat sangatmulia muliasubianto subiantoprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co 328hggut9c perintahyng yngsigap sigaplayan layanrakyat rakyatbagus baguspak pakpemerintahandilan pemerintahandilanhttps httpst tco co328hggut9c</t>
+  </si>
+  <si>
+    <t>debat hari lah sifat asli pak mulai keluar nampaknya beliau tidak tahan sandiwara jadi orang baik debathari harilah lahsifat sifatasli aslipak pakmulai mulaikeluar keluarnampaknya nampaknyabeliau beliautidak tidaktahan tahansandiwara sandiwarajadi jadiorang orangbaik</t>
+  </si>
+  <si>
+    <t>lihat ganas malam tapi lihat prihatin seperti habis pikir gemas sendiri bisik lihatganas ganasmalam malamtapi tapilihat lihatprihatin prihatinseperti sepertihabis habispikir pikirgemas gemassendiri sendiribisik</t>
+  </si>
+  <si>
+    <t>perintah an sigap layan rakyat bagus pak pemerintahandilan https t co vwhecy 74nd perintahan ansigap sigaplayan layanrakyat rakyatbagus baguspak pakpemerintahandilan pemerintahandilanhttps httpst tco covwhecy vwhecy74nd</t>
+  </si>
+  <si>
+    <t>yuk satu satu lebih asyik pemerintahandilan https t co oejifofpsx yuksatu satusatu satulebih lebihasyik asyikpemerintahandilan pemerintahandilanhttps httpst tco cooejifofpsx</t>
+  </si>
+  <si>
+    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut dimarahin pak duluken kenketawa ketawatakut takutdosa dosasekarang sekarangken kenketawa ketawatakut takutdimarahin dimarahinpak</t>
+  </si>
+  <si>
+    <t>debat calon presiden malam saya ikan score 10-0 buat menang pak bisa lihat karakter pimpin kuat debatcalon calonpresiden presidenmalam malamsaya sayaikan ikanscore score10-0 10-0buat buatmenang menangpak pakbisa bisalihat lihatkarakter karakterpimpin pimpinkuat</t>
+  </si>
+  <si>
+    <t>sebut betul koruptor orang baik pilih jadi presiden diri beri sempat sebutbetul betulkoruptor koruptororang orangbaik baikpilih pilihjadi jadipresiden presidendiri diriberi berisempat</t>
+  </si>
+  <si>
+    <t>kalau bicara nasionalisme p semangat jangan ketawa lemah itu reaksi spontan patriotik kalaubicara bicaranasionalisme nasionalismep psemangat semangatjangan janganketawa ketawalemah lemahitu itureaksi reaksispontan spontanpatriotik</t>
+  </si>
+  <si>
+    <t>tertawa tertawa larang sama pak debatpilpres 2019 tertawatertawa tertawalarang larangsama samapak pakdebatpilpres debatpilpres2019</t>
+  </si>
+  <si>
+    <t>perlu garis bawah ke afganistan pake rompi anti peluru perlugaris garisbawah bawahke keafganistan afganistanpake pakerompi rompianti antipeluru</t>
+  </si>
+  <si>
+    <t>marah sih pak panggil dil debatpilpres 2019 kali pemerintahandilan marahsih sihpak pakpanggil panggildil dildebatpilpres debatpilpres2019 2019kali kalipemerintahandilan</t>
+  </si>
+  <si>
+    <t>milu legislatif pilih presiden april besok habis biaya tidak sedikit triliun rupiah milulegislatif legislatifpilih pilihpresiden presidenapril aprilbesok besokhabis habisbiaya biayatidak tidaksedikit sedikittriliun triliunrupiah</t>
+  </si>
+  <si>
+    <t>warga negara baik pilih pimpin baik jawab baik kita semua 01dilanjutkan warganegara negarabaik baikpilih pilihpimpin pimpinbaik baikjawab jawabbaik baikkita kitasemua semua01dilanjutkan</t>
+  </si>
+  <si>
+    <t>pak masalah apa si sini cerita sini jan marah marah mulu dong kek dosen kalau ngambek mahasiswa nya pakmasalah masalahapa apasi sisini sinicerita ceritasini sinijan janmarah marahmarah marahmulu muludong dongkek kekdosen dosenkalau kalaungambek ngambekmahasiswa mahasiswanya</t>
+  </si>
+  <si>
+    <t>serang emosi pak tetap kata bukan salah bapak salut engkau sungguh jiwa besar serangemosi emosipak paktetap tetapkata katabukan bukansalah salahbapak bapaksalut salutengkau engkausungguh sungguhjiwa jiwabesar</t>
+  </si>
+  <si>
+    <t>pak timses kamu bilang anak ingus nih tertib pak bapak hormat bangsa paktimses timseskamu kamubilang bilanganak anakingus ingusnih nihtertib tertibpak pakbapak bapakhormat hormatbangsa</t>
+  </si>
+  <si>
+    <t>papar visi misi klaim praktik korupsi perintah turut lemah negara paparvisi visimisi misiklaim klaimpraktik praktikkorupsi korupsiperintah perintahturut turutlemah lemahnegara</t>
+  </si>
+  <si>
+    <t>kata pak bukan lemah kalah kuat yang lambat kalah yang cepat katapak pakbukan bukanlemah lemahkalah kalahkuat kuatyang yanglambat lambatkalah kalahyang yangcepat</t>
+  </si>
+  <si>
+    <t>kpu angkat bicara soal alokasi waktu cara adil masih jangan bilang main curang hm kpuangkat angkatbicara bicarasoal soalalokasi alokasiwaktu waktucara caraadil adilmasih masihjangan janganbilang bilangmain maincurang curanghm</t>
+  </si>
+  <si>
+    <t>moga pak beri mudah lancar malam al fatihah prabowobentengnkri https t co gmhz 1husuk mogapak pakberi berimudah mudahlancar lancarmalam malamal alfatihah fatihahprabowobentengnkri prabowobentengnkrihttps httpst tco cogmhz gmhz1husuk</t>
+  </si>
+  <si>
+    <t>bawah pimpin prabowo-sandi akan komitmen hadir harga bahan pokok stabil jangkau bawahpimpin pimpinprabowo-sandi prabowo-sandiakan akankomitmen komitmenhadir hadirharga hargabahan bahanpokok pokokstabil stabiljangkau</t>
+  </si>
+  <si>
+    <t>kata mobil esemka bohong moga dosa 2nya ampun allah swt yang fitnah kait ini pak katamobil mobilesemka esemkabohong bohongmoga mogadosa dosa2nya 2nyaampun ampunallah allahswt swtyang yangfitnah fitnahkait kaitini inipak</t>
+  </si>
+  <si>
+    <t>insyallah allah menang indonesia jadi macan asia bukan cebong asia insyallahallah allahmenang menangindonesia indonesiajadi jadimacan macanasia asiabukan bukancebong cebongasia</t>
+  </si>
+  <si>
+    <t>sama indonesia kuat prabowobentengnkri samaindonesia indonesiakuat kuatprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>presiden conference pasca debat tkn cara baca data pak kena kuat militer banding anggar presidenconference conferencepasca pascadebat debattkn tkncara carabaca bacadata datapak pakkena kenakuat kuatmiliter militerbanding bandinganggar</t>
+  </si>
+  <si>
+    <t>warga negara baik pilih pimpin baik jawab baik menangjokowilagi warganegara negarabaik baikpilih pilihpimpin pimpinbaik baikjawab jawabbaik baikmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>saling hujat saling remeh saling toleransi kawan sahabat idola salinghujat hujatsaling salingremeh remehsaling salingtoleransi toleransikawan kawansahabat sahabatidola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debat empat pilpres tutup momen manis debatempat empatpilpres pilprestutup tutupmomen momenmanis </t>
+  </si>
+  <si>
+    <t>konsep pak indonesia maju mantap menangjokowilagi konseppak pakindonesia indonesiamaju majumantap mantapmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>buah tangan perintah pak sby saja aku debat aneh demen main klaim buahtangan tanganperintah perintahpak paksby sbysaja sajaaku akudebat debataneh anehdemen demenmain mainklaim</t>
+  </si>
+  <si>
+    <t>salut bangga pakde walaupun sipil bagai panglima tinggi baik harga kerja keras salutbangga banggapakde pakdewalaupun walaupunsipil sipilbagai bagaipanglima panglimatinggi tinggibaik baikharga hargakerja kerjakeras</t>
+  </si>
+  <si>
+    <t>indonesia kini sama jadi negara hebat menangjokowilagi https t co pyphejzzou indonesiakini kinisama samajadi jadinegara negarahebat hebatmenangjokowilagi menangjokowilagihttps httpst tco copyphejzzou</t>
+  </si>
+  <si>
+    <t>tukang kayu lebih ngerti militer yang pernah jadi militer lebih tni tni tukangkayu kayulebih lebihngerti ngertimiliter militeryang yangpernah pernahjadi jadimiliter militerlebih lebihtni tnitni</t>
+  </si>
+  <si>
+    <t>nyawa saya taruh republik jangan ragu nasionalisme mas nyawasaya sayataruh taruhrepublik republikjangan janganragu ragunasionalisme nasionalismemas</t>
+  </si>
+  <si>
+    <t>pancasila hasil suatu komporomi besar cemerlang generasi diri bangsa indonesia pancasilahasil hasilsuatu suatukomporomi komporomibesar besarcemerlang cemerlanggenerasi generasidiri diribangsa bangsaindonesia</t>
+  </si>
+  <si>
+    <t>paling sewot sayagolput dukung kami ingat pada alam bawah sadar bahwa kalah palingsewot sewotsayagolput sayagolputdukung dukungkami kamiingat ingatpada padaalam alambawah bawahsadar sadarbahwa bahwakalah</t>
+  </si>
+  <si>
+    <t>jember siang tadi rombong wi sambut guru honorer ria jembersiang siangtadi tadirombong rombongwi wisambut sambutguru guruhonorer honorerria</t>
+  </si>
+  <si>
+    <t>dengan tekad kuat rubah bangsa pak mampu beri ubah bagai lini bangsa dengantekad tekadkuat kuatrubah rubahbangsa bangsapak pakmampu mampuberi beriubah ubahbagai bagailini linibangsa</t>
+  </si>
+  <si>
+    <t>yang tau definisi polyglot coba cek google deh nyata pak orang polyglot yangtau taudefinisi definisipolyglot polyglotcoba cobacek cekgoogle googledeh dehnyata nyatapak pakorang orangpolyglot</t>
+  </si>
+  <si>
+    <t>sangat haru salam pisah pak jokowi barusan sahabat nomer satu presiden no sangatharu harusalam salampisah pisahpak pakjokowi jokowibarusan barusansahabat sahabatnomer nomersatu satupresiden presidenno</t>
+  </si>
+  <si>
+    <t>kuat 2an adu isu elektabilitas media tulis elektabilitas non-prabowo sulit kejar kuat2an 2anadu aduisu isuelektabilitas elektabilitasmedia mediatulis tuliselektabilitas elektabilitasnon-prabowo non-prabowosulit sulitkejar</t>
+  </si>
+  <si>
+    <t>rakyat percaya tni 01dilanjutkan https t co fhdmwypu 5w rakyatpercaya percayatni tni01dilanjutkan 01dilanjutkanhttps httpst tco cofhdmwypu fhdmwypu5w</t>
+  </si>
+  <si>
+    <t>pak nih kalau tongkrong tipikal semangat cerita panjang lebar tidak ditanggepin sama anak anak skip jangan gitu paknih nihkalau kalautongkrong tongkrongtipikal tipikalsemangat semangatcerita ceritapanjang panjanglebar lebartidak tidakditanggepin ditanggepinsama samaanak anakanak anakskip skipjangan jangangitu</t>
+  </si>
+  <si>
+    <t>pemerintahandilan keren tingkat puas publik hadap kerja perintah jokowi-jk tinggi atas pemerintahandilankeren kerentingkat tingkatpuas puaspublik publikhadap hadapkerja kerjaperintah perintahjokowi-jk jokowi-jktinggi tinggiatas</t>
+  </si>
+  <si>
+    <t>tahan bidang hankam terlalu lemah anggar sangat kecil yang kita baik tahanbidang bidanghankam hankamterlalu terlalulemah lemahanggar anggarsangat sangatkecil kecilyang yangkita kitabaik</t>
+  </si>
+  <si>
+    <t>selamat pagi penganten lebih paham mana coblos mana pilih goyang jari pilih selamatpagi pagipenganten pengantenlebih lebihpaham pahammana manacoblos coblosmana manapilih pilihgoyang goyangjari jaripilih</t>
+  </si>
+  <si>
+    <t>indonesia maju infrastruktur baik menang 01dilanjutkan https t co muddzx 0kwx indonesiamaju majuinfrastruktur infrastrukturbaik baikmenang menang01dilanjutkan 01dilanjutkanhttps httpst tco comuddzx muddzx0kwx</t>
+  </si>
+  <si>
+    <t>selamat nama jadi trending paling banyak bicara good kerja buat anak twitter dukung selamatnama namajadi jaditrending trendingpaling palingbanyak banyakbicara bicaragood goodkerja kerjabuat buatanak anaktwitter twitterdukung</t>
+  </si>
+  <si>
+    <t>insyallah allah pak menang telak prabowobentengnkri https t co qptegiu 2ua insyallahallah allahpak pakmenang menangtelak telakprabowobentengnkri prabowobentengnkrihttps httpst tco coqptegiu qptegiu2ua</t>
+  </si>
+  <si>
+    <t>wajah prabohong pucet gara-gara tau apa kata pak kualitas lanjut pemerintahandilan wajahprabohong prabohongpucet pucetgara-gara gara-garatau tauapa apakata katapak pakkualitas kualitaslanjut lanjutpemerintahandilan</t>
+  </si>
+  <si>
+    <t>khas pak kena kemeja putih lengan panjang gulung 01dilanjutkan https t co re2jvkcqto khaspak pakkena kenakemeja kemejaputih putihlengan lenganpanjang panjanggulung gulung01dilanjutkan 01dilanjutkanhttps httpst tco core2jvkcqto</t>
+  </si>
+  <si>
+    <t>jalan demokrasi baik laksana sekarang kok tolak belakang prabowobentengnkri jalandemokrasi demokrasibaik baiklaksana laksanasekarang sekarangkok koktolak tolakbelakang belakangprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>personifikasi debat empat sangat kuat itu kokoh pribadi diri bagai orang patriotik personifikasidebat debatempat empatsangat sangatkuat kuatitu itukokoh kokohpribadi pribadidiri diribagai bagaiorang orangpatriotik</t>
+  </si>
+  <si>
+    <t>sama orang hebat indonesia maju unggul menangjokowilagi samaorang oranghebat hebatindonesia indonesiamaju majuunggul unggulmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>marah tahan negara lemah tertawa bukti sangkut paranoid atas ancam asing marahtahan tahannegara negaralemah lemahtertawa tertawabukti buktisangkut sangkutparanoid paranoidatas atasancam ancamasing</t>
+  </si>
+  <si>
+    <t>jumlah massa kampanye akbar pakansari hingga jalan capai satu juta orang luar biasa bogor jumlahmassa massakampanye kampanyeakbar akbarpakansari pakansarihingga hinggajalan jalancapai capaisatu satujuta jutaorang orangluar luarbiasa biasabogor</t>
+  </si>
+  <si>
+    <t>kita banding pakai hati nurani akal sehat pancasila beri sejak dini kitabanding bandingpakai pakaihati hatinurani nuraniakal akalsehat sehatpancasila pancasilaberi berisejak sejakdini</t>
+  </si>
+  <si>
+    <t>mumpung debatpilpres 2019 istirahat senyum manis dulu salam bismillah indonesia mumpungdebatpilpres debatpilpres2019 2019istirahat istirahatsenyum senyummanis manisdulu dulusalam salambismillah bismillahindonesia</t>
+  </si>
+  <si>
+    <t>hei kalian suka nyinyirin bapak jelek 2an beliau maaf selalu bukti beliau orang baik tanggungjawab heikalian kaliansuka sukanyinyirin nyinyirinbapak bapakjelek jelek2an 2anbeliau beliaumaaf maafselalu selalubukti buktibeliau beliauorang orangbaik baiktanggungjawab</t>
+  </si>
+  <si>
+    <t>jual beli jabat waris sejak perintah mantan mertua kamu pak memang susah rubah mental orde baru jualbeli belijabat jabatwaris warissejak sejakperintah perintahmantan mantanmertua mertuakamu kamupak pakmemang memangsusah susahrubah rubahmental mentalorde ordebaru</t>
+  </si>
+  <si>
+    <t>orasi politik ketua umum pan tegas jawa barat salah satu kunci menang orasipolitik politikketua ketuaumum umumpan pantegas tegasjawa jawabarat baratsalah salahsatu satukunci kuncimenang</t>
+  </si>
+  <si>
+    <t>mantap bang cebong marahin mala ketawa dasar dungu akut mantapbang bangcebong cebongmarahin marahinmala malaketawa ketawadasar dasardungu dunguakut</t>
+  </si>
+  <si>
+    <t>saya inti perintah bahwa lembaga perintah harus bersih korupsi sayainti intiperintah perintahbahwa bahwalembaga lembagaperintah perintahharus harusbersih bersihkorupsi</t>
+  </si>
+  <si>
+    <t>omong pak calon presiden pecat tni begitu pantes pecat wong sering gagal paham https t co etacadeg 8n omongpak pakcalon calonpresiden presidenpecat pecattni tnibegitu begitupantes pantespecat pecatwong wongsering seringgagal gagalpaham pahamhttps httpst tco coetacadeg etacadeg8n</t>
+  </si>
+  <si>
+    <t>sangat dukung kembang ekonomi digital lalu pemerintahandilan usaha pelihara stratup sangatdukung dukungkembang kembangekonomi ekonomidigital digitallalu lalupemerintahandilan pemerintahandilanusaha usahapelihara peliharastratup</t>
+  </si>
+  <si>
+    <t>benar pak sampai tadi bahwasannya perintah sekarang banyak teori tidak sesuai nyata benarpak paksampai sampaitadi tadibahwasannya bahwasannyaperintah perintahsekarang sekarangbanyak banyakteori teoritidak tidaksesuai sesuainyata</t>
+  </si>
+  <si>
+    <t>ada wiranto luhut hendro agum masak jenderal dukung bila pki sendiri jenderal adawiranto wirantoluhut luhuthendro hendroagum agummasak masakjenderal jenderaldukung dukungbila bilapki pkisendiri sendirijenderal</t>
+  </si>
+  <si>
+    <t>culik culik hati milenial tionghoa kuaile de zhandou selamat juang culikculik culikhati hatimilenial milenialtionghoa tionghoakuaile kuailede dezhandou zhandouselamat selamatjuang</t>
+  </si>
+  <si>
+    <t>nonton kok jurus aja monoton contoh bahas korupsi lagi lagi jurus kemaren nontonkok kokjurus jurusaja ajamonoton monotoncontoh contohbahas bahaskorupsi korupsilagi lagilagi lagijurus juruskemaren</t>
+  </si>
+  <si>
+    <t>rawan muda gelar nobar tekan golput kalang milenial https t co w4k3nrowfy rawanmuda mudagelar gelarnobar nobartekan tekangolput golputkalang kalangmilenial milenialhttps httpst tco cow4k3nrowfy</t>
+  </si>
+  <si>
+    <t>salah satu contoh kecil prestasi hasil nya jelas silah cek sendiri data salahsatu satucontoh contohkecil kecilprestasi prestasihasil hasilnya nyajelas jelassilah silahcek ceksendiri sendiridata</t>
+  </si>
+  <si>
+    <t>sumber foto jenderal goblok udah edit eh foto orang kamboja keren cici kamboja dukung sumberfoto fotojenderal jenderalgoblok goblokudah udahedit editeh ehfoto fotoorang orangkamboja kambojakeren kerencici cicikamboja kambojadukung</t>
+  </si>
+  <si>
+    <t>pak mau indonesia hormat tidak tahu cara capa tahu cara pidato pakmau mauindonesia indonesiahormat hormattidak tidaktahu tahucara caracapa capatahu tahucara carapidato</t>
+  </si>
+  <si>
+    <t>closing statement aku kuat lawan closingstatement statementaku akukuat kuatlawan</t>
+  </si>
+  <si>
+    <t>beberapa pimpin organisasi bobotoh para suporter persib bandung deklarasi dukung pak beberapapimpin pimpinorganisasi organisasibobotoh bobotohpara parasuporter suporterpersib persibbandung bandungdeklarasi deklarasidukung dukungpak</t>
+  </si>
+  <si>
+    <t>saya bukan salah saya kuat tahan sangat rapuh lemah bukan salah bapak sayabukan bukansalah salahsaya sayakuat kuattahan tahansangat sangatrapuh rapuhlemah lemahbukan bukansalah salahbapak</t>
+  </si>
+  <si>
+    <t>soal freeport sangat untung buat apalagi emas perak tembaga soalfreeport freeportsangat sangatuntung untungbuat buatapalagi apalagiemas emasperak peraktembaga</t>
+  </si>
+  <si>
+    <t>kata p anggar tni harus naik n perlu tni kuat tahan wilayah katap panggar anggartni tniharus harusnaik naikn nperlu perlutni tnikuat kuattahan tahanwilayah</t>
+  </si>
+  <si>
+    <t>jenderal lawan umur tahun taruh nyawa pancasila untuk republik jenderallawan lawanumur umurtahun tahuntaruh taruhnyawa nyawapancasila pancasilauntuk untukrepublik</t>
+  </si>
+  <si>
+    <t>pak serang hujat tahan bilang kalah nyerang akibat selalu keluar konteks tahan sesuai tema pakserang seranghujat hujattahan tahanbilang bilangkalah kalahnyerang nyerangakibat akibatselalu selalukeluar keluarkonteks kontekstahan tahansesuai sesuaitema</t>
+  </si>
+  <si>
+    <t>mantap kali calon presiden pak malam cerdas tegas prabowomenangdebat mantapkali kalicalon calonpresiden presidenpak pakmalam malamcerdas cerdastegas tegasprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>statement soal usah ngurusin masalah negara adalah pukul telak buat dukung statementsoal soalusah usahngurusin ngurusinmasalah masalahnegara negaraadalah adalahpukul pukultelak telakbuat buatdukung</t>
+  </si>
+  <si>
+    <t>wah salah nih mas kasih tahu litbang wahsalah salahnih nihmas maskasih kasihtahu tahulitbang</t>
+  </si>
+  <si>
+    <t>kait aspek tahan keamananan point penting debatpilpres 2019 nyata penting kembang alutsista kaitaspek aspektahan tahankeamananan keamanananpoint pointpenting pentingdebatpilpres debatpilpres2019 2019nyata nyatapenting pentingkembang kembangalutsista</t>
+  </si>
+  <si>
+    <t>senang naik sepeda sering rantai putus yakin rantai sahabat dengan tak pernah putus senangnaik naiksepeda sepedasering seringrantai rantaiputus putusyakin yakinrantai rantaisahabat sahabatdengan dengantak takpernah pernahputus</t>
+  </si>
+  <si>
+    <t>sipil sangat percaya tni beliau lebih percaya tni pada mantan tni yang pecat sipilsangat sangatpercaya percayatni tnibeliau beliaulebih lebihpercaya percayatni tnipada padamantan mantantni tniyang yangpecat</t>
+  </si>
+  <si>
+    <t>pak tadi maju tidak pakai teks gestur di luar kepala lulus fort cantik gitu paktadi tadimaju majutidak tidakpakai pakaiteks teksgestur gesturdi diluar luarkepala kepalalulus lulusfort fortcantik cantikgitu</t>
+  </si>
+  <si>
+    <t>indonesia bawah jadi bangsa emis utang peran dunia internasional hilang presiden tak bicara indonesiabawah bawahjadi jadibangsa bangsaemis emisutang utangperan perandunia duniainternasional internasionalhilang hilangpresiden presidentak takbicara</t>
+  </si>
+  <si>
+    <t>denger tuh kata pak saling harga https t co l143x7rvt5 dengertuh tuhkata katapak paksaling salingharga hargahttps httpst tco col143x7rvt5</t>
+  </si>
+  <si>
+    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin kayasuatu suatubangsa bangsakalau kalaujaga jagasuatu suatukuat kuattahan tahankuat kuattidak tidakmungkin</t>
+  </si>
+  <si>
+    <t>wkkwkwkwkk asli salah satu omong wowo ngaco pecatanlebihtnidaritni mending jauh pak mana wkkwkwkwkkasli aslisalah salahsatu satuomong omongwowo wowongaco ngacopecatanlebihtnidaritni pecatanlebihtnidaritnimending mendingjauh jauhpak pakmana</t>
+  </si>
+  <si>
+    <t>mbak badan menang nasional jangan mau tipu sama hti angin surga buat hti akan buat dukung mbakbadan badanmenang menangnasional nasionaljangan janganmau mautipu tipusama samahti htiangin anginsurga surgabuat buathti htiakan akanbuat buatdukung</t>
+  </si>
+  <si>
+    <t>marah cinta hadap negara kalian goreng sedang bohong manis si jokowi malah kalian puji marahcinta cintahadap hadapnegara negarakalian kaliangoreng gorengsedang sedangbohong bohongmanis manissi sijokowi jokowimalah malahkalian kalianpuji</t>
+  </si>
+  <si>
+    <t>pilpres tarung akal sehat akal dungu jokowidiambangkekalahan https t co 0ygyvuuior pilprestarung tarungakal akalsehat sehatakal akaldungu dungujokowidiambangkekalahan jokowidiambangkekalahanhttps httpst tco co0ygyvuuior</t>
+  </si>
+  <si>
+    <t>pak selalu tampil elegan negarawan tampil lepas penuh canda tawa tak segan joget riang pakselalu selalutampil tampilelegan elegannegarawan negarawantampil tampillepas lepaspenuh penuhcanda candatawa tawatak taksegan seganjoget jogetriang</t>
+  </si>
+  <si>
+    <t>isu khilafah isu kaum keok-ers katolik pilih pimpin jujur bapak isukhilafah khilafahisu isukaum kaumkeok-ers keok-erskatolik katolikpilih pilihpimpin pimpinjujur jujurbapak</t>
+  </si>
+  <si>
+    <t>sumpah tahan pancasila titik darah akhir bohong kecewa bapak luka dikit jangan udah pakai sarung tangan sumpahtahan tahanpancasila pancasilatitik titikdarah darahakhir akhirbohong bohongkecewa kecewabapak bapakluka lukadikit dikitjangan janganudah udahpakai pakaisarung sarungtangan</t>
+  </si>
+  <si>
+    <t>kalau kayak gin performa pak jadi menhan perintah presiden 2019-2024 tak pantas kalaukayak kayakgin ginperforma performapak pakjadi jadimenhan menhanperintah perintahpresiden presiden2019-2024 2019-2024tak takpantas</t>
+  </si>
+  <si>
+    <t>bapak info sesat petinggi tni woi om wowo lupa bukankah kamu lebih parah dibohongin sama dukung sendiri bapakinfo infosesat sesatpetinggi petinggitni tniwoi woiom omwowo wowolupa lupabukankah bukankahkamu kamulebih lebihparah parahdibohongin dibohonginsama samadukung dukungsendiri</t>
+  </si>
+  <si>
+    <t>alhamdulillah debat langsung lancar berkat doa semua cinta indonesia sayang alhamdulillahdebat debatlangsung langsunglancar lancarberkat berkatdoa doasemua semuacinta cintaindonesia indonesiasayang</t>
+  </si>
+  <si>
+    <t>lebih tni tni bagus pak aku overdosis jadi makin mudah kami pilih presiden lebihtni tnitni tnibagus baguspak pakaku akuoverdosis overdosisjadi jadimakin makinmudah mudahkami kamipilih pilihpresiden</t>
+  </si>
+  <si>
+    <t>subianto ragu mampu ri bidang tahan situs global fire power fokus masalah subiantoragu ragumampu mampuri ribidang bidangtahan tahansitus situsglobal globalfire firepower powerfokus fokusmasalah</t>
+  </si>
+  <si>
+    <t>satu sisi tegas bilang akan ubah nkri jadi khilafah di sisi badan menang nasional malah janji hti hidup satusisi sisitegas tegasbilang bilangakan akanubah ubahnkri nkrijadi jadikhilafah khilafahdi disisi sisibadan badanmenang menangnasional nasionalmalah malahjanji janjihti htihidup</t>
+  </si>
+  <si>
+    <t>siap bawa indonesia maju cuma pak 01dilanjutkan https t co mhvlauseoz siapbawa bawaindonesia indonesiamaju majucuma cumapak pak01dilanjutkan 01dilanjutkanhttps httpst tco comhvlauseoz</t>
+  </si>
+  <si>
+    <t>2beer unpopular opinion pak mungkin punya track record tidak gitu baik saya percaya kalau beliau orang baik 2beerunpopular unpopularopinion opinionpak pakmungkin mungkinpunya punyatrack trackrecord recordtidak tidakgitu gitubaik baiksaya sayapercaya percayakalau kalaubeliau beliauorang orangbaik</t>
+  </si>
+  <si>
+    <t>apa sampai mas tema debat isi tegas lugas mudah erti sesuai lapang apasampai sampaimas mastema temadebat debatisi isitegas tegaslugas lugasmudah mudaherti ertisesuai sesuailapang</t>
+  </si>
+  <si>
+    <t>pak biar paham rata skor cpi dunia tahu kalau indonesia arti bawah rata pakbiar biarpaham pahamrata rataskor skorcpi cpidunia duniatahu tahukalau kalauindonesia indonesiaarti artibawah bawahrata</t>
+  </si>
+  <si>
+    <t>pak all keluar debat malam semua umpan lawan lahap habis bahkan jawab kerap jadi serang balik pakall allkeluar keluardebat debatmalam malamsemua semuaumpan umpanlawan lawanlahap lahaphabis habisbahkan bahkanjawab jawabkerap kerapjadi jadiserang serangbalik</t>
+  </si>
+  <si>
+    <t>rekam jejak bersih segala kasus langgar hukum menangjokowilagi rekamjejak jejakbersih bersihsegala segalakasus kasuslanggar langgarhukum hukummenangjokowilagi</t>
+  </si>
+  <si>
+    <t>ketua umum pan insyallah allah jawa barat jadi menang pan - sandi ketuaumum umumpan paninsyallah insyallahallah allahjawa jawabarat baratjadi jadimenang menangpan pan- -sandi</t>
+  </si>
+  <si>
+    <t>ken cepat punya presiden tegas berkharisma prabowobentengnkri kencepat cepatpunya punyapresiden presidentegas tegasberkharisma berkharismaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>paling penting bagaimana beri didik palingpenting pentingbagaimana bagaimanaberi berididik</t>
+  </si>
+  <si>
+    <t>jadi keliru kalau badan menang nasional beri angin hti harap suara hti justru hti percaya demokrasi jadikeliru kelirukalau kalaubadan badanmenang menangnasional nasionalberi beriangin anginhti htiharap harapsuara suarahti htijustru justruhti htipercaya percayademokrasi</t>
+  </si>
+  <si>
+    <t>juang sama sama rakyat biar rakyat tentu juangsama samasama samarakyat rakyatbiar biarrakyat rakyattentu</t>
+  </si>
+  <si>
+    <t>pakdhe budhe iriana suka kampanye suasana positif optimis penuh canda tawa ceria pakdhebudhe budheiriana irianasuka sukakampanye kampanyesuasana suasanapositif positifoptimis optimispenuh penuhcanda candatawa tawaceria</t>
+  </si>
+  <si>
+    <t>astaga 2nya ngomong kalau dukung yang nuduh soal khilafah yang jelek 2in astaga2nya 2nyangomong ngomongkalau kalaudukung dukungyang yangnuduh nuduhsoal soalkhilafah khilafahyang yangjelek jelek2in</t>
+  </si>
+  <si>
+    <t>kena tuduh pro-khilafah milik argumen menep mentah olah bela khilafah kenatuduh tuduhpro-khilafah pro-khilafahmilik milikargumen argumenmenep menepmentah mentaholah olahbela belakhilafah</t>
+  </si>
+  <si>
+    <t>pimpin garis beri contoh jaga satu bukan pecah belah mantap mas pimpingaris garisberi bericontoh contohjaga jagasatu satubukan bukanpecah pecahbelah belahmantap mantapmas</t>
+  </si>
+  <si>
+    <t>mantap sekali nyata pak moga selalu konsisten prabowobentengnkri https t co apdde 5ubll mantapsekali sekalinyata nyatapak pakmoga mogaselalu selalukonsisten konsistenprabowobentengnkri prabowobentengnkrihttps httpst tco coapdde apdde5ubll</t>
+  </si>
+  <si>
+    <t>mantaaab yang tunggu argument cerdas tegas bapak pkivspancasila 18harilagicobloscapres02 mantaaabyang yangtunggu tungguargument argumentcerdas cerdastegas tegasbapak bapakpkivspancasila pkivspancasila18harilagicobloscapres02</t>
+  </si>
+  <si>
+    <t>hasil prediksi menang telak tema ahli beliau notabene milik wawasanya hasilprediksi prediksimenang menangtelak telaktema temaahli ahlibeliau beliaunotabene notabenemilik milikwawasanya</t>
+  </si>
+  <si>
+    <t>andal jual kartu bangga layan satu pintu bangga program yang kata mampu kurang korupsi andaljual jualkartu kartubangga banggalayan layansatu satupintu pintubangga banggaprogram programyang yangkata katamampu mampukurang kurangkorupsi</t>
+  </si>
+  <si>
+    <t>lihat segi mana pak lebih unggul prabowobentengnkri https t co ksmrfawt 0c lihatsegi segimana manapak paklebih lebihunggul unggulprabowobentengnkri prabowobentengnkrihttps httpst tco coksmrfawt ksmrfawt0c</t>
+  </si>
+  <si>
+    <t>dukung waktu fitnah kristen hebertus bila bila bila semua mereka tuduh malah di dukungwaktu waktufitnah fitnahkristen kristenhebertus hebertusbila bilabila bilabila bilasemua semuamereka merekatuduh tuduhmalah malahdi</t>
+  </si>
+  <si>
+    <t>dukung pak sukarela buat avatar dukung dukung pak dukungpak paksukarela sukarelabuat buatavatar avatardukung dukungdukung dukungpak</t>
+  </si>
+  <si>
+    <t>deklarasi maaruf amin menang yang singkat sebut jomang gagal laksana deklarasimaaruf maarufamin aminmenang menangyang yangsingkat singkatsebut sebutjomang jomanggagal gagallaksana</t>
+  </si>
+  <si>
+    <t>tenaga medis paham penting sehat jantung jantung pak tetap sehat tenagamedis medispaham pahampenting pentingsehat sehatjantung jantungjantung jantungpak paktetap tetapsehat</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 paling kasihan sama orang percaya jadi aparat debatpilpres2019 2019paling palingkasihan kasihansama samaorang orangpercaya percayajadi jadiaparat</t>
+  </si>
+  <si>
+    <t>jangan putus saudara biar rakyat tentu siapa baik bangsa - janganputus putussaudara saudarabiar biarrakyat rakyattentu tentusiapa siapabaik baikbangsa bangsa-</t>
+  </si>
+  <si>
+    <t>sih pak selalu bandingin kondisi tni jaman sukarno jelas dulu ancam militer tinggi sihpak pakselalu selalubandingin bandinginkondisi kondisitni tnijaman jamansukarno sukarnojelas jelasdulu duluancam ancammiliter militertinggi</t>
+  </si>
+  <si>
+    <t>baru telepon ibu maryani djoyohadikusumo kakak pak subianto memang kenal baik beliau barutelepon teleponibu ibumaryani maryanidjoyohadikusumo djoyohadikusumokakak kakakpak paksubianto subiantomemang memangkenal kenalbaik baikbeliau</t>
+  </si>
+  <si>
+    <t>jangan ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu kata janganketawa ketawakalian kalianketawa ketawatahan tahanindonesia indonesiarapuh rapuhkalian kalianketawa ketawalucu lucukok koklucu lucukata</t>
+  </si>
+  <si>
+    <t>habis sih telanjang debat mantap pak debatpilpres 2019 prabowobentengnkri habissih sihtelanjang telanjangdebat debatmantap mantappak pakdebatpilpres debatpilpres2019 2019prabowobentengnkri</t>
+  </si>
+  <si>
+    <t>hanya harap kelak negeri maju sama prabowo-sandi banyak bisa bantu pak hanyaharap harapkelak kelaknegeri negerimaju majusama samaprabowo-sandi prabowo-sandibanyak banyakbisa bisabantu bantupak</t>
+  </si>
+  <si>
+    <t>paling mantap debat malam prabowobentengnkri prabowomenangdebat palingmantap mantapdebat debatmalam malamprabowobentengnkri prabowobentengnkriprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>perintah kuat pimpin tegas pihak prabowo-sandi yakin wujud jadi harap perintahkuat kuatpimpin pimpintegas tegaspihak pihakprabowo-sandi prabowo-sandiyakin yakinwujud wujudjadi jadiharap</t>
+  </si>
+  <si>
+    <t>pak mungkin inspirasi netijen haus tikai makanya marah pakmungkin mungkininspirasi inspirasinetijen netijenhaus haustikai tikaimakanya makanyamarah</t>
+  </si>
+  <si>
+    <t>menang mbak sepenuh yakin pak menang menangmbak mbaksepenuh sepenuhyakin yakinpak pakmenang</t>
+  </si>
+  <si>
+    <t>moga pak selalu sehat amin debatasyikjokowi https t co lww 2w8bb30 mogapak pakselalu selalusehat sehatamin amindebatasyikjokowi debatasyikjokowihttps httpst tco colww lww2w8bb30</t>
+  </si>
+  <si>
+    <t>calon presiden nilai tak keluar narasi besar sendiri tak tampil istimewa calonpresiden presidennilai nilaitak takkeluar keluarnarasi narasibesar besarsendiri sendiritak taktampil tampilistimewa</t>
+  </si>
+  <si>
+    <t>paslon calon presiden 01 jokowi-kh ma ruf amin terima deklarasi dukung kelompok supporter sepak bola viking bandung pasloncalon calonpresiden presiden01 01jokowi-kh jokowi-khma maruf rufamin aminterima terimadeklarasi deklarasidukung dukungkelompok kelompoksupporter supportersepak sepakbola bolaviking vikingbandung</t>
+  </si>
+  <si>
+    <t>nah pas jokowidiambangkekalahan prabowobentengnkri prabowobentengnkri nahpas pasjokowidiambangkekalahan jokowidiambangkekalahanprabowobentengnkri prabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>beda kelas bapak true warrior ksatria sejati bedakelas kelasbapak bapaktrue truewarrior warriorksatria ksatriasejati</t>
+  </si>
+  <si>
+    <t>mantap pak malam kamu tunjuk sikap tegas nasionalis patriot sejati tolong jaga emosi mantappak pakmalam malamkamu kamutunjuk tunjuksikap sikaptegas tegasnasionalis nasionalispatriot patriotsejati sejatitolong tolongjaga jagaemosi</t>
+  </si>
+  <si>
+    <t>wowo kali ingat pak bapak hati para bisik bapak kena tahan wowokali kaliingat ingatpak pakbapak bapakhati hatipara parabisik bisikbapak bapakkena kenatahan</t>
+  </si>
+  <si>
+    <t>malam mantap prabowomenangdebat jokowidiambangkekalahan malammantap mantapprabowomenangdebat prabowomenangdebatjokowidiambangkekalahan</t>
+  </si>
+  <si>
+    <t>insyallah jatim solid dukung nahdliyinbukanjokower nahdliyindukung 02 sayanusayamilih 02 insyallahjatim jatimsolid soliddukung dukungnahdliyinbukanjokower nahdliyinbukanjokowernahdliyindukung nahdliyindukung02 02sayanusayamilih sayanusayamilih02</t>
+  </si>
+  <si>
+    <t>jangan bilang salah hanya mau bilang fakta saya pulang kampung begini kondisi infrastruktur janganbilang bilangsalah salahhanya hanyamau maubilang bilangfakta faktasaya sayapulang pulangkampung kampungbegini beginikondisi kondisiinfrastruktur</t>
+  </si>
+  <si>
+    <t>singkir kali akan gagal akan lantik jadi presiden republik indonesia ke - singkirkali kaliakan akangagal gagalakan akanlantik lantikjadi jadipresiden presidenrepublik republikindonesia indonesiake ke-</t>
+  </si>
+  <si>
+    <t>ngeri kalau lihat dukung beri viking amin jokowimengubahsemua 01jokowi3pdip kusukajokowiamin ngerikalau kalaulihat lihatdukung dukungberi beriviking vikingamin aminjokowimengubahsemua jokowimengubahsemua01jokowi3pdip 01jokowi3pdipkusukajokowiamin</t>
+  </si>
+  <si>
+    <t>kalau cuma pinter bahasa inggris usah cinta laura tukang becak dijogja banyak kalaucuma cumapinter pinterbahasa bahasainggris inggrisusah usahcinta cintalaura lauratukang tukangbecak becakdijogja dijogjabanyak</t>
+  </si>
+  <si>
+    <t>sedih pilpres buat orang orang jadi benci lebih sekaligus puja lebih sama sama babi buta sedihpilpres pilpresbuat buatorang orangorang orangjadi jadibenci bencilebih lebihsekaligus sekaliguspuja pujalebih lebihsama samasama samababi babibuta</t>
+  </si>
+  <si>
+    <t>deklarasi bobotoh dukung bobotohngahiji https t co ck2zv5jzvq deklarasibobotoh bobotohdukung dukungbobotohngahiji bobotohngahijihttps httpst tco cock2zv5jzvq</t>
+  </si>
+  <si>
+    <t>sandi cita cita indonesia adil makmur berdikari bidang ekonomi yuk terus gerak indonenesia sandicita citacita citaindonesia indonesiaadil adilmakmur makmurberdikari berdikaribidang bidangekonomi ekonomiyuk yukterus terusgerak gerakindonenesia</t>
+  </si>
+  <si>
+    <t>ambil sudut pandang pas ledak boom dilan 2014 cc prabowobentengnkri jokowidiambang ambilsudut sudutpandang pandangpas pasledak ledakboom boomdilan dilan2014 2014cc ccprabowobentengnkri prabowobentengnkrijokowidiambang</t>
+  </si>
+  <si>
+    <t>suka heran sama orang benci parah sama pak disakitin sakit apa sih https t co efc 7clo0mb sukaheran heransama samaorang orangbenci benciparah parahsama samapak pakdisakitin disakitinsakit sakitapa apasih sihhttps httpst tco coefc efc7clo0mb</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni lihatpak pakpercaya percayatni</t>
+  </si>
+  <si>
+    <t>lah malah ngulang omong lahmalah malahngulang ngulangomong</t>
+  </si>
+  <si>
+    <t>insyallah allah aroma menang buat pak bang sudah nampak jelas lihat tinggal kawal menang insyallahallah allaharoma aromamenang menangbuat buatpak pakbang bangsudah sudahnampak nampakjelas jelaslihat lihattinggal tinggalkawal kawalmenang</t>
+  </si>
+  <si>
+    <t>pak benar orang baik pilih jadi presiden yang kali pakbenar benarorang orangbaik baikpilih pilihjadi jadipresiden presidenyang yangkali</t>
+  </si>
+  <si>
+    <t>turut ini tampil pak paling lepas benar turutini initampil tampilpak pakpaling palinglepas lepasbenar</t>
+  </si>
+  <si>
+    <t>alas pilih prabowo menang debat april coblos sandi alaspilih pilihprabowo prabowomenang menangdebat debatapril aprilcoblos coblossandi</t>
+  </si>
+  <si>
+    <t>udah deh cor usah banyak omong viking bobotoh buat deklarasi dukung udahdeh dehcor corusah usahbanyak banyakomong omongviking vikingbobotoh bobotohbuat buatdeklarasi deklarasidukung</t>
+  </si>
+  <si>
+    <t>pak mantap jawab tenang jokowimengubahsemua nya jadi lebih baik maju jokowilagi pakmantap mantapjawab jawabtenang tenangjokowimengubahsemua jokowimengubahsemuanya nyajadi jadilebih lebihbaik baikmaju majujokowilagi</t>
+  </si>
+  <si>
+    <t>tuju pak presiden amin kalau lembaga perintah kuat korupsi jual beli jabat tujupak pakpresiden presidenamin aminkalau kalaulembaga lembagaperintah perintahkuat kuatkorupsi korupsijual jualbeli belijabat</t>
+  </si>
+  <si>
+    <t>pemerintahandilan tol langit rupa karya bangun bukti mampu dukung maju ekonomi digital pemerintahandilantol tollangit langitrupa rupakarya karyabangun bangunbukti buktimampu mampudukung dukungmaju majuekonomi ekonomidigital</t>
+  </si>
+  <si>
+    <t>bangga baris pak prabowobentengnkri banggabaris barispak pakprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>milenial love ya gaya milenial kena ott ahy partai demokrat demokrat dukung mileniallove loveya yagaya gayamilenial milenialkena kenaott ottahy ahypartai partaidemokrat demokratdemokrat demokratdukung</t>
+  </si>
+  <si>
+    <t>lebih tni banyak tni lebihtni tnibanyak banyaktni</t>
+  </si>
+  <si>
+    <t>sistem alat teknologi semua bagus layan publik inti perintah bersih korupsi sistemalat alatteknologi teknologisemua semuabagus baguslayan layanpublik publikinti intiperintah perintahbersih bersihkorupsi</t>
+  </si>
+  <si>
+    <t>isu khilafah hembus sutradara gempur patah ronde pertama katolik makin percaya isukhilafah khilafahhembus hembussutradara sutradaragempur gempurpatah patahronde rondepertama pertamakatolik katolikmakin makinpercaya</t>
+  </si>
+  <si>
+    <t>dil digital layan lebih baik guna teknologi lama pel deh pikir dildigital digitallayan layanlebih lebihbaik baikguna gunateknologi teknologilama lamapel peldeh dehpikir</t>
+  </si>
+  <si>
+    <t>clossing statement isyarat pisah bangga bapak segera gegas pulang serah kuasa clossingstatement statementisyarat isyaratpisah pisahbangga banggabapak bapaksegera segeragegas gegaspulang pulangserah serahkuasa</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni telak sekali bro tak kutik lihatpak pakpercaya percayatni tnitelak telaksekali sekalibro brotak takkutik</t>
+  </si>
+  <si>
+    <t>buat tonton ketawa saat bilang bukan salah bapak tidak tau salah siapa buattonton tontonketawa ketawasaat saatbilang bilangbukan bukansalah salahbapak bapaktidak tidaktau tausalah salahsiapa</t>
+  </si>
+  <si>
+    <t>siapa bicara cara umum soal ini jangan korupsi perintah bersih siapabicara bicaracara caraumum umumsoal soalini inijangan jangankorupsi korupsiperintah perintahbersih</t>
+  </si>
+  <si>
+    <t>indonesia negara duduk muslim besar dunia percaya selesai banyak yang besar indonesianegara negaraduduk dudukmuslim muslimbesar besardunia duniapercaya percayaselesai selesaibanyak banyakyang yangbesar</t>
+  </si>
+  <si>
+    <t>baru kali tenang banget prabowobentengnkri barukali kalitenang tenangbanget bangetprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>milenial cinta pemerintahandilan keren https t co gg7eokdtnw milenialcinta cintapemerintahandilan pemerintahandilankeren kerenhttps httpst tco cogg7eokdtnw</t>
+  </si>
+  <si>
+    <t>hormat bapak debat momen baik papar gagas rencana hadap benang kusut bangsa hormatbapak bapakdebat debatmomen momenbaik baikpapar papargagas gagasrencana rencanahadap hadapbenang benangkusut kusutbangsa</t>
+  </si>
+  <si>
+    <t>tuduh itu saya diam tidak jawab bohong banget prabowobentengnkri tuduhitu itusaya sayadiam diamtidak tidakjawab jawabbohong bohongbanget bangetprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>rendah dukung tahana rupa bukti bila cara tak langsung sedang hukum publik rendahdukung dukungtahana tahanarupa rupabukti buktibila bilacara caratak taklangsung langsungsedang sedanghukum hukumpublik</t>
+  </si>
+  <si>
+    <t>leceh tagar 02capresabadi lama 4 5 tahun juang ubah tidur cantik jangan sana lecehtagar tagar02capresabadi 02capresabadilama lama4 45 5tahun tahunjuang juangubah ubahtidur tidurcantik cantikjangan jangansana</t>
+  </si>
+  <si>
+    <t>tetap fokus doa allah maha kuasa menang indonesia satu tetapfokus fokusdoa doaallah allahmaha mahakuasa kuasamenang menangindonesia indonesiasatu</t>
+  </si>
+  <si>
+    <t>percaya tni pecatanlebihtnidaritni https t co qtfysc 93hd percayatni tnipecatanlebihtnidaritni pecatanlebihtnidaritnihttps httpst tco coqtfysc qtfysc93hd</t>
+  </si>
+  <si>
+    <t>depan negara cepat kalah negara lambat kata pak cepat super cepat lompat depan depannegara negaracepat cepatkalah kalahnegara negaralambat lambatkata katapak pakcepat cepatsuper supercepat cepatlompat lompatdepan</t>
+  </si>
+  <si>
+    <t>makin yakin rakyat ubah tunjuk kelas bagai orang memang paham soal bangsa depan makinyakin yakinrakyat rakyatubah ubahtunjuk tunjukkelas kelasbagai bagaiorang orangmemang memangpaham pahamsoal soalbangsa bangsadepan</t>
+  </si>
+  <si>
+    <t>lho kok ngeles pak tadi kata ada perang sekarang bilang kira kok pucat lhokok kokngeles ngelespak paktadi tadikata kataada adaperang perangsekarang sekarangbilang bilangkira kirakok kokpucat</t>
+  </si>
+  <si>
+    <t>repost jokowi amin pak hidup pancasila pimpin bisa beri contoh baik repostjokowi jokowiamin aminpak pakhidup hiduppancasila pancasilapimpin pimpinbisa bisaberi bericontoh contohbaik</t>
+  </si>
+  <si>
+    <t>telah debat calon presiden kpu setel lagu mesra jangan cepat lalu romantisasi sahabat telahdebat debatcalon calonpresiden presidenkpu kpusetel setellagu lagumesra mesrajangan jangancepat cepatlalu laluromantisasi romantisasisahabat</t>
+  </si>
+  <si>
+    <t>siap nonton debatpilpreskeempat tema debat malam untung p kuasa tema debat siapnonton nontondebatpilpreskeempat debatpilpreskeempattema temadebat debatmalam malamuntung untungp pkuasa kuasatema temadebat</t>
+  </si>
+  <si>
+    <t>hebat sekali dlm respon akhir debat pilpres tegas bagus indonesia kuat berdikari hebatsekali sekalidlm dlmrespon responakhir akhirdebat debatpilpres pilprestegas tegasbagus bagusindonesia indonesiakuat kuatberdikari</t>
+  </si>
+  <si>
+    <t>nyerocos pakai bahas inggris debatpilpres 2019 malam sontak hilang kosentrasi fokus nyerocospakai pakaibahas bahasinggris inggrisdebatpilpres debatpilpres2019 2019malam malamsontak sontakhilang hilangkosentrasi kosentrasifokus</t>
+  </si>
+  <si>
+    <t>dong selalu fokus masalah bicara perlu banyak kerja kepoinpemilu jokowimengubahsemua dongselalu selalufokus fokusmasalah masalahbicara bicaraperlu perlubanyak banyakkerja kerjakepoinpemilu kepoinpemilujokowimengubahsemua</t>
+  </si>
+  <si>
+    <t>prinsip perintah pak era revolusi 40 cepat tele simple pak yakin kata prinsipperintah perintahpak pakera erarevolusi revolusi40 40cepat cepattele telesimple simplepak pakyakin yakinkata</t>
+  </si>
+  <si>
+    <t>gigi sampai hilang sakit gara-gara lihat performa pak keren nendang jokowi gigisampai sampaihilang hilangsakit sakitgara-gara gara-garalihat lihatperforma performapak pakkeren kerennendang nendangjokowi</t>
+  </si>
+  <si>
+    <t>terimakasih pak malam sekali bapak bukti mereka juang rakyat terimakasihpak pakmalam malamsekali sekalibapak bapakbukti buktimereka merekajuang juangrakyat</t>
+  </si>
+  <si>
+    <t>dulur sebut apa buat optimis pak 01dilanjutkan kata tagar dulursebut sebutapa apabuat buatoptimis optimispak pak01dilanjutkan 01dilanjutkankata katatagar</t>
+  </si>
+  <si>
+    <t>pak bagaimana bilang orang asing indonesia punya potensial besar bukan nya bersukur di doa sama pakbagaimana bagaimanabilang bilangorang orangasing asingindonesia indonesiapunya punyapotensial potensialbesar besarbukan bukannya nyabersukur bersukurdi didoa doasama</t>
+  </si>
+  <si>
+    <t>acu adalah mertua bukti keluarga mertua di baris yang mau mundur masa lalu acuadalah adalahmertua mertuabukti buktikeluarga keluargamertua mertuadi dibaris barisyang yangmau maumundur mundurmasa masalalu</t>
+  </si>
+  <si>
+    <t>baru kali mau fitnah labil kadang bilang sholat bukan islam pernah jumat barukali kalimau maufitnah fitnahlabil labilkadang kadangbilang bilangsholat sholatbukan bukanislam islampernah pernahjumat</t>
+  </si>
+  <si>
+    <t>juga pak hendro pak luhut coba lihat dukung sandi biar mikirin khilafah terus jugapak pakhendro hendropak pakluhut luhutcoba cobalihat lihatdukung dukungsandi sandibiar biarmikirin mikirinkhilafah khilafahterus</t>
+  </si>
+  <si>
+    <t>https t co gfse 1zynfq siap indonesia hadap industri 4 0 makin siap pakde tau cara httpst tco cogfse gfse1zynfq 1zynfqsiap siapindonesia indonesiahadap hadapindustri industri4 40 0makin makinsiap siappakde pakdetau taucara</t>
+  </si>
+  <si>
+    <t>debat hari konfirmasi menang terima kasih mas tampil mas bowo hari ruarbiasa debathari harikonfirmasi konfirmasimenang menangterima terimakasih kasihmas mastampil tampilmas masbowo bowohari hariruarbiasa</t>
+  </si>
+  <si>
+    <t>kadang bingung sih dukung sama antem substansi saling jatuh kadangbingung bingungsih sihdukung dukungsama samaantem antemsubstansi substansisaling salingjatuh</t>
+  </si>
+  <si>
+    <t>itu nyata raut wajah tampak lelah pucat pasrah akhir sadar ucap salam pisah itunyata nyataraut rautwajah wajahtampak tampaklelah lelahpucat pucatpasrah pasrahakhir akhirsadar sadarucap ucapsalam salampisah</t>
+  </si>
+  <si>
+    <t>orang dungu beri label kubu kubu dukung khilafah lain waktu membully orangdungu dunguberi berilabel labelkubu kubukubu kubudukung dukungkhilafah khilafahlain lainwaktu waktumembully</t>
+  </si>
+  <si>
+    <t>pak masalah nasional bisa selesai cara emosional maaf sekadar ingat pakmasalah masalahnasional nasionalbisa bisaselesai selesaicara caraemosional emosionalmaaf maafsekadar sekadaringat</t>
+  </si>
+  <si>
+    <t>bagai tni wakaf jiwa raga bela negara walo mati medan laga bagaitni tniwakaf wakafjiwa jiwaraga ragabela belanegara negarawalo walomati matimedan medanlaga</t>
+  </si>
+  <si>
+    <t>pakde beri fasilitas lalu bangun gedung inkubasi para laku usaha rintis startup pakdeberi berifasilitas fasilitaslalu lalubangun bangungedung gedunginkubasi inkubasipara paralaku lakuusaha usaharintis rintisstartup</t>
+  </si>
+  <si>
+    <t>malam hebat miss makin yakin indonesia menang prabowobentengnkri malamhebat hebatmiss missmakin makinyakin yakinindonesia indonesiamenang menangprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>cetar bahana porak poranda tahana buat suka gaya lho jenderal prabowobentengnkri cetarbahana bahanaporak porakporanda porandatahana tahanabuat buatsuka sukagaya gayalho lhojenderal jenderalprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>mbak jaga stamina istirahat pas mbakjaga jagastamina staminaistirahat istirahatpas</t>
+  </si>
+  <si>
+    <t>terima kasih bapak atas tampil luar biasa malam saya keluarga histeria doa bapak menang terimakasih kasihbapak bapakatas atastampil tampilluar luarbiasa biasamalam malamsaya sayakeluarga keluargahisteria histeriadoa doabapak bapakmenang</t>
+  </si>
+  <si>
+    <t>jadi benar sepakat semua usul program pak tuju silah lanjut periode jadibenar benarsepakat sepakatsemua semuausul usulprogram programpak paktuju tujusilah silahlanjut lanjutperiode</t>
+  </si>
+  <si>
+    <t>sekarang begini untuk uji nyali berani nyata libas juang hizbut tahrir sekarangbegini beginiuntuk untukuji ujinyali nyaliberani beraninyata nyatalibas libasjuang juanghizbut hizbuttahrir</t>
+  </si>
+  <si>
+    <t>eh tunggu jual beli jabat angkat pak menteri sumber internal perintah sekarang ehtunggu tunggujual jualbeli belijabat jabatangkat angkatpak pakmenteri menterisumber sumberinternal internalperintah perintahsekarang</t>
+  </si>
+  <si>
+    <t>jokowi muka merah saya lawan - jokowidiambangkekalahan jokowidiambangkekalahan jokowimuka mukamerah merahsaya sayalawan lawan- -jokowidiambangkekalahan jokowidiambangkekalahanjokowidiambangkekalahan</t>
+  </si>
+  <si>
+    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co nugbqspxbc perintahyng yngsigap sigaplayan layanrakyat rakyatbagus baguspak pakpemerintahandilan pemerintahandilanhttps httpst tco conugbqspxbc</t>
+  </si>
+  <si>
+    <t>colokin nih jenderal pecat militer indonesia lebih kuat israel australia - the global firepower colokinnih nihjenderal jenderalpecat pecatmiliter militerindonesia indonesialebih lebihkuat kuatisrael israelaustralia australia- -the theglobal globalfirepower</t>
+  </si>
+  <si>
+    <t>istimewa sangat istimewa closing statement pak betul tunjuk beliau memang orang negarawan istimewasangat sangatistimewa istimewaclosing closingstatement statementpak pakbetul betultunjuk tunjukbeliau beliaumemang memangorang orangnegarawan</t>
+  </si>
+  <si>
+    <t>tau betul ibu dukung kang dukung bukan ganti pancasila taubetul betulibu ibudukung dukungkang kangdukung dukungbukan bukanganti gantipancasila</t>
+  </si>
+  <si>
+    <t>milik gagas cerdas beliau rela mati indonesia benar prabowobentengnkri milikgagas gagascerdas cerdasbeliau beliaurela relamati matiindonesia indonesiabenar benarprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>era jaman sekarang teknologi sangat penting pak bangga unicorn indonesia erajaman jamansekarang sekarangteknologi teknologisangat sangatpenting pentingpak pakbangga banggaunicorn unicornindonesia</t>
+  </si>
+  <si>
+    <t>pas bilang pernah militer pak cuma senyum pecat koq bangga sih wowo tuh punya malu pasbilang bilangpernah pernahmiliter militerpak pakcuma cumasenyum senyumpecat pecatkoq koqbangga banggasih sihwowo wowotuh tuhpunya punyamalu</t>
+  </si>
+  <si>
+    <t>subianto figur hebat panglima tinggi ri seluruh komponen bangsa dukung kamu subiantofigur figurhebat hebatpanglima panglimatinggi tinggiri riseluruh seluruhkomponen komponenbangsa bangsadukung dukungkamu</t>
+  </si>
+  <si>
+    <t>apik kami pesan kami ke akar rumput semua ni sisih kan uang belanja ubah apikkami kamipesan pesankami kamike keakar akarrumput rumputsemua semuani nisisih sisihkan kanuang uangbelanja belanjaubah</t>
+  </si>
+  <si>
+    <t>malam pak luar biasa menangjokowilagi malampak pakluar luarbiasa biasamenangjokowilagi</t>
+  </si>
+  <si>
+    <t>tadbir nan pantas layan rakyat bagus bandela pemerintahandilan https t co gkgy 6lrpko tadbirnan nanpantas pantaslayan layanrakyat rakyatbagus bagusbandela bandelapemerintahandilan pemerintahandilanhttps httpst tco cogkgy gkgy6lrpko</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 pancasila ideologi final pancasila ideologi final debatpilpres2019 2019pancasila pancasilaideologi ideologifinal finalpancasila pancasilaideologi ideologifinal</t>
+  </si>
+  <si>
+    <t>apa pake teknologi lama ajar ilmu perang ribu tahun hahaha gin kali kalau ikut pilpres mulu apapake paketeknologi teknologilama lamaajar ajarilmu ilmuperang perangribu ributahun tahunhahaha hahahagin ginkali kalikalau kalauikut ikutpilpres pilpresmulu</t>
+  </si>
+  <si>
+    <t>jangan biar pak juang sendiri ayo satu suara satu pilih april coblos baju putih janganbiar biarpak pakjuang juangsendiri sendiriayo ayosatu satusuara suarasatu satupilih pilihapril aprilcoblos coblosbaju bajuputih</t>
+  </si>
+  <si>
+    <t>sedih khawatir diri prabowobentengnkri prabowobentengnkri https t co xoemzw 201d sedihkhawatir khawatirdiri diriprabowobentengnkri prabowobentengnkriprabowobentengnkri prabowobentengnkrihttps httpst tco coxoemzw xoemzw201d</t>
+  </si>
+  <si>
+    <t>tampil paling hebat lama prabowomenangdebat prabowobentengnkri tampilpaling palinghebat hebatlama lamaprabowomenangdebat prabowomenangdebatprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>apresiasi saudara di papua pakde jadi percuma kalian tebar bohong papua derita apresiasisaudara saudaradi dipapua papuapakde pakdejadi jadipercuma percumakalian kaliantebar tebarbohong bohongpapua papuaderita</t>
+  </si>
+  <si>
+    <t>pak yusril tegas pbb dukung insyallah allah siap kawal pancasila tidak ganti pakyusril yusriltegas tegaspbb pbbdukung dukunginsyallah insyallahallah allahsiap siapkawal kawalpancasila pancasilatidak tidakganti</t>
+  </si>
+  <si>
+    <t>ehem kecewa nyenyak tidur insyallah yakin presiden aamiin prabowobentengnkri ehemkecewa kecewanyenyak nyenyaktidur tidurinsyallah insyallahyakin yakinpresiden presidenaamiin aamiinprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>kawan semua kita dukung pemerintahandilan lanjut era untuk pimpin indonesia makin baik kawansemua semuakita kitadukung dukungpemerintahandilan pemerintahandilanlanjut lanjutera erauntuk untukpimpin pimpinindonesia indonesiamakin makinbaik</t>
+  </si>
+  <si>
+    <t>rezim halal segala cara untuk kuasa tak duli meski bangsa hancur porak poranda rezimhalal halalsegala segalacara carauntuk untukkuasa kuasatak takduli dulimeski meskibangsa bangsahancur hancurporak porakporanda</t>
+  </si>
+  <si>
+    <t>satu yakin tni satu pesimis jadi pemerintahandilan lanjut indonesia maju satuyakin yakintni tnisatu satupesimis pesimisjadi jadipemerintahandilan pemerintahandilanlanjut lanjutindonesia indonesiamaju</t>
+  </si>
+  <si>
+    <t>https t co m1u7nlbagq insyallah pak bang menang tanggal april amin httpst tco com1u7nlbagq m1u7nlbagqinsyallah insyallahpak pakbang bangmenang menangtanggal tanggalapril aprilamin</t>
+  </si>
+  <si>
+    <t>semangat salam kompak all tnt-pepes semua dukung juang sama pak tuju indonesia jaya semangatsalam salamkompak kompakall alltnt-pepes tnt-pepessemua semuadukung dukungjuang juangsama samapak paktuju tujuindonesia indonesiajaya</t>
+  </si>
+  <si>
+    <t>kapabilitas dlm istirahat down materi debat jelas tanggap trengginas gilas kapabilitasdlm dlmistirahat istirahatdown downmateri materidebat debatjelas jelastanggap tanggaptrengginas trengginasgilas</t>
+  </si>
+  <si>
+    <t>pilpres kali kurang seru hanya sebar ilusi takut jargon jatuh visi misi program lebih baik pilpreskali kalikurang kurangseru seruhanya hanyasebar sebarilusi ilusitakut takutjargon jargonjatuh jatuhvisi visimisi misiprogram programlebih lebihbaik</t>
+  </si>
+  <si>
+    <t>tadbir nan pantas layan rakyat bagus bandela pemerintahandilan https t co dmjpr 2uqyg tadbirnan nanpantas pantaslayan layanrakyat rakyatbagus bagusbandela bandelapemerintahandilan pemerintahandilanhttps httpst tco codmjpr dmjpr2uqyg</t>
+  </si>
+  <si>
+    <t>paranoid perang mulu sama asing padahal dikhawatirin benar justru perang sodara paranoidperang perangmulu mulusama samaasing asingpadahal padahaldikhawatirin dikhawatirinbenar benarjustru justruperang perangsodara</t>
+  </si>
+  <si>
+    <t>duh sumpah merinding dengar pidato mas ini negarawan sejati selalu usaha abdi duhsumpah sumpahmerinding merindingdengar dengarpidato pidatomas masini ininegarawan negarawansejati sejatiselalu selaluusaha usahaabdi</t>
+  </si>
+  <si>
+    <t>dear pak taun bapak jabat akan awas kritisi omel bapak coblos temiik dearpak paktaun taunbapak bapakjabat jabatakan akanawas awaskritisi kritisiomel omelbapak bapakcoblos coblostemiik</t>
+  </si>
+  <si>
+    <t>01caprespendustaabadi bayang pun kecoh dusta 01caprespendustaabadibayang bayangpun punkecoh kecohdusta</t>
+  </si>
+  <si>
+    <t>enak dukung ajak pak tatap masa depan optimis hadap dinamika era iot kalau ajak balik masa lalu enakdukung dukungajak ajakpak paktatap tatapmasa masadepan depanoptimis optimishadap hadapdinamika dinamikaera eraiot iotkalau kalauajak ajakbalik balikmasa masalalu</t>
+  </si>
+  <si>
+    <t>pak jangan sampe korban nyawa ibu pertiwi kita pakjangan jangansampe sampekorban korbannyawa nyawaibu ibupertiwi pertiwikita</t>
+  </si>
+  <si>
+    <t>mas tegas lawan siapa ingin rubah ideologi pancasila dengerin tuh bong mastegas tegaslawan lawansiapa siapaingin inginrubah rubahideologi ideologipancasila pancasiladengerin dengerintuh tuhbong</t>
+  </si>
+  <si>
+    <t>memang sekarang jaman digital bro perintah pemerintahandilan dong keren digital layan memangsekarang sekarangjaman jamandigital digitalbro broperintah perintahpemerintahandilan pemerintahandilandong dongkeren kerendigital digitallayan</t>
+  </si>
+  <si>
+    <t>kerja perintah jelas unggul 01dilanjutkan https t co yjves 25euq kerjaperintah perintahjelas jelasunggul unggul01dilanjutkan 01dilanjutkanhttps httpst tco coyjves yjves25euq</t>
+  </si>
+  <si>
+    <t>mantap pak tegas cerdazzz mantappak paktegas tegascerdazzz</t>
+  </si>
+  <si>
+    <t>saya bisa hadir sama ibu bahagia banget acara bapak bal luarbiasa sayabisa bisahadir hadirsama samaibu ibubahagia bahagiabanget bangetacara acarabapak bapakbal balluarbiasa</t>
+  </si>
+  <si>
+    <t>closing statement pak gambar demokrasi yang sungguh closingstatement statementpak pakgambar gambardemokrasi demokrasiyang yangsungguh</t>
+  </si>
+  <si>
+    <t>benar bangsa jadi bangsa kuat segani bukan besar sanjung benarbangsa bangsajadi jadibangsa bangsakuat kuatsegani seganibukan bukanbesar besarsanjung</t>
+  </si>
+  <si>
+    <t>lihat udah cukup percaya diri sama base konservatif religius makanya berani kenal narasi lihatudah udahcukup cukuppercaya percayadiri dirisama samabase basekonservatif konservatifreligius religiusmakanya makanyaberani beranikenal kenalnarasi</t>
+  </si>
+  <si>
+    <t>malam bapak jadi serang tangguh bagus pak buat tahana ngelap keringat mulu malambapak bapakjadi jadiserang serangtangguh tangguhbagus baguspak pakbuat buattahana tahanangelap ngelapkeringat keringatmulu</t>
+  </si>
+  <si>
+    <t>sobat sekali milu ajang gembira dlm beda aja pak kena baju putih tps sobatsekali sekalimilu miluajang ajanggembira gembiradlm dlmbeda bedaaja ajapak pakkena kenabaju bajuputih putihtps</t>
+  </si>
+  <si>
+    <t>sama presiden perintah indonesia konsisten bela negara palestina bagai warga dunia 01dilanjutkan samapresiden presidenperintah perintahindonesia indonesiakonsisten konsistenbela belanegara negarapalestina palestinabagai bagaiwarga wargadunia dunia01dilanjutkan</t>
+  </si>
+  <si>
+    <t>dapat lembaga perintah kuat dapatlembaga lembagaperintah perintahkuat</t>
+  </si>
+  <si>
+    <t>sepakat sama om trik basi minggu kelar jadi mau periode sepakatsama samaom omtrik trikbasi basiminggu minggukelar kelarjadi jadimau mauperiode</t>
+  </si>
+  <si>
+    <t>hal perintah bukan teori soal bagaimana jalan perintah baik halperintah perintahbukan bukanteori teorisoal soalbagaimana bagaimanajalan jalanperintah perintahbaik</t>
+  </si>
+  <si>
+    <t>lho cak bisa mbentengi nkri sangat paham betul sistem tahan negara lhocak cakbisa bisambentengi mbentenginkri nkrisangat sangatpaham pahambetul betulsistem sistemtahan tahannegara</t>
+  </si>
+  <si>
+    <t>rizal ramli pak mau revisi hehe kubu jokowi ada tanggpan rr sebut hehe seram rizalramli ramlipak pakmau maurevisi revisihehe hehekubu kubujokowi jokowiada adatanggpan tanggpanrr rrsebut sebuthehe heheseram</t>
+  </si>
+  <si>
+    <t>memang sosok pimpin teladan bangga 01dilanjutkan memangsosok sosokpimpin pimpinteladan teladanbangga bangga01dilanjutkan</t>
+  </si>
+  <si>
+    <t>pak debat kemaren kasih amunisi kayak debat saya paling suka cara bapak debat pakdebat debatkemaren kemarenkasih kasihamunisi amunisikayak kayakdebat debatsaya sayapaling palingsuka sukacara carabapak bapakdebat</t>
+  </si>
+  <si>
+    <t>pak pribadi sederhana senang semua kalang menangjokowilagi pakpribadi pribadisederhana sederhanasenang senangsemua semuakalang kalangmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>untung pilpres pak menang makanya bangun tol proyek tol perdana aceh rumah khusus masyarakat untungpilpres pilprespak pakmenang menangmakanya makanyabangun banguntol tolproyek proyektol tolperdana perdanaaceh acehrumah rumahkhusus khususmasyarakat</t>
+  </si>
+  <si>
+    <t>perintah mau keluar paris tuju kata mikirin masa depan indonesia mau keluar pakta perintahmau maukeluar keluarparis paristuju tujukata katamikirin mikirinmasa masadepan depanindonesia indonesiamau maukeluar keluarpakta</t>
+  </si>
+  <si>
+    <t>pak bijak sikap hasil survei nyata menang tebal menangjokowilagi pakbijak bijaksikap sikaphasil hasilsurvei surveinyata nyatamenang menangtebal tebalmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>kamu lihat jujur pak indonesia beliau segan tegur siapa tertawa indonesia kamulihat lihatjujur jujurpak pakindonesia indonesiabeliau beliausegan segantegur tegursiapa siapatertawa tertawaindonesia</t>
+  </si>
+  <si>
+    <t>adalah agum gumelar dengan lantang wajah bicara jelek hadap sby adalahagum agumgumelar gumelardengan denganlantang lantangwajah wajahbicara bicarajelek jelekhadap hadapsby</t>
+  </si>
+  <si>
+    <t>kaya rakyat indonesia sedot luar negeri kaya sendiri numpuk di luar negeri hehe - kayarakyat rakyatindonesia indonesiasedot sedotluar luarnegeri negerikaya kayasendiri sendirinumpuk numpukdi diluar luarnegeri negerihehe hehe-</t>
+  </si>
+  <si>
+    <t>kalau pak jadi presiden hidup mau ketawa jangan dimarahin kalaupak pakjadi jadipresiden presidenhidup hidupmau mauketawa ketawajangan jangandimarahin</t>
+  </si>
+  <si>
+    <t>kalau kalian mau jadi kaum asal bapak senang jokowi kuasa hak kalian saya suka tampil malam kalaukalian kalianmau maujadi jadikaum kaumasal asalbapak bapaksenang senangjokowi jokowikuasa kuasahak hakkalian kaliansaya sayasuka sukatampil tampilmalam</t>
+  </si>
+  <si>
+    <t>lebih tni tni jangan kamu maling muka manusia sombong lebihtni tnitni tnijangan jangankamu kamumaling malingmuka mukamanusia manusiasombong</t>
+  </si>
+  <si>
+    <t>bongkar data uang orang kaya indonesia swiss ada korupsi simpan uang sana bongkardata datauang uangorang orangkaya kayaindonesia indonesiaswiss swissada adakorupsi korupsisimpan simpanuang uangsana</t>
+  </si>
+  <si>
+    <t>sumpah debat pilpres x pak benar cadas keren prabowobentengnkri sumpahdebat debatpilpres pilpresx xpak pakbenar benarcadas cadaskeren kerenprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>pak kata tahan lemah kompak tertawa kira 2 alas apa pakkata katatahan tahanlemah lemahkompak kompaktertawa tertawakira kira2 2alas alasapa</t>
+  </si>
+  <si>
+    <t>tertawa tertawa larang pemerintahandilan 01dilanjutkan debatkeempatpilpres 2019 tertawatertawa tertawalarang larangpemerintahandilan pemerintahandilan01dilanjutkan 01dilanjutkandebatkeempatpilpres debatkeempatpilpres2019</t>
+  </si>
+  <si>
+    <t>kamu bukan tni kamu pecat sandang gelar purnawirawan kamubukan bukantni tnikamu kamupecat pecatsandang sandanggelar gelarpurnawirawan</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 malam telah balik dia jadi sosok luar biasa efek kejut debatpilpres2019 2019malam malamtelah telahbalik balikdia diajadi jadisosok sosokluar luarbiasa biasaefek efekkejut</t>
+  </si>
+  <si>
+    <t>anak bangsa perlu bapak tegas bisa bangun karakter disiplin lihat debat bapak anakbangsa bangsaperlu perlubapak bapaktegas tegasbisa bisabangun bangunkarakter karakterdisiplin disiplinlihat lihatdebat debatbapak</t>
+  </si>
+  <si>
+    <t>turut konflik sosial libat muslim rohingya rakhine konflik sudah sangat lama sulit turutkonflik konfliksosial sosiallibat libatmuslim muslimrohingya rohingyarakhine rakhinekonflik konfliksudah sudahsangat sangatlama lamasulit</t>
+  </si>
+  <si>
+    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut marah debatpilpres 2019 duluken kenketawa ketawatakut takutdosa dosasekarang sekarangken kenketawa ketawatakut takutmarah marahdebatpilpres debatpilpres2019</t>
+  </si>
+  <si>
+    <t>pak beri harap optimisme 01dilanjutkan https t co rxwogeijvs pakberi beriharap harapoptimisme optimisme01dilanjutkan 01dilanjutkanhttps httpst tco corxwogeijvs</t>
+  </si>
+  <si>
+    <t>pak bilang pancasila final kalau mungkin beliau larang bendera larang hti kampanye pakbilang bilangpancasila pancasilafinal finalkalau kalaumungkin mungkinbeliau beliaularang larangbendera benderalarang laranghti htikampanye</t>
+  </si>
+  <si>
+    <t>hahaha habis peluru ni si buat cerita pak marah segala lah hahahahabis habispeluru peluruni nisi sibuat buatcerita ceritapak pakmarah marahsegala segalalah</t>
+  </si>
+  <si>
+    <t>malam minggu adalah malam baik kita saksi pak sangat elegan malamminggu mingguadalah adalahmalam malambaik baikkita kitasaksi saksipak paksangat sangatelegan</t>
+  </si>
+  <si>
+    <t>bong optimis unggul debat yang usung tema ideologi aman tahan bongoptimis optimisunggul ungguldebat debatyang yangusung usungtema temaideologi ideologiaman amantahan</t>
+  </si>
+  <si>
+    <t>pak kalau ngeritik punya gagas tanding lebih baik jelas ketidakpastian pakkalau kalaungeritik ngeritikpunya punyagagas gagastanding tandinglebih lebihbaik baikjelas jelasketidakpastian</t>
+  </si>
+  <si>
+    <t>takar kadar pancasila harga mati calon presiden sini pak calon presiden pecat tni kok pernah bilang dukung takarkadar kadarpancasila pancasilaharga hargamati maticalon calonpresiden presidensini sinipak pakcalon calonpresiden presidenpecat pecattni tnikok kokpernah pernahbilang bilangdukung</t>
+  </si>
+  <si>
+    <t>senyum optimis pak dhe sukses lancar debat malam ya pak tuhan kati senyumoptimis optimispak pakdhe dhesukses sukseslancar lancardebat debatmalam malamya yapak paktuhan tuhankati</t>
+  </si>
+  <si>
+    <t>kalau tidak nonton debat pak menang jadi tidur alhamdulillah nyata pakde hajar kalautidak tidaknonton nontondebat debatpak pakmenang menangjadi jaditidur tiduralhamdulillah alhamdulillahnyata nyatapakde pakdehajar</t>
+  </si>
+  <si>
+    <t>raja hutang satu 2nya calon presiden beban hutang nila rp 7 6 triliun apa rajahutang hutangsatu satu2nya 2nyacalon calonpresiden presidenbeban bebanhutang hutangnila nilarp rp7 76 6triliun triliunapa</t>
+  </si>
+  <si>
+    <t>tak sisa sedikit celah buat lawan argumentasi memang tidak paham prabowobentengnkri taksisa sisasedikit sedikitcelah celahbuat buatlawan lawanargumentasi argumentasimemang memangtidak tidakpaham pahamprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>fix bagai orang purbalingga banyumasan dukung pak fixbagai bagaiorang orangpurbalingga purbalinggabanyumasan banyumasandukung dukungpak</t>
+  </si>
+  <si>
+    <t>kuat apa kurang insyallah alah teyap gagal prabowobentengnkri kuatapa apakurang kuranginsyallah insyallahalah alahteyap teyapgagal gagalprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>sampe bingung banyak kutip luar biasa tohok banget sampebingung bingungbanyak banyakkutip kutipluar luarbiasa biasatohok tohokbanget</t>
+  </si>
+  <si>
+    <t>siapa pilih rakyat akan tunduk patuh - karawang maret https t co h7ihhwk8sr siapapilih pilihrakyat rakyatakan akantunduk tundukpatuh patuh- -karawang karawangmaret marethttps httpst tco coh7ihhwk8sr</t>
+  </si>
+  <si>
+    <t>pak lebih tni tni bapak jangan inferior begini dong kata negara tak hormat paklebih lebihtni tnitni tnibapak bapakjangan janganinferior inferiorbegini beginidong dongkata katanegara negaratak takhormat</t>
+  </si>
+  <si>
+    <t>pecaaahh banget mashaallah sama wujud indonesia adil makmur pecaaahhbanget bangetmashaallah mashaallahsama samawujud wujudindonesia indonesiaadil adilmakmur</t>
+  </si>
+  <si>
+    <t>pikir kalau benar serang armada perang ada sekarang bukan ketawa malah nang darah pikirkalau kalaubenar benarserang serangarmada armadaperang perangada adasekarang sekarangbukan bukanketawa ketawamalah malahnang nangdarah</t>
+  </si>
+  <si>
+    <t>terima kasih rakyat jambi insyallah allah akan jumpa di masa lebih baik merdeka https t co ms7crkhozf terimakasih kasihrakyat rakyatjambi jambiinsyallah insyallahallah allahakan akanjumpa jumpadi dimasa masalebih lebihbaik baikmerdeka merdekahttps httpst tco coms7crkhozf</t>
+  </si>
+  <si>
+    <t>ibu fatimah kalla adik pak jusuf kalla dukung sandi jokowi silah ngaciro ibufatimah fatimahkalla kallaadik adikpak pakjusuf jusufkalla kalladukung dukungsandi sandijokowi jokowisilah silahngaciro</t>
+  </si>
+  <si>
+    <t>pantai panjang bengkulu bumi raflesia terima kasih jaga tps kalian masing-masing jangan demokrasi akal pantaipanjang panjangbengkulu bengkulubumi bumiraflesia raflesiaterima terimakasih kasihjaga jagatps tpskalian kalianmasing-masing masing-masingjangan jangandemokrasi demokrasiakal</t>
+  </si>
+  <si>
+    <t>marah si jayen sok tahu sebut indonesia ratus suku bangsa marahsi sijayen jayensok soktahu tahusebut sebutindonesia indonesiaratus ratussuku sukubangsa</t>
+  </si>
+  <si>
+    <t>kok malah bangga songong betul sih om eee panjoel genderuwo kokmalah malahbangga banggasongong songongbetul betulsih sihom omeee eeepanjoel panjoelgenderuwo</t>
+  </si>
+  <si>
+    <t>duh jadi melow gitu akhir mas tak laku closing statement lebih prabowobentengnkri duhjadi jadimelow melowgitu gituakhir akhirmas mastak taklaku lakuclosing closingstatement statementlebih lebihprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>agak fatal ketika sampai klaim orang banyumas sebut keras salah banget agakfatal fatalketika ketikasampai sampaiklaim klaimorang orangbanyumas banyumassebut sebutkeras kerassalah salahbanget</t>
+  </si>
+  <si>
+    <t>innalillaahi wa innailaihiraaji un keluarga besar turut duka cita innalillaahiwa wainnailaihiraaji innailaihiraajiun unkeluarga keluargabesar besarturut turutduka dukacita bela sungkawa belasungkawa</t>
+  </si>
+  <si>
+    <t>kata tni milik budaya asal bapak senang asal bapak senang ini efek pernah pecat tni katatni tnimilik milikbudaya budayaasal asalbapak bapaksenang senangasal asalbapak bapaksenang senangini iniefek efekpernah pernahpecat pecattni</t>
+  </si>
+  <si>
+    <t>pak tenang banget hari paktenang tenangbanget bangethari</t>
+  </si>
+  <si>
+    <t>terus kok si pecat omong doang ejek hina tni rapuh teruskok koksi sipecat pecatomong omongdoang doangejek ejekhina hinatni tnirapuh</t>
+  </si>
+  <si>
+    <t>salawi masuk neraka neraka panas mana jangan mana infrastruktur langit kalian janji salawimasuk masukneraka nerakaneraka nerakapanas panasmana manajangan janganmana manainfrastruktur infrastrukturlangit langitkalian kalianjanji</t>
+  </si>
+  <si>
+    <t>catat pak sudah laku delapan bohong besar tahun beberapa bohong lai catatpak paksudah sudahlaku lakudelapan delapanbohong bohongbesar besartahun tahunbeberapa beberapabohong bohonglai</t>
+  </si>
+  <si>
+    <t>arus ubah tak bendung era tiba prabowobentengnkri arusubah ubahtak takbendung bendungera eratiba tibaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>beri kesan bagai orang orator cara essensi banyak terlalu subjektif berikesan kesanbagai bagaiorang orangorator oratorcara caraessensi essensibanyak banyakterlalu terlalusubjektif</t>
+  </si>
+  <si>
+    <t>rindu cinta sayang mari menang beliau jemput pulang rinducinta cintasayang sayangmari marimenang menangbeliau beliaujemput jemputpulang</t>
+  </si>
+  <si>
+    <t>lihat kalian fitnah anti islam mesjid at-taqarrub luluh lantak gempa aceh lalu lihatkalian kalianfitnah fitnahanti antiislam islammesjid mesjidat-taqarrub at-taqarrubluluh luluhlantak lantakgempa gempaaceh acehlalu</t>
+  </si>
+  <si>
+    <t>lho kok aneh sini menang tidak punya partai bukan buzzer pampang nyata lhokok kokaneh anehsini sinimenang menangtidak tidakpunya punyapartai partaibukan bukanbuzzer buzzerpampang pampangnyata</t>
+  </si>
+  <si>
+    <t>ibu ibu lawan biar larang kampanye mall penting menang prabowodansandipilihanrakyat ibuibu ibulawan lawanbiar biarlarang larangkampanye kampanyemall mallpenting pentingmenang menangprabowodansandipilihanrakyat</t>
+  </si>
+  <si>
+    <t>yes akhir bilang turut pribadi yang jahat orang belakang pak yesakhir akhirbilang bilangturut turutpribadi pribadiyang yangjahat jahatorang orangbelakang belakangpak</t>
+  </si>
+  <si>
+    <t>arti jokowidiambangkekalahan lihat lebih banyak tunduk tolah toleh bingung artijokowidiambangkekalahan jokowidiambangkekalahanlihat lihatlebih lebihbanyak banyaktunduk tunduktolah tolahtoleh tolehbingung</t>
+  </si>
+  <si>
+    <t>sebut budaya asal bapak senang asal bapak senang kental kalang tni sebutbudaya budayaasal asalbapak bapaksenang senangasal asalbapak bapaksenang senangkental kentalkalang kalangtni</t>
+  </si>
+  <si>
+    <t>terima kasih jenderal ku malam kamu beri harap rakyat yakin pilih tepat terimakasih kasihjenderal jenderalku kumalam malamkamu kamuberi beriharap haraprakyat rakyatyakin yakinpilih pilihtepat</t>
+  </si>
+  <si>
+    <t>dasar tukang bohong kapan henti bohong pak kpk diri tahun ngawur kamu jokowi dasartukang tukangbohong bohongkapan kapanhenti hentibohong bohongpak pakkpk kpkdiri diritahun tahunngawur ngawurkamu kamujokowi</t>
+  </si>
+  <si>
+    <t>sejahtera tni lama tahun perintah gaji tni pernah naik sejahtera tni jangan kurang sejahteratni tnilama lamatahun tahunperintah perintahgaji gajitni tnipernah pernahnaik naiksejahtera sejahteratni tnijangan jangankurang</t>
+  </si>
+  <si>
+    <t>catat tanggal siap diri putih gbk sama sabtu april asjb barengjokowi asjb putihkangbk catattanggal tanggalsiap siapdiri diriputih putihgbk gbksama samasabtu sabtuapril aprilasjb asjbbarengjokowi barengjokowiasjb asjbputihkangbk</t>
+  </si>
+  <si>
+    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin - kayasuatu suatubangsa bangsakalau kalaujaga jagasuatu suatukuat kuattahan tahankuat kuattidak tidakmungkin mungkin-</t>
+  </si>
+  <si>
+    <t>tanah papua memang selalu penuh hangat kunjung merauke lebih asa pulang kampung pada kampanye tanahpapua papuamemang memangselalu selalupenuh penuhhangat hangatkunjung kunjungmerauke meraukelebih lebihasa asapulang pulangkampung kampungpada padakampanye</t>
+  </si>
+  <si>
+    <t>lama kawan lalu musuh lama tetangga lalu tak saling bicara semua karena beda pilih lamakawan kawanlalu lalumusuh musuhlama lamatetangga tetanggalalu lalutak taksaling salingbicara bicarasemua semuakarena karenabeda bedapilih</t>
+  </si>
+  <si>
+    <t>sangat percaya mampu tni kata calon presiden pecat tni https t co kc5cpgca0n sangatpercaya percayamampu mamputni tnikata katacalon calonpresiden presidenpecat pecattni tnihttps httpst tco cokc5cpgca0n</t>
+  </si>
+  <si>
+    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing cara militan tidakpaham pahamekonomi ekonomiinvestasi investasiasing asinglingkup lingkupbisnis bisnisdi-framing di-framingolah olahnegara negaraasai asaiasing asingcara caramilitan</t>
+  </si>
+  <si>
+    <t>wow pakai bahasa inggris debat buat plonga plongo https t co chujvskyv 4 prabowomenangdebat wowpakai pakaibahasa bahasainggris inggrisdebat debatbuat buatplonga plongaplongo plongohttps httpst tco cochujvskyv chujvskyv4 4prabowomenangdebat</t>
+  </si>
+  <si>
+    <t>closing statement orang pamit nuansa khawatir takut tinggal kalau kalah closingstatement statementorang orangpamit pamitnuansa nuansakhawatir khawatirtakut takuttinggal tinggalkalau kalaukalah</t>
+  </si>
+  <si>
+    <t>terima kasih papua terima kasih rakyat merauke moga temu ada lebih baik terimakasih kasihpapua papuaterima terimakasih kasihrakyat rakyatmerauke meraukemoga mogatemu temuada adalebih lebihbaik</t>
+  </si>
+  <si>
+    <t>hari jum at nanya prabowojumatandimana nanya jauh mana islam harijum jumat atnanya nanyaprabowojumatandimana prabowojumatandimanananya nanyajauh jauhmana manaislam</t>
+  </si>
+  <si>
+    <t>pesta demokrasi nama pesta harus senang lo man teman pak sama pak bisa saling santai pestademokrasi demokrasinama namapesta pestaharus harussenang senanglo loman manteman temanpak paksama samapak pakbisa bisasaling salingsantai</t>
+  </si>
+  <si>
+    <t>jadi presiden berat biar pak prabowobentengnkri jokowidiambangkekalahan https t co ehlgdl 2mcx jadipresiden presidenberat beratbiar biarpak pakprabowobentengnkri prabowobentengnkrijokowidiambangkekalahan jokowidiambangkekalahanhttps httpst tco coehlgdl ehlgdl2mcx</t>
+  </si>
+  <si>
+    <t>terimakasih pak datang manado bangga salam sama bapak insyallah allah bapak bang sandi menang terimakasihpak pakdatang datangmanado manadobangga banggasalam salamsama samabapak bapakinsyallah insyallahallah allahbapak bapakbang bangsandi sandimenang</t>
+  </si>
+  <si>
+    <t>makin baik sama pak menangjokowilagi makinbaik baiksama samapak pakmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>berangkat bawah ke pucuk tinggi makanya tak pernah takut https t co 7ftilehkv1 berangkatbawah bawahke kepucuk pucuktinggi tinggimakanya makanyatak takpernah pernahtakut takuthttps httpst tco co7ftilehkv1</t>
+  </si>
+  <si>
+    <t>front bela islam hti jelas di balik kalau yang bantah jelas sedang bohong https t co mwfxk 96sye frontbela belaislam islamhti htijelas jelasdi dibalik balikkalau kalauyang yangbantah bantahjelas jelassedang sedangbohong bohonghttps httpst tco comwfxk mwfxk96sye</t>
+  </si>
+  <si>
+    <t>bangga prabowobentengnkri banggaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>contoh orang tidak di ajak maju debatpilpres 2019 jokowimengubahsemua https t co omp 0spnmur contohorang orangtidak tidakdi diajak ajakmaju majudebatpilpres debatpilpres2019 2019jokowimengubahsemua jokowimengubahsemuahttps httpst tco coomp omp0spnmur</t>
+  </si>
+  <si>
+    <t>the strong will do what they can the weak will suffer nilai tahan indonesia terlalu lemah thestrong strongwill willdo dowhat whatthey theycan canthe theweak weakwill willsuffer suffernilai nilaitahan tahanindonesia indonesiaterlalu terlalulemah</t>
+  </si>
+  <si>
+    <t>rantai sahabat pak pak akan putus debatpilpres 2019 dengerin tuh tkn-bpn cebong kampret rantaisahabat sahabatpak pakpak pakakan akanputus putusdebatpilpres debatpilpres2019 2019dengerin dengerintuh tuhtkn-bpn tkn-bpncebong cebongkampret</t>
+  </si>
+  <si>
+    <t>dengar pak meski sangat lambat https t co aydhf 1aca7 dengarpak pakmeski meskisangat sangatlambat lambathttps httpst tco coaydhf aydhf1aca7</t>
+  </si>
+  <si>
+    <t>pak jangan jelek tni ini lho salah satu prestasi tni 01dilanjutkan https t co ibgmfaixw 1 pakjangan janganjelek jelektni tniini inilho lhosalah salahsatu satuprestasi prestasitni tni01dilanjutkan 01dilanjutkanhttps httpst tco coibgmfaixw ibgmfaixw1</t>
+  </si>
+  <si>
+    <t>sepakat bang pak menang sejak pikir mental menang yang ngga milik pak sepakatbang bangpak pakmenang menangsejak sejakpikir pikirmental mentalmenang menangyang yangngga nggamilik milikpak</t>
+  </si>
+  <si>
+    <t>debat malam mas tampil luar biasa tegas lugas cerdas wibawa jadi macan indonesia perkasa debatmalam malammas mastampil tampilluar luarbiasa biasategas tegaslugas lugascerdas cerdaswibawa wibawajadi jadimacan macanindonesia indonesiaperkasa</t>
+  </si>
+  <si>
+    <t>percaya pak rantai sahabat tidak pernah putus iya pak pun saya hormat percayapak pakrantai rantaisahabat sahabattidak tidakpernah pernahputus putusiya iyapak pakpun punsaya sayahormat</t>
+  </si>
+  <si>
+    <t>insyallah allah p kuasa debat malam dengan elegan n presidential saksi studio insyallahallah allahp pkuasa kuasadebat debatmalam malamdengan denganelegan elegann npresidential presidentialsaksi saksistudio</t>
+  </si>
+  <si>
+    <t>malam pak tampil serang lugas skakmaat malampak paktampil tampilserang seranglugas lugasskakmaat</t>
+  </si>
+  <si>
+    <t>prabowomenangdebat insyallah allah menang pilpres prabowomenangdebatinsyallah insyallahallah allahmenang menangpilpres</t>
+  </si>
+  <si>
+    <t>debat kali tidak pegang telinga tanda tidak pikir panjang debat sorot mata tebar kosong debatkali kalitidak tidakpegang pegangtelinga telingatanda tandatidak tidakpikir pikirpanjang panjangdebat debatsorot sorotmata matatebar tebarkosong</t>
+  </si>
+  <si>
+    <t>lah pak akan lupa sahabat lain jika masalah hukum lahpak pakakan akanlupa lupasahabat sahabatlain lainjika jikamasalah masalahhukum</t>
+  </si>
+  <si>
+    <t>bagus pak lebih tni tni lucu nuduh percaya tni lah wong pak ex militer baguspak paklebih lebihtni tnitni tnilucu lucunuduh nuduhpercaya percayatni tnilah lahwong wongpak pakex exmiliter</t>
+  </si>
+  <si>
+    <t>politik luar negeri makin turun sering absen p forum internasional n sidang pbb politikluar luarnegeri negerimakin makinturun turunsering seringabsen absenp pforum foruminternasional internasionaln nsidang sidangpbb</t>
+  </si>
+  <si>
+    <t>jangan pilih pimpin bohong ingkar janji provokasi rakyat kacang lupa kulit pilih pimpin jujur janganpilih pilihpimpin pimpinbohong bohongingkar ingkarjanji janjiprovokasi provokasirakyat rakyatkacang kacanglupa lupakulit kulitpilih pilihpimpin pimpinjujur</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni saya sipil sangat percaya tni - lihatpak pakpercaya percayatni tnisaya sayasipil sipilsangat sangatpercaya percayatni tni-</t>
+  </si>
+  <si>
+    <t>makanya kalau pilpres ada debat jangan beri tahu buat rusuh makanyakalau kalaupilpres pilpresada adadebat debatjangan janganberi beritahu tahubuat buatrusuh</t>
+  </si>
+  <si>
+    <t>sepakat malam pak kabul semua harap dukung debat kali nampol banget sepakatmalam malampak pakkabul kabulsemua semuaharap harapdukung dukungdebat debatkali kalinampol nampolbanget</t>
+  </si>
+  <si>
+    <t>political will cermin praktik berantas korupsi kata pula demokrasi politicalwill willcermin cerminpraktik praktikberantas berantaskorupsi korupsikata katapula pulademokrasi</t>
+  </si>
+  <si>
+    <t>industri kreatif indonesia era presiden tumbuh sangat pesat industrikreatif kreatifindonesia indonesiaera erapresiden presidentumbuh tumbuhsangat sangatpesat</t>
+  </si>
+  <si>
+    <t>sudah jelas bisa ikut rombong wong sejak awal visi beda visi commuter line mau bikin maju jangan sudahjelas jelasbisa bisaikut ikutrombong rombongwong wongsejak sejakawal awalvisi visibeda bedavisi visicommuter commuterline linemau maubikin bikinmaju majujangan</t>
+  </si>
+  <si>
+    <t>helmy faishal debat kandidat tahap empat menang alam https t co 5iueilxkxo helmyfaishal faishaldebat debatkandidat kandidattahap tahapempat empatmenang menangalam alamhttps httpst tco co5iueilxkxo</t>
+  </si>
+  <si>
+    <t>juang hormat akan diri kaki sendiri kita tidak akan impor pangan juanghormat hormatakan akandiri dirikaki kakisendiri sendirikita kitatidak tidakakan akanimpor imporpangan</t>
+  </si>
+  <si>
+    <t>korupsi parah stadium empat https t co 4sqd2cyjnw prabowobentengnkri korupsiparah parahstadium stadiumempat empathttps httpst tco co4sqd2cyjnw 4sqd2cyjnwprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>sangat untung jadi orang kualitas ilmu minim bisa jadi orang presiden sangatuntung untungjadi jadiorang orangkualitas kualitasilmu ilmuminim minimbisa bisajadi jadiorang orangpresiden</t>
+  </si>
+  <si>
+    <t>dulu pernah asal bapak senang asal bapak senang sujud sukur live lho tv one apa live lho asal bapak senang nya wow dulupernah pernahasal asalbapak bapaksenang senangasal asalbapak bapaksenang senangsujud sujudsukur sukurlive livelho lhotv tvone oneapa apalive livelho lhoasal asalbapak bapaksenang senangnya nyawow</t>
+  </si>
+  <si>
+    <t>santai banget screamo mantap jadi pasang bagus kek jokowi-ahok santaibanget bangetscreamo screamomantap mantapjadi jadipasang pasangbagus baguskek kekjokowi-ahok</t>
+  </si>
+  <si>
+    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni paktrauma traumapecat pecattni tnibegini beginingomongnya ngomongnyajustru justrupak paksipil sipilpercaya percayasama samatni</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 ngebacot kaya luar negeri ngomongin diri sendiri https t co tirpkmgt 4g debatpilpres2019 2019ngebacot ngebacotkaya kayaluar luarnegeri negeringomongin ngomongindiri dirisendiri sendirihttps httpst tco cotirpkmgt tirpkmgt4g</t>
+  </si>
+  <si>
+    <t>nkri harga mati pancasila selalu hati presidennnya tetap pancasilavskhilafah tim 88untukjokowi tim 88 nkriharga hargamati matipancasila pancasilaselalu selaluhati hatipresidennnya presidennnyatetap tetappancasilavskhilafah pancasilavskhilafahtim tim88untukjokowi 88untukjokowitim tim88</t>
+  </si>
+  <si>
+    <t>kritik solusi bagai kaca air keruh kerja beri solusi nyata tumbuh ekonomi kritiksolusi solusibagai bagaikaca kacaair airkeruh keruhkerja kerjaberi berisolusi solusinyata nyatatumbuh tumbuhekonomi</t>
+  </si>
+  <si>
+    <t>si banyak omong soal tax rio rendah perusaaan sendiri nunggak pajak miliar sibanyak banyakomong omongsoal soaltax taxrio riorendah rendahperusaaan perusaaansendiri sendirinunggak nunggakpajak pajakmiliar</t>
+  </si>
+  <si>
+    <t>presiden bisa tidak bicara detail alutsista indonesia itu yang sensitif tahan presidenbisa bisatidak tidakbicara bicaradetail detailalutsista alutsistaindonesia indonesiaitu ituyang yangsensitif sensitiftahan</t>
+  </si>
+  <si>
+    <t>malam inj gak ikut nonton debtamu pak saya bagai dukung ikut gemetar pak takut yang lalu malaminj injgak gakikut ikutnonton nontondebtamu debtamupak paksaya sayabagai bagaidukung dukungikut ikutgemetar gemetarpak paktakut takutyang yanglalu</t>
+  </si>
+  <si>
+    <t>malam benar keren prabowotidakmenyalahkanboneka prabowomenangdebat jokowidiambangkekalahan malambenar benarkeren kerenprabowotidakmenyalahkanboneka prabowotidakmenyalahkanbonekaprabowomenangdebat prabowomenangdebatjokowidiambangkekalahan</t>
+  </si>
+  <si>
+    <t>haha yen wahid bilang salah cara ngebaca data anggar tahan hahayen yenwahid wahidbilang bilangsalah salahcara carangebaca ngebacadata dataanggar anggartahan</t>
+  </si>
+  <si>
+    <t>closing statement dingin pak makin mantap 17aprilcoblosbajuputih https t co gu7yd7owzz closingstatement statementdingin dinginpak pakmakin makinmantap mantap17aprilcoblosbajuputih 17aprilcoblosbajuputihhttps httpst tco cogu7yd7owzz</t>
+  </si>
+  <si>
+    <t>pokok malam pak jos sekali mantap banget buat lawan klepek-klepek kaya ikan kurang air pokokmalam malampak pakjos jossekali sekalimantap mantapbanget bangetbuat buatlawan lawanklepek-klepek klepek-klepekkaya kayaikan ikankurang kurangair</t>
+  </si>
+  <si>
+    <t>debat udah selesai unggul - satu pujat 01caprespendustaabadi prabowomenangdebat debatudah udahselesai selesaiunggul unggul- -satu satupujat pujat01caprespendustaabadi 01caprespendustaabadiprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>kalau terima mandat akan bersih kuat lembaga perintah prabowobentengnkri kalauterima terimamandat mandatakan akanbersih bersihkuat kuatlembaga lembagaperintah perintahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>lebih semangat jaga momentum sd april prabowobentengnkri https t co evpzax 3bax lebihsemangat semangatjaga jagamomentum momentumsd sdapril aprilprabowobentengnkri prabowobentengnkrihttps httpst tco coevpzax evpzax3bax</t>
+  </si>
+  <si>
+    <t>bidang tahan aman masih terlalu lemah anggar terlalu kecil yang kita baik bidangtahan tahanaman amanmasih masihterlalu terlalulemah lemahanggar anggarterlalu terlalukecil kecilyang yangkita kitabaik</t>
+  </si>
+  <si>
+    <t>membully pak tak istri lalu pamer mesra keluarga membullypak paktak takistri istrilalu lalupamer pamermesra mesrakeluarga</t>
+  </si>
+  <si>
+    <t>yakin lubuk hati dukung pada malu lihat jagoanya kaya gitu mata publik yakinlubuk lubukhati hatidukung dukungpada padamalu malulihat lihatjagoanya jagoanyakaya kayagitu gitumata matapublik</t>
+  </si>
+  <si>
+    <t>pemerintahandilan tekan layan perintah baik butuh efektifitas efisiensi pemerintahandilantekan tekanlayan layanperintah perintahbaik baikbutuh butuhefektifitas efektifitasefisiensi</t>
+  </si>
+  <si>
+    <t>hakul yakin indonesia hebat rakyat sejahtera wujud sama - prabowomenangdebat hakulyakin yakinindonesia indonesiahebat hebatrakyat rakyatsejahtera sejahterawujud wujudsama sama- -prabowomenangdebat</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 bagaimana mau maju tni kalau baru jadi mayor jangan udah pensiun sekarang jadi timses bapak debatpilpres2019 2019bagaimana bagaimanamau maumaju majutni tnikalau kalaubaru barujadi jadimayor mayorjangan janganudah udahpensiun pensiunsekarang sekarangjadi jaditimses timsesbapak</t>
+  </si>
+  <si>
+    <t>turut pk diplomasi arti tahan inti national interest bukan cuma senyam-senyum turutpk pkdiplomasi diplomasiarti artitahan tahaninti intinational nationalinterest interestbukan bukancuma cumasenyam-senyum</t>
+  </si>
+  <si>
+    <t>bisik si jokowi lebih sibuk cari cara gebuk lawan politik waspada jaga nkri bisiksi sijokowi jokowilebih lebihsibuk sibukcari caricara caragebuk gebuklawan lawanpolitik politikwaspada waspadajaga jagankri</t>
+  </si>
+  <si>
+    <t>bukan percaya sama tni tni lebih tni para tni orang patriot cinta nkri bukanpercaya percayasama samatni tnitni tnilebih lebihtni tnipara paratni tniorang orangpatriot patriotcinta cintankri</t>
+  </si>
+  <si>
+    <t>ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu ujar ketawakalian kalianketawa ketawatahan tahanindonesia indonesiarapuh rapuhkalian kalianketawa ketawalucu lucukok koklucu lucuujar</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 tidak harga internasional tuh doang mah dihargain kok debatpilpres2019 2019tidak tidakharga hargainternasional internasionaltuh tuhdoang doangmah mahdihargain dihargainkok</t>
+  </si>
+  <si>
+    <t>komplit tukang bohong main curang piye pak de komplittukang tukangbohong bohongmain maincurang curangpiye piyepak pakde</t>
+  </si>
+  <si>
+    <t>dong pak sangat percaya tni jokowidilan pemerintahandilan https t co uunuy 9su9e dongpak paksangat sangatpercaya percayatni tnijokowidilan jokowidilanpemerintahandilan pemerintahandilanhttps httpst tco couunuy uunuy9su9e</t>
+  </si>
+  <si>
+    <t>unggul april menangjokowilagi unggulapril aprilmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>saat perintah kibal-kibul akhir jokowidiambangkekalahan masyarakat hilang percaya perintah saatperintah perintahkibal-kibul kibal-kibulakhir akhirjokowidiambangkekalahan jokowidiambangkekalahanmasyarakat masyarakathilang hilangpercaya percayaperintah</t>
+  </si>
+  <si>
+    <t>politik luar negeri sampai tak sesuai realitas dia sering tak hadir forum internasional politikluar luarnegeri negerisampai sampaitak taksesuai sesuairealitas realitasdia diasering seringtak takhadir hadirforum foruminternasional</t>
+  </si>
+  <si>
+    <t>distrust paham apa makna hanya plonga-plongo debatpilpres 2019 https t co qpr 2qpbcj1 distrustpaham pahamapa apamakna maknahanya hanyaplonga-plongo plonga-plongodebatpilpres debatpilpres2019 2019https httpst tco coqpr qpr2qpbcj1</t>
+  </si>
+  <si>
+    <t>harus utama tuju perintah sendiri tuju perintah jelas akan jadi gaduh harusutama utamatuju tujuperintah perintahsendiri sendirituju tujuperintah perintahjelas jelasakan akanjadi jadigaduh</t>
+  </si>
+  <si>
+    <t>depan mau ubah pancasila hadap https t co znzz 94ncaj depanmau mauubah ubahpancasila pancasilahadap hadaphttps httpst tco coznzz znzz94ncaj</t>
+  </si>
+  <si>
+    <t>menang gagas menang debat menang pilpres prabowobentengnkri menanggagas gagasmenang menangdebat debatmenang menangpilpres pilpresprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>anak beri tahu toleransi kita beda - optimisindonesiamaju anakberi beritahu tahutoleransi toleransikita kitabeda beda- -optimisindonesiamaju</t>
+  </si>
+  <si>
+    <t>nama benteng harus kokoh masuk allah uji waktu kondisi namabenteng bentengharus haruskokoh kokohmasuk masukallah allahuji ujiwaktu waktukondisi</t>
+  </si>
+  <si>
+    <t>percaya kalau pak pimpin baik pemerintahandilan percayakalau kalaupak pakpimpin pimpinbaik baikpemerintahandilan</t>
+  </si>
+  <si>
+    <t>pak ini sering naik sepeda rantai sering putus paksa ganti rantai makan pak pakini inisering seringnaik naiksepeda sepedarantai rantaisering seringputus putuspaksa paksaganti gantirantai rantaimakan makanpak</t>
+  </si>
+  <si>
+    <t>meski indonesia milik saham persen freeport sebut untung freeport jauh lebih besar meskiindonesia indonesiamilik miliksaham sahampersen persenfreeport freeportsebut sebutuntung untungfreeport freeportjauh jauhlebih lebihbesar</t>
+  </si>
+  <si>
+    <t>ghiroh kab kalong menang sungguh haru bangga dlm parau suara brandal ghirohkab kabkalong kalongmenang menangsungguh sungguhharu harubangga banggadlm dlmparau parausuara suarabrandal</t>
+  </si>
+  <si>
+    <t>mantap pak jokowidiambangkekalahan https t co 5aqu8vfkic mantappak pakjokowidiambangkekalahan jokowidiambangkekalahanhttps httpst tco co5aqu8vfkic</t>
+  </si>
+  <si>
+    <t>benteng nkri benteng bukan banteng prabowobentengnkri bentengnkri nkribenteng bentengbukan bukanbanteng bantengprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>pak siap papar visi misi beliau tema debat malam 01dilanjutkan paksiap siappapar paparvisi visimisi misibeliau beliautema temadebat debatmalam malam01dilanjutkan</t>
+  </si>
+  <si>
+    <t>sosok pimpin baik maka tak ada alas golput 01dilanjutkan sosokpimpin pimpinbaik baikmaka makatak takada adaalas alasgolput golput01dilanjutkan</t>
+  </si>
+  <si>
+    <t>debat calon presiden kali seperti lihat orang dewasa wawas santun lawan debatcalon calonpresiden presidenkali kaliseperti sepertilihat lihatorang orangdewasa dewasawawas wawassantun santunlawan</t>
+  </si>
+  <si>
+    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi indonesia kalaumandat mandatakan akanbersih bersihkuat kuatlembaga lembagaperintah perintahakan akanhilang hilangkorupsi korupsiindonesia</t>
+  </si>
+  <si>
+    <t>nah inti juang hasil panen raya jaga lumbung tikus nahinti intijuang juanghasil hasilpanen panenraya rayajaga jagalumbung lumbungtikus</t>
+  </si>
+  <si>
+    <t>warga karawang mana kalau knytaan y laut manusia hadir sambut presiden wargakarawang karawangmana manakalau kalauknytaan knytaany ylaut lautmanusia manusiahadir hadirsambut sambutpresiden</t>
+  </si>
+  <si>
+    <t>cuma doa moga terima nyata walaupun pahit rakyat presiden ri cumadoa doamoga mogaterima terimanyata nyatawalaupun walaupunpahit pahitrakyat rakyatpresiden presidenri</t>
+  </si>
+  <si>
+    <t>simpul debat malam sangat cinta nkri jokowi sangat cinta dagang prabowobentengnkri prabowobentengnkri simpuldebat debatmalam malamsangat sangatcinta cintankri nkrijokowi jokowisangat sangatcinta cintadagang dagangprabowobentengnkri prabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>lembaga perintah kuat baru negara kuat program bangun laksana lembagaperintah perintahkuat kuatbaru barunegara negarakuat kuatprogram programbangun bangunlaksana</t>
+  </si>
+  <si>
+    <t>lebih baik pakai teknologi lama kaya indonesia keluar indonesia - lebihbaik baikpakai pakaiteknologi teknologilama lamakaya kayaindonesia indonesiakeluar keluarindonesia indonesia-</t>
+  </si>
+  <si>
+    <t>bapak info asal bapak senang https t co 11g3jkmdz3 bapakinfo infoasal asalbapak bapaksenang senanghttps httpst tco co11g3jkmdz3</t>
+  </si>
+  <si>
+    <t>indonesia maju sama pemerintahandilan https t co ue10thkyey indonesiamaju majusama samapemerintahandilan pemerintahandilanhttps httpst tco coue10thkyey</t>
+  </si>
+  <si>
+    <t>warkop dki tagline warkop dki memang visioner tertawa prabowomarah https t co 8wsgualxi6 warkopdki dkitagline taglinewarkop warkopdki dkimemang memangvisioner visionertertawa tertawaprabowomarah prabowomarahhttps httpst tco co8wsgualxi6</t>
+  </si>
+  <si>
+    <t>nahkan sistem perintah udah oke banget deh poko pemerintahandilan keren pak https t co 1tomcggkxy nahkansistem sistemperintah perintahudah udahoke okebanget bangetdeh dehpoko pokopemerintahandilan pemerintahandilankeren kerenpak pakhttps httpst tco co1tomcggkxy</t>
+  </si>
+  <si>
+    <t>debat kami terima bagai saudara wahai mualaf politik memang pantas pimpin nkri debatkami kamiterima terimabagai bagaisaudara saudarawahai wahaimualaf mualafpolitik politikmemang memangpantas pantaspimpin pimpinnkri</t>
+  </si>
+  <si>
+    <t>kalau pecat pensiun dong bapak dapat pensiun kalaupecat pecatpensiun pensiundong dongbapak bapakdapat dapatpensiun</t>
+  </si>
+  <si>
+    <t>karawang maret siapa pilih rakyat akan tunduk patuh - negarawan sejati karawangmaret maretsiapa siapapilih pilihrakyat rakyatakan akantunduk tundukpatuh patuh- -negarawan negarawansejati</t>
+  </si>
+  <si>
+    <t>apa pak paham skor cpi indonesia maka indonesia masuk kategori hybrid regime apapak pakpaham pahamskor skorcpi cpiindonesia indonesiamaka makaindonesia indonesiamasuk masukkategori kategorihybrid hybridregime</t>
+  </si>
+  <si>
+    <t>perintah dil digital layan sangat perlu perintahdil dildigital digitallayan layansangat sangatperlu</t>
+  </si>
+  <si>
+    <t>teknologi lama kaya tetap di negara sendiri kata duh maksud internetan pake dial-up teknologilama lamakaya kayatetap tetapdi dinegara negarasendiri sendirikata kataduh duhmaksud maksudinternetan internetanpake pakedial-up</t>
+  </si>
+  <si>
+    <t>dari bumi pertiwi yang lepas nyata gera separatis hantu daribumi bumipertiwi pertiwiyang yanglepas lepasnyata nyatagera geraseparatis separatishantu</t>
+  </si>
+  <si>
+    <t>bantu retwet teman teman seluruh dunia paham kalau sosok sangat depan toleransi banturetwet retwetteman temanteman temanseluruh seluruhdunia duniapaham pahamkalau kalausosok sosoksangat sangatdepan depantoleransi</t>
+  </si>
+  <si>
+    <t>itu ma ruf amin senang tak provokasi https t co fmhnp 7nafz ituma maruf rufamin aminsenang senangtak takprovokasi provokasihttps httpst tco cofmhnp fmhnp7nafz</t>
+  </si>
+  <si>
+    <t>mc kepada pak sila tanggap nyata pak kira ada beda mckepada kepadapak paksila silatanggap tanggapnyata nyatapak pakkira kiraada adabeda</t>
+  </si>
+  <si>
+    <t>jadi presiden jangan prabohong udah ngamuk tertawa kok larang hancur prabowomarah jadipresiden presidenjangan janganprabohong prabohongudah udahngamuk ngamuktertawa tertawakok koklarang laranghancur hancurprabowomarah</t>
+  </si>
+  <si>
+    <t>prabowo bahasa terlalu tinggi buat planga plongo prabowobahasa bahasaterlalu terlalutinggi tinggibuat buatplanga plangaplongo</t>
+  </si>
+  <si>
+    <t>aman negara malah ketawa ngawur tidak nasionalis tuh pak tegor jangan prabowomenangdebat amannegara negaramalah malahketawa ketawangawur ngawurtidak tidaknasionalis nasionalistuh tuhpak paktegor tegorjangan janganprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>debat pak serang tapi beliau sabar balas debatpak pakserang serangtapi tapibeliau beliausabar sabarbalas</t>
+  </si>
+  <si>
+    <t>harus buat sistem henti bocor cegah korupsi prabowobentengnkri harusbuat buatsistem sistemhenti hentibocor bocorcegah cegahkorupsi korupsiprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>prabowomenangdebat prabowobentengnkri malam jadi kuat tekad sama menang prabowomenangdebatprabowobentengnkri prabowobentengnkrimalam malamjadi jadikuat kuattekad tekadsama samamenang</t>
+  </si>
+  <si>
+    <t>entah tahan negara mana maksud lemah palelu diketawain tonton tonton bentak ngeri entahtahan tahannegara negaramana manamaksud maksudlemah lemahpalelu paleludiketawain diketawaintonton tontontonton tontonbentak bentakngeri</t>
+  </si>
+  <si>
+    <t>negara rakyat makmur selalu iring teknologi mumpuni tinggal teknologi negararakyat rakyatmakmur makmurselalu selaluiring iringteknologi teknologimumpuni mumpunitinggal tinggalteknologi</t>
+  </si>
+  <si>
+    <t>do a sama pak moga allah subhanahu wa ta ala meridhoi beri menang buat beliau doa asama samapak pakmoga mogaallah allahsubhanahu subhanahuwa wata taala alameridhoi meridhoiberi berimenang menangbuat buatbeliau</t>
+  </si>
+  <si>
+    <t>ini muncul survei senang debatpilpres 2019 ideasrabbani inimuncul munculsurvei surveisenang senangdebatpilpres debatpilpres2019 2019ideasrabbani</t>
+  </si>
+  <si>
+    <t>pemerintahandilan turun tingkat korupsi https t co cwcotkvzyo pemerintahandilanturun turuntingkat tingkatkorupsi korupsihttps httpst tco cocwcotkvzyo</t>
+  </si>
+  <si>
+    <t>turut pimpin politik boleh buat situasi pecah belah nasional https t co butzybqt 6a turutpimpin pimpinpolitik politikboleh bolehbuat buatsituasi situasipecah pecahbelah belahnasional nasionalhttps httpst tco cobutzybqt butzybqt6a</t>
+  </si>
+  <si>
+    <t>moga pak pimpin negara dengan adil cipta makmur prabowobentengnkri mogapak pakpimpin pimpinnegara negaradengan denganadil adilcipta ciptamakmur makmurprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>calon presiden sempat geram debat calon presiden langsung bicara soal tahan aman lemah calonpresiden presidensempat sempatgeram geramdebat debatcalon calonpresiden presidenlangsung langsungbicara bicarasoal soaltahan tahanaman amanlemah</t>
+  </si>
+  <si>
+    <t>memang benar pak cenderung optimistis sisi pak cenderung pesimistis memangbenar benarpak pakcenderung cenderungoptimistis optimistissisi sisipak pakcenderung cenderungpesimistis</t>
+  </si>
+  <si>
+    <t>sebut budaya asal bapak senang asal bapak senang kental dunia militer nasional https t co andtnmbmi 6 sebutbudaya budayaasal asalbapak bapaksenang senangasal asalbapak bapaksenang senangkental kentaldunia duniamiliter militernasional nasionalhttps httpst tco coandtnmbmi andtnmbmi6</t>
+  </si>
+  <si>
+    <t>buat rindu negeri maju jadi masa depan anak cucu pak jokowi pimpin dekat kesana tentu sempurna buatrindu rindunegeri negerimaju majujadi jadimasa masadepan depananak anakcucu cucupak pakjokowi jokowipimpin pimpindekat dekatkesana kesanatentu tentusempurna</t>
+  </si>
+  <si>
+    <t>ustad maheer bahaya bisa jadi oceh frontal seluruh dukung kena cap khilafah curiga nih ustadmaheer maheerbahaya bahayabisa bisajadi jadioceh ocehfrontal frontalseluruh seluruhdukung dukungkena kenacap capkhilafah khilafahcuriga curiganih</t>
+  </si>
+  <si>
+    <t>wahai berani 2nya bilang indonesia daya fakta indonesia capai minimum essential tekan wahaiberani berani2nya 2nyabilang bilangindonesia indonesiadaya dayafakta faktaindonesia indonesiacapai capaiminimum minimumessential essentialtekan</t>
+  </si>
+  <si>
+    <t>selalu tiap sempat ada tanya nikah culi kudeta apa bosan bung selalutiap tiapsempat sempatada adatanya tanyanikah nikahculi culikudeta kudetaapa apabosan bosanbung</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 laku tidak harga internasional puas kamu langgar ham debatpilpres2019 2019laku lakutidak tidakharga hargainternasional internasionalpuas puaskamu kamulanggar langgarham</t>
+  </si>
+  <si>
+    <t>istilah tak kenal tak peduli kita jalin silaturahmi ada saudara tanya tanya istilahtak takkenal kenaltak takpeduli pedulikita kitajalin jalinsilaturahmi silaturahmiada adasaudara saudaratanya tanyatanya</t>
+  </si>
+  <si>
+    <t>bang yang jauh pelosok kalimantan rasa bangga lihat debat malam bangyang yangjauh jauhpelosok pelosokkalimantan kalimantanrasa rasabangga banggalihat lihatdebat debatmalam</t>
+  </si>
+  <si>
+    <t>dil digital layan mantap pak pemerintahandilan dildigital digitallayan layanmantap mantappak pakpemerintahandilan</t>
+  </si>
+  <si>
+    <t>ucap selamat pak cara naluri aku bagai menang pilpres ucapselamat selamatpak pakcara caranaluri naluriaku akubagai bagaimenang menangpilpres</t>
+  </si>
+  <si>
+    <t>diplomasi kalau senyum jadi nice guy hanya saja pak prabowobentengnkri diplomasikalau kalausenyum senyumjadi jadinice niceguy guyhanya hanyasaja sajapak pakprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>prabowo-sandi beri sempat anak bangsa bisa karya jadi main negara sendiri prabowo-sandiberi berisempat sempatanak anakbangsa bangsabisa bisakarya karyajadi jadimain mainnegara negarasendiri</t>
+  </si>
+  <si>
+    <t>lembaga perintah kuat baru program bangun kuat subianto prabowobentengnkri debatpilpres 2019 lembagaperintah perintahkuat kuatbaru baruprogram programbangun bangunkuat kuatsubianto subiantoprabowobentengnkri prabowobentengnkridebatpilpres debatpilpres2019</t>
+  </si>
+  <si>
+    <t>refleksi buat dia kutuk jahat jahat tatap jadi satu diri refleksibuat buatdia diakutuk kutukjahat jahatjahat jahattatap tatapjadi jadisatu satudiri</t>
+  </si>
+  <si>
+    <t>menang telak prabowomenangdebat menangtelak telakprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>swear deh puas banget malam ni nengok mr planga plongo tak kutik hajar macan asia sweardeh dehpuas puasbanget bangetmalam malamni ninengok nengokmr mrplanga plangaplongo plongotak takkutik kutikhajar hajarmacan macanasia</t>
+  </si>
+  <si>
+    <t>pagelaran kelas pilpres dukung asing sangat penting jangan kelas suharto bisa kondisi asing pagelarankelas kelaspilpres pilpresdukung dukungasing asingsangat sangatpenting pentingjangan jangankelas kelassuharto suhartobisa bisakondisi kondisiasing</t>
+  </si>
+  <si>
+    <t>tegas sekali debat kali insyallah allah hendak bapak jadi presiden ri prabowobentengnkri tegassekali sekalidebat debatkali kaliinsyallah insyallahallah allahhendak hendakbapak bapakjadi jadipresiden presidenri riprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>udahlah matiin jangan tipi simpilkan jangan kalau pak kalah debat masa iya calon presiden ada optimis udahlahmatiin matiinjangan jangantipi tipisimpilkan simpilkanjangan jangankalau kalaupak pakkalah kalahdebat debatmasa masaiya iyacalon calonpresiden presidenada adaoptimis</t>
+  </si>
+  <si>
+    <t>ditanyain diplomasi luar negeri jawab putar jarak peluru kendali oke ditanyaindiplomasi diplomasiluar luarnegeri negerijawab jawabputar putarjarak jarakpeluru pelurukendali kendalioke</t>
+  </si>
+  <si>
+    <t>hahaha yang bakar jenggot sama imbau pakai baju putih tps hahahayang yangbakar bakarjenggot jenggotsama samaimbau imbaupakai pakaibaju bajuputih putihtps</t>
+  </si>
+  <si>
+    <t>wow menang tebal nih mantap pak lanjut 01dilanj wowmenang menangtebal tebalnih nihmantap mantappak paklanjut lanjut01dilanj</t>
+  </si>
+  <si>
+    <t>penting jangan asal bapak senang kata sindir prabowobentengnkri asal bapak senang tau kondisi riil rakyat pentingjangan janganasal asalbapak bapaksenang senangkata katasindir sindirprabowobentengnkri prabowobentengnkriasal asalbapak bapaksenang senangtau taukondisi kondisiriil riilrakyat</t>
+  </si>
+  <si>
+    <t>ingin negara kuat ekonomi pilih ingin negara kuat tentara pilih gitu kok repot inginnegara negarakuat kuatekonomi ekonomipilih pilihingin inginnegara negarakuat kuattentara tentarapilih pilihgitu gitukok kokrepot</t>
+  </si>
+  <si>
+    <t>kok nyata sabar luarbiasa maaf kok seperti persepsi distortif lama koknyata nyatasabar sabarluarbiasa luarbiasamaaf maafkok kokseperti sepertipersepsi persepsidistortif distortiflama</t>
+  </si>
+  <si>
+    <t>betul prabowomenangdebat jelas lah prabowobentengnkri betulprabowomenangdebat prabowomenangdebatjelas jelaslah lahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>lihat semua hasil kerja nyata ubah semua besar bangsa indonesia ubah semua lihatsemua semuahasil hasilkerja kerjanyata nyataubah ubahsemua semuabesar besarbangsa bangsaindonesia indonesiaubah ubahsemua</t>
+  </si>
+  <si>
+    <t>zaman teknologi 4 0 ko mau pake teknologi jadul makin tinggal bangsa dong pak zamanteknologi teknologi4 40 0ko komau maupake paketeknologi teknologijadul jadulmakin makintinggal tinggalbangsa bangsadong dongpak</t>
+  </si>
+  <si>
+    <t>sandi penting manusia biasa kalian maa allah pernah mimpi dekat dengan presiden sandipenting pentingmanusia manusiabiasa biasakalian kalianmaa maaallah allahpernah pernahmimpi mimpidekat dekatdengan denganpresiden</t>
+  </si>
+  <si>
+    <t>tenang pak papar pemerintahandilan solusi tepat baik birokrasi perintah tenangpak pakpapar paparpemerintahandilan pemerintahandilansolusi solusitepat tepatbaik baikbirokrasi birokrasiperintah</t>
+  </si>
+  <si>
+    <t>wow jawab bapak prabowo sandi atas tanya buat onoh tel ludah deh macaaan asia bapak mulai wowjawab jawabbapak bapakprabowo prabowosandi sandiatas atastanya tanyabuat buatonoh onohtel telludah ludahdeh dehmacaaan macaaanasia asiabapak bapakmulai</t>
+  </si>
+  <si>
+    <t>mantaf malam nih pak semua debat yang paling oke prabowobentengnkri mantafmalam malamnih nihpak paksemua semuadebat debatyang yangpaling palingoke okeprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>indonesia sentris laksana pak sangat luar biasa menang 01dilanjutkan https t co dbeyzg 9edb indonesiasentris sentrislaksana laksanapak paksangat sangatluar luarbiasa biasamenang menang01dilanjutkan 01dilanjutkanhttps httpst tco codbeyzg dbeyzg9edb</t>
+  </si>
+  <si>
+    <t>saja subianto visi jauh depan tidak lupa sejahtera rakyat mantap sajasubianto subiantovisi visijauh jauhdepan depantidak tidaklupa lupasejahtera sejahterarakyat rakyatmantap</t>
+  </si>
+  <si>
+    <t>calon presiden subianto sebut di garda depan tumpas bahaya komunis masuk gera radikal calonpresiden presidensubianto subiantosebut sebutdi digarda gardadepan depantumpas tumpasbahaya bahayakomunis komunismasuk masukgera geraradikal</t>
+  </si>
+  <si>
+    <t>malu - arogan - emosi - pesimis - tak taat atur debat - ngedongeng bilang lebih tni tni malu- -arogan arogan- -emosi emosi- -pesimis pesimis- -tak taktaat taatatur aturdebat debat- -ngedongeng ngedongengbilang bilanglebih lebihtni tnitni</t>
+  </si>
+  <si>
+    <t>pemerintahandilan presiden selalu usaha tingkat mutu tenaga kerja pemerintahandilanpresiden presidenselalu selaluusaha usahatingkat tingkatmutu mututenaga tenagakerja</t>
+  </si>
+  <si>
+    <t>apa bosan terus tuding - nya kritik habis apabosan bosanterus terustuding tuding- -nya nyakritik kritikhabis</t>
+  </si>
+  <si>
+    <t>pak komitmen dukung e-government salah satu e-budgeting konkrit cegah korupsi pakkomitmen komitmendukung dukunge-government e-governmentsalah salahsatu satue-budgeting e-budgetingkonkrit konkritcegah cegahkorupsi</t>
+  </si>
+  <si>
+    <t>tuju sama tompi cukup baik eksekutif pilih legislatif perlu baik tujusama samatompi tompicukup cukupbaik baikeksekutif eksekutifpilih pilihlegislatif legislatifperlu perlubaik</t>
+  </si>
+  <si>
+    <t>debatkeempatpilpres 2019 calon presiden tanggap teknologi cepat ala debatkeempatpilpres2019 2019calon calonpresiden presidentanggap tanggapteknologi teknologicepat cepatala</t>
+  </si>
+  <si>
+    <t>dukung calon presiden no urut jokowi-ma ruf kali datang viking makin dekat hari coblos dukung terus dukungcalon calonpresiden presidenno nourut urutjokowi-ma jokowi-maruf rufkali kalidatang datangviking vikingmakin makindekat dekathari haricoblos coblosdukung dukungterus</t>
+  </si>
+  <si>
+    <t>nampak debatpilpres 2019 dari sisi ilmu komplit alam bijaksana perilaku jelas lebih unggul nampakdebatpilpres debatpilpres2019 2019dari darisisi sisiilmu ilmukomplit komplitalam alambijaksana bijaksanaperilaku perilakujelas jelaslebih lebihunggul</t>
+  </si>
+  <si>
+    <t>aje maling teriak maling bung ajemaling malingteriak teriakmaling malingbung</t>
+  </si>
+  <si>
+    <t>pak bilang beri contoh toleransi tetapi dukung kerap laku tindak intoleran pakbilang bilangberi bericontoh contohtoleransi toleransitetapi tetapidukung dukungkerap keraplaku lakutindak tindakintoleran</t>
+  </si>
+  <si>
+    <t>debat pilpres empat tutup statement tutup penuh damai dua calon presiden buat dingin debatpilpres pilpresempat empattutup tutupstatement statementtutup tutuppenuh penuhdamai damaidua duacalon calonpresiden presidenbuat buatdingin</t>
+  </si>
+  <si>
+    <t>pak beri contoh dewasa memang lahir dalam diri 01dilanjutkan https t co 68tqfjd530 pakberi bericontoh contohdewasa dewasamemang memanglahir lahirdalam dalamdiri diri01dilanjutkan 01dilanjutkanhttps httpst tco co68tqfjd530</t>
+  </si>
+  <si>
+    <t>optimisme pak ragu bagai warga sipil pak sangat percaya tentara nasional optimismepak pakragu ragubagai bagaiwarga wargasipil sipilpak paksangat sangatpercaya percayatentara tentaranasional</t>
+  </si>
+  <si>
+    <t>lembaga polmark indonesia rilis rilis survei tunjuk elektabilitas pasang milik elektabilitas lembagapolmark polmarkindonesia indonesiarilis rilisrilis rilissurvei surveitunjuk tunjukelektabilitas elektabilitaspasang pasangmilik milikelektabilitas</t>
+  </si>
+  <si>
+    <t>hari perintah bawah pak sangat maju infrastruktur udara ada hariperintah perintahbawah bawahpak paksangat sangatmaju majuinfrastruktur infrastrukturudara udaraada</t>
+  </si>
+  <si>
+    <t>kasihan pak tahan ketawa pecatanlebihtnidaritni kasihanpak paktahan tahanketawa ketawapecatanlebihtnidaritni</t>
+  </si>
+  <si>
+    <t>rendah dukung tahana rupa bukti rupa bukti bila cara tak langsung sedang hukum publik rendahdukung dukungtahana tahanarupa rupabukti buktirupa rupabukti buktibila bilacara caratak taklangsung langsungsedang sedanghukum hukumpublik</t>
+  </si>
+  <si>
+    <t>pak kaget tingkah laku jabat perintah sendiri laku jual beli jabat pakkaget kagettingkah tingkahlaku lakujabat jabatperintah perintahsendiri sendirilaku lakujual jualbeli belijabat</t>
+  </si>
+  <si>
+    <t>semua kata mas benar indonesia luas uni eropa jumlah tni cuma segitu lemah pak semuakata katamas masbenar benarindonesia indonesialuas luasuni unieropa eropajumlah jumlahtni tnicuma cumasegitu segitulemah lemahpak</t>
+  </si>
+  <si>
+    <t>pulau kecil tambang jaya tani nelayan ikut ruang hidup terus ancam parah baik maupun pulaukecil keciltambang tambangjaya jayatani taninelayan nelayanikut ikutruang ruanghidup hidupterus terusancam ancamparah parahbaik baikmaupun</t>
+  </si>
+  <si>
+    <t>daniel sibolang durian medan nyanyi lagu kocak kamu pingin kaya kerja tidur jangan danielsibolang sibolangdurian durianmedan medannyanyi nyanyilagu lagukocak kocakkamu kamupingin pinginkaya kayakerja kerjatidur tidurjangan</t>
+  </si>
+  <si>
+    <t>perintah oss dulunya kalau urus izin bulan bahkan tahun sekarang izin keluar jam kata perintahoss ossdulunya dulunyakalau kalauurus urusizin izinbulan bulanbahkan bahkantahun tahunsekarang sekarangizin izinkeluar keluarjam jamkata</t>
+  </si>
+  <si>
+    <t>orang golkar dukung jadi jangan heran kalau bowo sedang main politik kaki jatuh oranggolkar golkardukung dukungjadi jadijangan janganheran herankalau kalaubowo bowosedang sedangmain mainpolitik politikkaki kakijatuh</t>
+  </si>
+  <si>
+    <t>admin mau bahas kata militer lemah https t co raliyooy 3e adminmau maubahas bahaskata katamiliter militerlemah lemahhttps httpst tco coraliyooy raliyooy3e</t>
+  </si>
+  <si>
+    <t>tidak apa apa to h pecat pada presiden bohong nggedabrus plonga plongo tidakapa apaapa apato toh hpecat pecatpada padapresiden presidenbohong bohongnggedabrus nggedabrusplonga plongaplongo</t>
+  </si>
+  <si>
+    <t>bang kalau jadi presiden siapa ibu negara apa benar kita jadi negara piatu bangkalau kalaujadi jadipresiden presidensiapa siapaibu ibunegara negaraapa apabenar benarkita kitajadi jadinegara negarapiatu</t>
+  </si>
+  <si>
+    <t>dukung terus pak pemerintahandilan https t co rzz 6pqhmus dukungterus teruspak pakpemerintahandilan pemerintahandilanhttps httpst tco corzz rzz6pqhmus</t>
+  </si>
+  <si>
+    <t>pemerintahandilan ma ruf amin ungkap hasil presiden pak hanya lihat proyek pemerintahandilanma maruf rufamin aminungkap ungkaphasil hasilpresiden presidenpak pakhanya hanyalihat lihatproyek</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni pemerintahandilan memang nampol lihatpak pakpercaya percayatni tnipemerintahandilan pemerintahandilanmemang memangnampol</t>
+  </si>
+  <si>
+    <t>calon presiden nomor urut sangat siap tema debat ideologi perintah tahan aman calonpresiden presidennomor nomorurut urutsangat sangatsiap siaptema temadebat debatideologi ideologiperintah perintahtahan tahanaman</t>
+  </si>
+  <si>
+    <t>pemerintahandilan siap data akan bagai amunisi debat malam semangat pagi pemerintahandilansiap siapdata dataakan akanbagai bagaiamunisi amunisidebat debatmalam malamsemangat semangatpagi</t>
+  </si>
+  <si>
+    <t>bidang perintah pak kuat lembaga lembaga kuat prabowobentengnkri negara kuat bidangperintah perintahpak pakkuat kuatlembaga lembagalembaga lembagakuat kuatprabowobentengnkri prabowobentengnkrinegara negarakuat</t>
+  </si>
+  <si>
+    <t>bangun indonesia desa bangun adab lebih baik tuju lanjut 01dilanjutkan bangunindonesia indonesiadesa desabangun bangunadab adablebih lebihbaik baiktuju tujulanjut lanjut01dilanjutkan</t>
+  </si>
+  <si>
+    <t>diplomasi kalau senyam senyum diplomasi butuh kuat - penting jaga daulat nkri diplomasikalau kalausenyam senyamsenyum senyumdiplomasi diplomasibutuh butuhkuat kuat- -penting pentingjaga jagadaulat daulatnkri</t>
+  </si>
+  <si>
+    <t>yunarto debat kali adalah tampil buruk calon presiden bahkan sejak lalu yunartodebat debatkali kaliadalah adalahtampil tampilburuk burukcalon calonpresiden presidenbahkan bahkansejak sejaklalu</t>
+  </si>
+  <si>
+    <t>kalau opung tak percaya diri citra nempel pak kalauopung opungtak takpercaya percayadiri diricitra citranempel nempelpak</t>
+  </si>
+  <si>
+    <t>sabar bangsa rasa ubah ken buru buru ganti presiden era tidak ada ubah hebat sabarbangsa bangsarasa rasaubah ubahken kenburu buruburu buruganti gantipresiden presidenera eratidak tidakada adaubah ubahhebat</t>
+  </si>
+  <si>
+    <t>ayo seluruh masyarakat indonesia dukung penuh calon presiden 01 debat - pilpres ayoseluruh seluruhmasyarakat masyarakatindonesia indonesiadukung dukungpenuh penuhcalon calonpresiden presiden01 01debat debat- -pilpres</t>
+  </si>
+  <si>
+    <t>debat malam liat banget siapa dewasa tanggap ya pak buat bangga 01dilanjutkan debatmalam malamliat liatbanget bangetsiapa siapadewasa dewasatanggap tanggapya yapak pakbuat buatbangga bangga01dilanjutkan</t>
+  </si>
+  <si>
+    <t>makanya jangan ragu prabowobentengnkri prabowobentengnkri makanyajangan janganragu raguprabowobentengnkri prabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>depan mau ubah pancasila hadap prabowobentengnkri doauntukprabowosandi depanmau mauubah ubahpancasila pancasilahadap hadapprabowobentengnkri prabowobentengnkridoauntukprabowosandi</t>
+  </si>
+  <si>
+    <t>halah halaaah dulu kamu kalah pilpres jangan ngamuk ngamuk kaya orang mabuk jamur https t co 0dbjt9cspe halahhalaaah halaaahdulu dulukamu kamukalah kalahpilpres pilpresjangan janganngamuk ngamukngamuk ngamukkaya kayaorang orangmabuk mabukjamur jamurhttps httpst tco co0dbjt9cspe</t>
+  </si>
+  <si>
+    <t>gitu dong pak gahar dikit inti pak mau menang tidak jangan sia 2kan juang pak gitudong dongpak pakgahar gahardikit dikitinti intipak pakmau maumenang menangtidak tidakjangan jangansia sia2kan 2kanjuang juangpak</t>
+  </si>
+  <si>
+    <t>bukan ngetawain tahan negara cuma ngetawain bukanngetawain ngetawaintahan tahannegara negaracuma cumangetawain</t>
+  </si>
+  <si>
+    <t>kampanye lama tahana lampu c o arti pilih sedang hukum kampanyelama lamatahana tahanalampu lampuc co oarti artipilih pilihsedang sedanghukum</t>
+  </si>
+  <si>
+    <t>ini keras banyu mas minahasa banyumas batak nya jawa tengah inikeras kerasbanyu banyumas masminahasa minahasabanyumas banyumasbatak bataknya nyajawa jawatengah</t>
+  </si>
+  <si>
+    <t>pulang kaya tambang emas papua pangku ibu pertiwi taruh jabat bagai presiden indonesia pulangkaya kayatambang tambangemas emaspapua papuapangku pangkuibu ibupertiwi pertiwitaruh taruhjabat jabatbagai bagaipresiden presidenindonesia</t>
+  </si>
+  <si>
+    <t>dengan pemerintahandilan buat calon presiden tahan terus sosialisasi manfaat revolusi industri denganpemerintahandilan pemerintahandilanbuat buatcalon calonpresiden presidentahan tahanterus terussosialisasi sosialisasimanfaat manfaatrevolusi revolusiindustri</t>
+  </si>
+  <si>
+    <t>bocor bocor tahun diksi bocor jangan ada gagas makanya pakai aquaproof pak bocorbocor bocortahun tahundiksi diksibocor bocorjangan janganada adagagas gagasmakanya makanyapakai pakaiaquaproof aquaproofpak</t>
+  </si>
+  <si>
+    <t>debat curhat tonton gebu tetap ulang tema lama solusi debatcurhat curhattonton tontongebu gebutetap tetapulang ulangtema temalama lamasolusi</t>
+  </si>
+  <si>
+    <t>era milenial era pakde presiden paling keren ketimbang sudah pemerintahandilan eramilenial milenialera erapakde pakdepresiden presidenpaling palingkeren kerenketimbang ketimbangsudah sudahpemerintahandilan</t>
+  </si>
+  <si>
+    <t>pemerintahandilan nyata perintah pak hanya benah atas masalah jaring broadband daerah 3t pemerintahandilannyata nyataperintah perintahpak pakhanya hanyabenah benahatas atasmasalah masalahjaring jaringbroadband broadbanddaerah daerah3t</t>
+  </si>
+  <si>
+    <t>pak percaya yang pecatanlebihtnidaritni pecatanlebihtnidaritni https t co jrlvbdoafw pakpercaya percayayang yangpecatanlebihtnidaritni pecatanlebihtnidaritnipecatanlebihtnidaritni pecatanlebihtnidaritnihttps httpst tco cojrlvbdoafw</t>
+  </si>
+  <si>
+    <t>kaget beneran menangkanprabowosandi april datang tps pilih kagetbeneran beneranmenangkanprabowosandi menangkanprabowosandiapril aprildatang datangtps tpspilih</t>
+  </si>
+  <si>
+    <t>calon presiden kata lembaga bubar anggap buat layan publik belit calonpresiden presidenkata katalembaga lembagabubar bubaranggap anggapbuat buatlayan layanpublik publikbelit</t>
+  </si>
+  <si>
+    <t>bidang tahan aman terlalu lemah anggar terlalu kecil perlu baik - bidangtahan tahanaman amanterlalu terlalulemah lemahanggar anggarterlalu terlalukecil kecilperlu perlubaik baik-</t>
+  </si>
+  <si>
+    <t>tetap sahabat pak sinyal siap siap bawa pulang kecebong solo tetapsahabat sahabatpak paksinyal sinyalsiap siapsiap siapbawa bawapulang pulangkecebong kecebongsolo</t>
+  </si>
+  <si>
+    <t>pak ngebahas perihal pemerintahandilan tuju wowo sayang wowo jawab nya asal bunyi pakngebahas ngebahasperihal perihalpemerintahandilan pemerintahandilantuju tujuwowo wowosayang sayangwowo wowojawab jawabnya nyaasal asalbunyi</t>
+  </si>
+  <si>
+    <t>gubernur pahe m tidak tanya kamu lulus mana tidak tanya prestasi apa saya tanya kamu punya uang gubernurpahe pahem mtidak tidaktanya tanyakamu kamululus lulusmana manatidak tidaktanya tanyaprestasi prestasiapa apasaya sayatanya tanyakamu kamupunya punyauang</t>
+  </si>
+  <si>
+    <t>tahan indonesia terlalu lemah jauh yang harap karena tidak punya uang - tahanindonesia indonesiaterlalu terlalulemah lemahjauh jauhyang yangharap harapkarena karenatidak tidakpunya punyauang uang-</t>
+  </si>
+  <si>
+    <t>tegas pak barusan keluar parah orang tertawa rapuh tahan negara tegaspak pakbarusan barusankeluar keluarparah parahorang orangtertawa tertawarapuh rapuhtahan tahannegara</t>
+  </si>
+  <si>
+    <t>bagaimana tonton tertawa kalau kali kata militer indonesia sangat lemah padahal kuat militer bagaimanatonton tontontertawa tertawakalau kalaukali kalikata katamiliter militerindonesia indonesiasangat sangatlemah lemahpadahal padahalkuat kuatmiliter</t>
+  </si>
+  <si>
+    <t>marah tahan bangsa tertawa audiens marah diri hina netizen marahtahan tahanbangsa bangsatertawa tertawaaudiens audiensmarah marahdiri dirihina hinanetizen</t>
+  </si>
+  <si>
+    <t>yim habib rizieq bilang sama ya sengaja harus pasang ulama islam jelas yimhabib habibrizieq rizieqbilang bilangsama samaya yasengaja sengajaharus haruspasang pasangulama ulamaislam islamjelas</t>
+  </si>
+  <si>
+    <t>maju era android ke era pecatanlebihtnidaritni majuera eraandroid androidke keera erapecatanlebihtnidaritni</t>
+  </si>
+  <si>
+    <t>natural badan menang nasional mirip orang habis bangun tidur mau nyabu ada bong terus marah tonton naturalbadan badanmenang menangnasional nasionalmirip miriporang oranghabis habisbangun banguntidur tidurmau maunyabu nyabuada adabong bongterus terusmarah marahtonton</t>
+  </si>
+  <si>
+    <t>kompas koplak kamu salah kutip bilang gdp apbn kompaskoplak koplakkamu kamusalah salahkutip kutipbilang bilanggdp gdpapbn</t>
+  </si>
+  <si>
+    <t>mummmeeettt sekarang kali hahaha mummmeeetttsekarang sekarangkali kalihahaha</t>
+  </si>
+  <si>
+    <t>mutu banget twetnya kentara berat belah mutubanget bangettwetnya twetnyakentara kentaraberat beratbelah</t>
+  </si>
+  <si>
+    <t>kayak panik banget jadi sedi liat kayakpanik panikbanget bangetjadi jadisedi sediliat</t>
+  </si>
+  <si>
+    <t>i love kurang masuk sama kartu ilove lovekurang kurangmasuk masuksama samakartu</t>
+  </si>
+  <si>
+    <t>keren banget jawab pak soal tuduh kerenbanget bangetjawab jawabpak paksoal soaltuduh</t>
+  </si>
+  <si>
+    <t>catat paling atas seba kalah laku dukung catatpaling palingatas atasseba sebakalah kalahlaku lakudukung</t>
+  </si>
+  <si>
+    <t>dengar sendiri maher at thuwailibi dukung prabowo-sandi ejek polisi menthogutkan nkri dengarsendiri sendirimaher maherat atthuwailibi thuwailibidukung dukungprabowo-sandi prabowo-sandiejek ejekpolisi polisimenthogutkan menthogutkannkri</t>
+  </si>
+  <si>
+    <t>tim sehat tekan darah pak pantau masa acara debat begini marah timsehat sehattekan tekandarah darahpak pakpantau pantaumasa masaacara acaradebat debatbegini beginimarah</t>
+  </si>
+  <si>
+    <t>kuat tahan sangat rapuh lemah bukan salah bapak salah enggak tahu - kuattahan tahansangat sangatrapuh rapuhlemah lemahbukan bukansalah salahbapak bapaksalah salahenggak enggaktahu tahu-</t>
+  </si>
+  <si>
+    <t>pak i am proud of you closing statement lawan debat nyambung bukan manfaat tampil prima paki iam amproud proudof ofyou youclosing closingstatement statementlawan lawandebat debatnyambung nyambungbukan bukanmanfaat manfaattampil tampilprima</t>
+  </si>
+  <si>
+    <t>turut tahan lemah implikasi uang indonesia lemah turut indonesia turuttahan tahanlemah lemahimplikasi implikasiuang uangindonesia indonesialemah lemahturut turutindonesia</t>
+  </si>
+  <si>
+    <t>oknum kepala desa cikopo - bogor maksa warga milih o1 virallkan gaes lapor oknumkepala kepaladesa desacikopo cikopo- -bogor bogormaksa maksawarga wargamilih miliho1 o1virallkan virallkangaes gaeslapor</t>
+  </si>
+  <si>
+    <t>jangan bawa asa laper di fitnah tahu jangan mengapa masa baru gitu jangan udah ngambek si janganbawa bawaasa asalaper laperdi difitnah fitnahtahu tahujangan janganmengapa mengapamasa masabaru barugitu gitujangan janganudah udahngambek ngambeksi</t>
+  </si>
+  <si>
+    <t>duh tonton kok dimarahin salah apa sabar pak jangan marah ngopi sik pak duhtonton tontonkok kokdimarahin dimarahinsalah salahapa apasabar sabarpak pakjangan janganmarah marahngopi ngopisik sikpak</t>
+  </si>
+  <si>
+    <t>jenderal pecat sekadar ingat jelas lebih paham bos very smart responses comprehesif jenderalpecat pecatsekadar sekadaringat ingatjelas jelaslebih lebihpaham pahambos bosvery verysmart smartresponses responsescomprehesif</t>
+  </si>
+  <si>
+    <t>bandara akses keluar masuk asing indonesia kalau kelola serah asing bandaraakses akseskeluar keluarmasuk masukasing asingindonesia indonesiakalau kalaukelola kelolaserah serahasing</t>
+  </si>
+  <si>
+    <t>ngomong apa ujung bocor tanya urus tahan inti bocor lah ini calon presiden apa tukang tambal ban ngomongapa apaujung ujungbocor bocortanya tanyaurus urustahan tahaninti intibocor bocorlah lahini inicalon calonpresiden presidenapa apatukang tukangtambal tambalban</t>
+  </si>
+  <si>
+    <t>jadi soal digital layan inimah lama rakyat antri dapat layan e-ktp yang gagal lah so jadisoal soaldigital digitallayan layaninimah inimahlama lamarakyat rakyatantri antridapat dapatlayan layane-ktp e-ktpyang yanggagal gagallah lahso</t>
+  </si>
+  <si>
+    <t>jangan coba ganti ideologi pancasila nkri harga mati harga mati harga tidak tawar jangancoba cobaganti gantiideologi ideologipancasila pancasilankri nkriharga hargamati matiharga hargamati matiharga hargatidak tidaktawar</t>
+  </si>
+  <si>
+    <t>wow percaya tni ragu kuat tni lemah tni rasa lebih tni tni wowpercaya percayatni tniragu ragukuat kuattni tnilemah lemahtni tnirasa rasalebih lebihtni tnitni</t>
+  </si>
+  <si>
+    <t>ampun sih tiap tanya kamu jawab bocor bocor uang negara alir luar ampunsih sihtiap tiaptanya tanyakamu kamujawab jawabbocor bocorbocor bocoruang uangnegara negaraalir alirluar</t>
+  </si>
+  <si>
+    <t>tidak terlalu hormat luar negeri jangan tebar pesimisme pak tidakterlalu terlaluhormat hormatluar luarnegeri negerijangan jangantebar tebarpesimisme pesimismepak</t>
+  </si>
+  <si>
+    <t>pak kata kuat lembaga perintah hilang korupsi pakkata katakuat kuatlembaga lembagaperintah perintahhilang hilangkorupsi</t>
+  </si>
+  <si>
+    <t>tertawa tertawa dimarahain tertawatertawa tertawadimarahain</t>
+  </si>
+  <si>
+    <t>g nyambung kalau masalah kalau bandara udah kuasa asing pesawat suka nya keluar masuk apa milik gnyambung nyambungkalau kalaumasalah masalahkalau kalaubandara bandaraudah udahkuasa kuasaasing asingpesawat pesawatsuka sukanya nyakeluar keluarmasuk masukapa apamilik</t>
+  </si>
+  <si>
+    <t>tengah debat calon presiden dadak marah hadirin tertawa tengah acara https t co xj1ofes136 tengahdebat debatcalon calonpresiden presidendadak dadakmarah marahhadirin hadirintertawa tertawatengah tengahacara acarahttps httpst tco coxj1ofes136</t>
+  </si>
+  <si>
+    <t>terus hina bangsa indonesia kata percaya dunia internasional terushina hinabangsa bangsaindonesia indonesiakata katapercaya percayadunia duniainternasional</t>
+  </si>
+  <si>
+    <t>lebih baik kalau tipu halusinasi parah coba muncul ngaku golput lebihbaik baikkalau kalautipu tipuhalusinasi halusinasiparah parahcoba cobamuncul munculngaku ngakugolput</t>
+  </si>
+  <si>
+    <t>lihat negara bagai alat maju kualitas masyarakat lihat negara bagai alat perang lihatnegara negarabagai bagaialat alatmaju majukualitas kualitasmasyarakat masyarakatlihat lihatnegara negarabagai bagaialat alatperang</t>
+  </si>
+  <si>
+    <t>freeport lapor nse mereka dapat manfaat jadi saham ethok prabowobentengnkri freeportlapor lapornse nsemereka merekadapat dapatmanfaat manfaatjadi jadisaham sahamethok ethokprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>insaallah zalim rezim rakyat allah subhanawataala balas copot kuasa wenang wenang insaallahzalim zalimrezim rezimrakyat rakyatallah allahsubhanawataala subhanawataalabalas balascopot copotkuasa kuasawenang wenangwenang</t>
+  </si>
+  <si>
+    <t>soal tahan benar beri briefing pak kalau presiden pecat subianto soaltahan tahanbenar benarberi beribriefing briefingpak pakkalau kalaupresiden presidenpecat pecatsubianto</t>
+  </si>
+  <si>
+    <t>tidak hormat luar negeri utang banyak impor banyak bagaimana mau hormat tidakhormat hormatluar luarnegeri negeriutang utangbanyak banyakimpor imporbanyak banyakbagaimana bagaimanamau mauhormat</t>
+  </si>
+  <si>
+    <t>lawan tak daya lawan mantap oy lawantak takdaya dayalawan lawanmantap mantapoy</t>
+  </si>
+  <si>
+    <t>presiden ajak keluarga makan siang rumah makan bilang jalan sabang jakarta pusat sayang dua putra hadir presidenajak ajakkeluarga keluargamakan makansiang siangrumah rumahmakan makanbilang bilangjalan jalansabang sabangjakarta jakartapusat pusatsayang sayangdua duaputra putrahadir</t>
+  </si>
+  <si>
+    <t>cek fakta cek fakta sebut dana tahan ri kecil singapura gdp https t co hv6u1urlj5 cekfakta faktacek cekfakta faktasebut sebutdana danatahan tahanri rikecil kecilsingapura singapuragdp gdphttps httpst tco cohv6u1urlj5</t>
+  </si>
+  <si>
+    <t>beda negara debat maaf keras tengah banyumas bedanegara negaradebat debatmaaf maafkeras kerastengah tengahbanyumas</t>
+  </si>
+  <si>
+    <t>kamu cm nyinyir udah ngerasain terjun lapang kamu lahir kamucm cmnyinyir nyinyirudah udahngerasain ngerasainterjun terjunlapang lapangkamu kamulahir</t>
+  </si>
+  <si>
+    <t>malam minggu duduk depan layar tv nonton debat empat calon presiden semangat pak 01dilanjutkan malamminggu minggududuk dudukdepan depanlayar layartv tvnonton nontondebat debatempat empatcalon calonpresiden presidensemangat semangatpak pak01dilanjutkan</t>
+  </si>
+  <si>
+    <t>lah situ nyinyir apa balik aki aki apa nenek peot calon presidenya jadul lahsitu situnyinyir nyinyirapa apabalik balikaki akiaki akiapa apanenek nenekpeot peotcalon calonpresidenya presidenyajadul</t>
+  </si>
+  <si>
+    <t>bilang rapuh skor kuat militer indonesia turut global fire power di peringkat tinggi bilangrapuh rapuhskor skorkuat kuatmiliter militerindonesia indonesiaturut turutglobal globalfire firepower powerdi diperingkat peringkattinggi</t>
+  </si>
+  <si>
+    <t>cakep jenderal makin kita hidup rukun tidak ajar benci mistericapjempol cakepjenderal jenderalmakin makinkita kitahidup hiduprukun rukuntidak tidakajar ajarbenci bencimistericapjempol</t>
+  </si>
+  <si>
+    <t>tidak jajah bangsa lai rugi banyak pak salah orang amerika sedikit bicara banyak kerja tidakjajah jajahbangsa bangsalai lairugi rugibanyak banyakpak paksalah salahorang orangamerika amerikasedikit sedikitbicara bicarabanyak banyakkerja</t>
+  </si>
+  <si>
+    <t>nama ngomong ngasal jangan penting gaya dulu wkwkqk kasi babak bur hajar jenderal namangomong ngomongngasal ngasaljangan janganpenting pentinggaya gayadulu duluwkwkqk wkwkqkkasi kasibabak babakbur burhajar hajarjenderal</t>
+  </si>
+  <si>
+    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019 turutpercuma percumapunya punyabanyak banyakkartu kartulihat lihatmodern moderndebatpilpres debatpilpres2019 2019pilpres pilpres2019 2019pemilu pemilu2019</t>
+  </si>
+  <si>
+    <t>bukan mau nyerang pisik fakta gerombol badan menang nasional banyak gembul perut kayak gentong bukanmau maunyerang nyerangpisik pisikfakta faktagerombol gerombolbadan badanmenang menangnasional nasionalbanyak banyakgembul gembulperut perutkayak kayakgentong</t>
+  </si>
+  <si>
+    <t>kalau jadi nice guy masalah ada yang bapak rasa tidak hormat luar indonesia kalaujadi jadinice niceguy guymasalah masalahada adayang yangbapak bapakrasa rasatidak tidakhormat hormatluar luarindonesia</t>
+  </si>
+  <si>
+    <t>kalau anak anak antem si kurus udah mewek pojok yang gemuk tega kalauanak anakanak anakantem antemsi sikurus kurusudah udahmewek mewekpojok pojokyang yanggemuk gemuktega</t>
+  </si>
+  <si>
+    <t>si manusia gadungan hibur diri junjung kalah sol sol simanusia manusiagadungan gadunganhibur hiburdiri dirijunjung junjungkalah kalahsol solsol</t>
+  </si>
+  <si>
+    <t>komitmen nkri pancasila tak perlu ragu propaganda ubah sistem demokrasi sistem khilafah komitmennkri nkripancasila pancasilatak takperlu perluragu ragupropaganda propagandaubah ubahsistem sistemdemokrasi demokrasisistem sistemkhilafah</t>
+  </si>
+  <si>
+    <t>luar biasa demen kali sama pak dungu natural akhir keluar luarbiasa biasademen demenkali kalisama samapak pakdungu dungunatural naturalakhir akhirkeluar</t>
+  </si>
+  <si>
+    <t>rasa posisi selalu posisi aman buat indonesia tak hormat asing rasaposisi posisiselalu selaluposisi posisiaman amanbuat buatindonesia indonesiatak takhormat hormatasing</t>
+  </si>
+  <si>
+    <t>pak saya hormat lebih baik kamu daftar jadi tni biar paham percaya berani paksaya sayahormat hormatlebih lebihbaik baikkamu kamudaftar daftarjadi jaditni tnibiar biarpaham pahampercaya percayaberani</t>
+  </si>
+  <si>
+    <t>set up nya padahal kuat bat sayang punchline nya beri terlalu banyak rusa setup upnya nyapadahal padahalkuat kuatbat batsayang sayangpunchline punchlinenya nyaberi beriterlalu terlalubanyak banyakrusa</t>
+  </si>
+  <si>
+    <t>mau ngecapruk apa bodoh sudah jadi kadang ucap nya sua nyata maungecapruk ngecaprukapa apabodoh bodohsudah sudahjadi jadikadang kadangucap ucapnya nyasua suanyata</t>
+  </si>
+  <si>
+    <t>turut dalam tahan aman boleh anggap akan perang masa depan turutdalam dalamtahan tahanaman amanboleh bolehanggap anggapakan akanperang perangmasa masadepan</t>
+  </si>
+  <si>
+    <t>wah salah nih mas kasih tahu litbang bela apa apa admin cer wahsalah salahnih nihmas maskasih kasihtahu tahulitbang litbangbela belaapa apaapa apaadmin admincer</t>
+  </si>
+  <si>
+    <t>sumpah tahan pancasila titik darah akhir bohong kecewa bapak luka dikit jangan udah pakai sarung t sumpahtahan tahanpancasila pancasilatitik titikdarah darahakhir akhirbohong bohongkecewa kecewabapak bapakluka lukadikit dikitjangan janganudah udahpakai pakaisarung sarungt</t>
+  </si>
+  <si>
+    <t>latar belakang latarbelakang karya intel amerika defense intelligence agency karyaintel intelamerika amerikadefense defenseintelligence intelligenceagency soal serang asing p soalserang serangasing asingp</t>
+  </si>
+  <si>
+    <t>bapak info sesat petinggi tni woi om wowo lupa bukankah kamu lebih parah dibohongin sam bapakinfo infosesat sesatpetinggi petinggitni tniwoi woiom omwowo wowolupa lupabukankah bukankahkamu kamulebih lebihparah parahdibohongin dibohonginsam</t>
+  </si>
+  <si>
+    <t>malu kompas kamu salah kutip bilang gdp apbn ralat https t co parepqmlyn malukompas kompaskamu kamusalah salahkutip kutipbilang bilanggdp gdpapbn apbnralat ralathttps httpst tco coparepqmlyn</t>
+  </si>
+  <si>
+    <t>kena tuduh pro-khilafah milik argumen menep mentah olah bela khilafah tak masuk akal kenatuduh tuduhpro-khilafah pro-khilafahmilik milikargumen argumenmenep menepmentah mentaholah olahbela belakhilafah khilafahtak takmasuk masukakal</t>
+  </si>
+  <si>
+    <t>strategi upaya modernisasi alutsista tni material khusus polri tahan lemah kita punya alutsista canggih strategiupaya upayamodernisasi modernisasialutsista alutsistatni tnimaterial materialkhusus khususpolri polritahan tahanlemah lemahkita kitapunya punyaalutsista alutsistacanggih</t>
+  </si>
+  <si>
+    <t>calon presiden nilai tak keluar narasi besar sendiri tak tampil istimewa nilai buruk calonpresiden presidennilai nilaitak takkeluar keluarnarasi narasibesar besarsendiri sendiritak taktampil tampilistimewa istimewanilai nilaiburuk</t>
+  </si>
+  <si>
+    <t>beda kelas bapak true warrior ksatria sejati perlu malu orang sudah malu bedakelas kelasbapak bapaktrue truewarrior warriorksatria ksatriasejati sejatiperlu perlumalu maluorang orangsudah sudahmalu</t>
+  </si>
+  <si>
+    <t>mau kalah sama gurita dukun piala dunia kucing milih fokus nonton tanda optimisindonesiamaju maukalah kalahsama samagurita guritadukun dukunpiala pialadunia duniakucing kucingmilih milihfokus fokusnonton nontontanda tandaoptimisindonesiamaju</t>
+  </si>
+  <si>
+    <t>selalu ulang soal kaya ambil asing masa mertua kali sekarang rok mahakam freeport udah jadi milik indonesia selaluulang ulangsoal soalkaya kayaambil ambilasing asingmasa masamertua mertuakali kalisekarang sekarangrok rokmahakam mahakamfreeport freeportudah udahjadi jadimilik milikindonesia</t>
+  </si>
+  <si>
+    <t>lawan lihat dunia luar jahat pretensi kuasa padahal hidup era kolaborasi kira mindset keliru lawanlihat lihatdunia dunialuar luarjahat jahatpretensi pretensikuasa kuasapadahal padahalhidup hidupera erakolaborasi kolaborasikira kiramindset mindsetkeliru</t>
+  </si>
+  <si>
+    <t>awal gila antek antek dukung mulai pilpres mana hasil oleh suara sangat sedikit awalgila gilaantek antekantek antekdukung dukungmulai mulaipilpres pilpresmana manahasil hasiloleh olehsuara suarasangat sangatsedikit</t>
+  </si>
+  <si>
+    <t>kata anggar tahan indonesia di angka 0 8 persen gdp pun banding singapura kataanggar anggartahan tahanindonesia indonesiadi diangka angka0 08 8persen persengdp gdppun punbanding bandingsingapura</t>
+  </si>
+  <si>
+    <t>bicara entry gerbang safety strategic point jokowi jawab investasi asing nyambung prabowobentengnkri bicaraentry entrygerbang gerbangsafety safetystrategic strategicpoint pointjokowi jokowijawab jawabinvestasi investasiasing asingnyambung nyambungprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>sandi mas anis sini traktir jadi gubernur tak lama sandi izin mas mau nraktir pak sandimas masanis anissini sinitraktir traktirjadi jadigubernur gubernurtak taklama lamasandi sandiizin izinmas masmau maunraktir nraktirpak</t>
+  </si>
+  <si>
+    <t>acu adalah mertua bukti keluarga mertua di baris acuadalah adalahmertua mertuabukti buktikeluarga keluargamertua mertuadi dibaris</t>
+  </si>
+  <si>
+    <t>dear pak taun bapak jabat akan awas kritisi omel bapak dearpak paktaun taunbapak bapakjabat jabatakan akanawas awaskritisi kritisiomel omelbapak</t>
+  </si>
+  <si>
+    <t>pada nyemplung kolam malu lihat bos bom bardir padanyemplung nyemplungkolam kolammalu malulihat lihatbos bosbom bombardir</t>
+  </si>
+  <si>
+    <t>sepakat sama om trik basi minggu kelar jadi mau periode jual dil laku sepakatsama samaom omtrik trikbasi basiminggu minggukelar kelarjadi jadimau mauperiode periodejual jualdil dillaku</t>
+  </si>
+  <si>
+    <t>rizal ramli pak mau revisi hehe kubu jokowi ada tanggpan rr sebut hehe seram undang sebut dipake disalahgunakan rizalramli ramlipak pakmau maurevisi revisihehe hehekubu kubujokowi jokowiada adatanggpan tanggpanrr rrsebut sebuthehe heheseram seramundang undangsebut sebutdipake dipakedisalahgunakan</t>
+  </si>
+  <si>
+    <t>perintah mau keluar paris tuju kata mikirin masa depan indonesia mau keluar pakta sama perintahmau maukeluar keluarparis paristuju tujukata katamikirin mikirinmasa masadepan depanindonesia indonesiamau maukeluar keluarpakta paktasama</t>
+  </si>
+  <si>
+    <t>adalah agum gumelar dengan lantang wajah bicara jelek hadap sby nyata hadap taipan manis adalahagum agumgumelar gumelardengan denganlantang lantangwajah wajahbicara bicarajelek jelekhadap hadapsby sbynyata nyatahadap hadaptaipan taipanmanis</t>
+  </si>
+  <si>
+    <t>kalau pak jadi presiden hidup mau ketawa jangan dimarahin https t co b7dymmekfs kalaupak pakjadi jadipresiden presidenhidup hidupmau mauketawa ketawajangan jangandimarahin dimarahinhttps httpst tco cob7dymmekfs</t>
+  </si>
+  <si>
+    <t>deh makan dulu siap debat awas pulpen lupa dehmakan makandulu dulusiap siapdebat debatawas awaspulpen pulpenlupa</t>
+  </si>
+  <si>
+    <t>kamu bukan tni kamu pecat sandang gelar purnawirawan kamu pantas kamubukan bukantni tnikamu kamupecat pecatsandang sandanggelar gelarpurnawirawan purnawirawankamu kamupantas</t>
+  </si>
+  <si>
+    <t>nyata pak debat empat ragu tni 01dilanjutkan jokowilagi nyatapak pakdebat debatempat empatragu ragutni tni01dilanjutkan 01dilanjutkanjokowilagi</t>
+  </si>
+  <si>
+    <t>makanya kamu mikir belum tuntas belum prioritas jangan sebut kebo makanyakamu kamumikir mikirbelum belumtuntas tuntasbelum belumprioritas prioritasjangan jangansebut sebutkebo</t>
+  </si>
+  <si>
+    <t>juga tuduh pki jawab hahaha hari saya saya lawan saya akan lawan jugatuduh tuduhpki pkijawab jawabhahaha hahahahari harisaya sayasaya sayalawan lawansaya sayaakan akanlawan</t>
+  </si>
+  <si>
+    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing tidakpaham pahamekonomi ekonomiinvestasi investasiasing asinglingkup lingkupbisnis bisnisdi-framing di-framingolah olahnegara negaraasai asaiasing</t>
+  </si>
+  <si>
+    <t>nya punya ambisi wowo ambisi jangka pendek harta nyapunya punyaambisi ambisiwowo wowoambisi ambisijangka jangkapendek pendekharta</t>
+  </si>
+  <si>
+    <t>political will cermin praktik berantas korupsi kata politicalwill willcermin cerminpraktik praktikberantas berantaskorupsi korupsikata</t>
+  </si>
+  <si>
+    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni salut paktrauma traumapecat pecattni tnibegini beginingomongnya ngomongnyajustru justrupak paksipil sipilpercaya percayasama samatni tnisalut</t>
+  </si>
+  <si>
+    <t>presiden bisa tidak bicara detail alutsista indonesia itu yang sensitif tahan indonesia presidenbisa bisatidak tidakbicara bicaradetail detailalutsista alutsistaindonesia indonesiaitu ituyang yangsensitif sensitiftahan tahanindonesia</t>
+  </si>
+  <si>
+    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi kalaumandat mandatakan akanbersih bersihkuat kuatlembaga lembagaperintah perintahakan akanhilang hilangkorupsi</t>
+  </si>
+  <si>
+    <t>hahaha yang bakar jenggot sama imbau pakai baju putih tps jangan ngambek gitu dong hahahayang yangbakar bakarjenggot jenggotsama samaimbau imbaupakai pakaibaju bajuputih putihtps tpsjangan janganngambek ngambekgitu gitudong</t>
+  </si>
+  <si>
+    <t>gubernur pahe m tanya kamu lulus mana tidak tanya prestasi apa saya tanya kamu punya uang tidak gubernurpahe pahem mtanya tanyakamu kamululus lulusmana manatidak tidaktanya tanyaprestasi prestasiapa apasaya sayatanya tanyakamu kamupunya punyauang uangtidak</t>
+  </si>
+  <si>
+    <t>bagaimana tonton tertawa kalau kali kata militer indonesia sangat lemah padahal kuat militer indonesia masuk kuat dunia bagaimanatonton tontontertawa tertawakalau kalaukali kalikata katamiliter militerindonesia indonesiasangat sangatlemah lemahpadahal padahalkuat kuatmiliter militerindonesia indonesiamasuk masukkuat kuatdunia</t>
+  </si>
+  <si>
+    <t>banyak catat jadi kalau kalah mana letak kalah juga balik banyakcatat catatjadi jadikalau kalaukalah kalahmana manaletak letakkalah kalahjuga jugabalik</t>
+  </si>
+  <si>
+    <t>bukan percaya mampu tni harus tni siap the worst scenario lindung indonesia prabowo bukanpercaya percayamampu mamputni tniharus harustni tnisiap siapthe theworst worstscenario scenariolindung lindungindonesia indonesiaprabowo</t>
+  </si>
+  <si>
+    <t>tidak mau mati jabat bpk dulu pernah kurus dia tidakmau maumati matijabat jabatbpk bpkdulu dulupernah pernahkurus kurusdia</t>
+  </si>
+  <si>
+    <t>turut tahan lemah implikasi uang indonesia lemah turuttahan tahanlemah lemahimplikasi implikasiuang uangindonesia indonesialemah</t>
+  </si>
+  <si>
+    <t>baru era daulat laut nasional tega kapal kapal asing kini takut curi ikan teritori nasional baruera eradaulat daulatlaut lautnasional nasionaltega tegakapal kapalkapal kapalasing asingkini kinitakut takutcuri curiikan ikanteritori teritorinasional</t>
+  </si>
+  <si>
+    <t>kalau bahasa simpel jin numpang sama genderuwo kalaubahasa bahasasimpel simpeljin jinnumpang numpangsama samagenderuwo</t>
+  </si>
+  <si>
+    <t>ahmad tangkap polisi ujar benci ada hubung pilpres sama bahar bin smith tangkap polisi ahmadtangkap tangkappolisi polisiujar ujarbenci benciada adahubung hubungpilpres pilpressama samabahar baharbin binsmith smithtangkap tangkappolisi</t>
+  </si>
+  <si>
+    <t>makan tuh radar prabowobentengnkri 01caprespendustaabadi makantuh tuhradar radarprabowobentengnkri prabowobentengnkri01caprespendustaabadi</t>
+  </si>
+  <si>
+    <t>kesi tuh si engkong g mau pilih kong prabowobentengnkri prabowobentengnkri kesituh tuhsi siengkong engkongg gmau maupilih pilihkong kongprabowobentengnkri prabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>soal tahan benar beri briefing pak kalau presiden pecat soaltahan tahanbenar benarberi beribriefing briefingpak pakkalau kalaupresiden presidenpecat</t>
+  </si>
+  <si>
+    <t>pak upaya masyarakat sulit tarik pungli urus segala pakupaya upayamasyarakat masyarakatsulit sulittarik tarikpungli pungliurus urussegala</t>
+  </si>
+  <si>
+    <t>salah kali zo justru pak laksana clean government jadi pada gerah panas dapat uang salahkali kalizo zojustru justrupak paklaksana laksanaclean cleangovernment governmentjadi jadipada padagerah gerahpanas panasdapat dapatuang</t>
+  </si>
+  <si>
+    <t>bogor tadi siang lihat massa riil wiwis perlu banyak banyak omong lihat prab bogortadi tadisiang sianglihat lihatmassa massariil riilwiwis wiwisperlu perlubanyak banyakbanyak banyakomong omonglihat lihatprab</t>
+  </si>
+  <si>
+    <t>berangkat kerja naik taksi kepala pusing bawa motor jaman susah korupsi padahal banyak harus setor berangkatkerja kerjanaik naiktaksi taksikepala kepalapusing pusingbawa bawamotor motorjaman jamansusah susahkorupsi korupsipadahal padahalbanyak banyakharus harussetor</t>
+  </si>
+  <si>
+    <t>panjang debat lihat goyah argumen kokoh tak yakin panjangdebat debatlihat lihatgoyah goyahargumen argumenkokoh kokohtak takyakin</t>
+  </si>
+  <si>
+    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019 republik turutpercuma percumapunya punyabanyak banyakkartu kartulihat lihatmodern moderndebatpilpres debatpilpres2019 2019pilpres pilpres2019 2019pemilu pemilu2019 2019republik</t>
+  </si>
+  <si>
+    <t>sakit masa konflik timur rupa konflik negeri bilang perang sakitmasa masakonflik konfliktimur timurrupa rupakonflik konfliknegeri negeribilang bilangperang</t>
+  </si>
+  <si>
+    <t>calon presiden nomor urut khawatir kalau semua labuh bandara operate usaha asing calonpresiden presidennomor nomorurut urutkhawatir khawatirkalau kalausemua semualabuh labuhbandara bandaraoperate operateusaha usahaasing</t>
+  </si>
+  <si>
+    <t>mantap keren moga ikut seluruh pelosok nusantara mantapkeren kerenmoga mogaikut ikutseluruh seluruhpelosok pelosoknusantara</t>
+  </si>
+  <si>
+    <t>pns pilih sulit laku pungli anggar potong ketat anggar pnspilih pilihsulit sulitlaku lakupungli punglianggar anggarpotong potongketat ketatanggar</t>
+  </si>
+  <si>
+    <t>pilih sandi saya ingin bpjs puruk terus tidak optimal beri solusi awat sehat pilihsandi sandisaya sayaingin inginbpjs bpjspuruk purukterus terustidak tidakoptimal optimalberi berisolusi solusiawat awatsehat</t>
+  </si>
+  <si>
+    <t>salah besar sih pilih pak lembaga perintah bebas korupsi jual beli jabat salahbesar besarsih sihpilih pilihpak paklembaga lembagaperintah perintahbebas bebaskorupsi korupsijual jualbeli belijabat</t>
+  </si>
+  <si>
+    <t>milik banyak prestasi ada prestasi milik salah satu cabut subsidi bbm milikbanyak banyakprestasi prestasiada adaprestasi prestasimilik miliksalah salahsatu satucabut cabutsubsidi subsidibbm</t>
+  </si>
+  <si>
+    <t>bagaimana mau pulang habib rizieq kalau tidak menang jadi presiden kata subianto bagaimanamau maupulang pulanghabib habibrizieq rizieqkalau kalautidak tidakmenang menangjadi jadipresiden presidenkata katasubianto</t>
+  </si>
+  <si>
+    <t>kalau pasu asing masuk tentara tindak adi napitupulu dukung calon presiden kalaupasu pasuasing asingmasuk masuktentara tentaratindak tindakadi adinapitupulu napitupuludukung dukungcalon calonpresiden</t>
+  </si>
+  <si>
+    <t>justru makna bersit nada kalah rasa kalah justrumakna maknabersit bersitnada nadakalah kalahrasa rasakalah</t>
+  </si>
+  <si>
+    <t>rubah watak susah susah jadi presiden https t co esw 5qi9add rubahwatak wataksusah susahsusah susahjadi jadipresiden presidenhttps httpst tco coesw esw5qi9add</t>
+  </si>
+  <si>
+    <t>banyak bandara asai asing buat khawatir serang luar https t co xj1ofes136 banyakbandara bandaraasai asaiasing asingbuat buatkhawatir khawatirserang serangluar luarhttps httpst tco coxj1ofes136</t>
+  </si>
+  <si>
+    <t>bahas pancasila udah final organisasi transnasional ideologi radikal pernah singgung bahaspancasila pancasilaudah udahfinal finalorganisasi organisasitransnasional transnasionalideologi ideologiradikal radikalpernah pernahsinggung</t>
+  </si>
+  <si>
+    <t>aduh salah data oy bong pinter dikit prabowobentengnkri aduhsalah salahdata dataoy oybong bongpinter pinterdikit dikitprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>mau begini acung jari telunjuk tak enak tim jokowi-maruf benci tauhid kan mereka benci tauhid maubegini beginiacung acungjari jaritelunjuk telunjuktak takenak enaktim timjokowi-maruf jokowi-marufbenci bencitauhid tauhidkan kanmereka merekabenci bencitauhid</t>
+  </si>
+  <si>
+    <t>tadi ngomongin perang perang perang memang rencana pak wo mau bawa indonesia perang tadingomongin ngomonginperang perangperang perangperang perangmemang memangrencana rencanapak pakwo womau maubawa bawaindonesia indonesiaperang</t>
+  </si>
+  <si>
+    <t>pak sama pak sama emosional emosi pikir selamat nkri paksama samapak paksama samaemosional emosionalemosi emosipikir pikirselamat selamatnkri</t>
+  </si>
+  <si>
+    <t>narasi utama pakai debat kali adalah narasi asing narasi anti asing memang erat topik debat narasiutama utamapakai pakaidebat debatkali kaliadalah adalahnarasi narasiasing asingnarasi narasianti antiasing asingmemang memangerat erattopik topikdebat</t>
+  </si>
+  <si>
+    <t>lama kita suguh fitnah keji hadap presiden nyata justru konon turun khianat lamakita kitasuguh suguhfitnah fitnahkeji kejihadap hadappresiden presidennyata nyatajustru justrukonon kononturun turunkhianat</t>
+  </si>
+  <si>
+    <t>pak emosi kalau bicara daulat aman nkri balik rakyat lindung pakemosi emosikalau kalaubicara bicaradaulat daulataman amannkri nkribalik balikrakyat rakyatlindung</t>
+  </si>
+  <si>
+    <t>orang masa lalu sukses masa lalu gagal sesuai ubah hari memang tolak pak orangmasa masalalu lalusukses suksesmasa masalalu lalugagal gagalsesuai sesuaiubah ubahhari harimemang memangtolak tolakpak</t>
+  </si>
+  <si>
+    <t>pak kayak kakak lagi ngospek jangan buat ketawa terus marah kalau orang ketawa pakkayak kayakkakak kakaklagi lagingospek ngospekjangan janganbuat buatketawa ketawaterus terusmarah marahkalau kalauorang orangketawa</t>
+  </si>
+  <si>
+    <t>terlalu asik bayang bebas ketawa larang culik hal jika jadi presiden terlaluasik asikbayang bayangbebas bebasketawa ketawalarang larangculik culikhal haljika jikajadi jadipresiden</t>
+  </si>
+  <si>
+    <t>oke oce bangkrut gagal tingkat daya beli masyarakat okeoce ocebangkrut bangkrutgagal gagaltingkat tingkatdaya dayabeli belimasyarakat</t>
+  </si>
+  <si>
+    <t>gagal paham cuma percaya bisik ngaco masa daulat kira kira prabowobentengnkri jok gagalpaham pahamcuma cumapercaya percayabisik bisikngaco ngacomasa masadaulat daulatkira kirakira kiraprabowobentengnkri prabowobentengnkrijok</t>
+  </si>
+  <si>
+    <t>kesi banget kamu sahal pilpres kamu jual ancam takut melulu khilafah lah culik lah kesibanget bangetkamu kamusahal sahalpilpres pilpreskamu kamujual jualancam ancamtakut takutmelulu melulukhilafah khilafahlah lahculik culiklah</t>
+  </si>
+  <si>
+    <t>yang lemes nih kaya data salah ban semua pak prabowobentengnkri https t co 1yqfosvy7a yanglemes lemesnih nihkaya kayadata datasalah salahban bansemua semuapak pakprabowobentengnkri prabowobentengnkrihttps httpst tco co1yqfosvy7a</t>
+  </si>
+  <si>
+    <t>mau kalah disalahin khilafah hti bukankah hti bunuh maukalah kalahdisalahin disalahinkhilafah khilafahhti htibukankah bukankahhti htibunuh</t>
+  </si>
+  <si>
+    <t>pikir pak tau masalah myanmar pikirpak paktau taumasalah masalahmyanmar</t>
+  </si>
+  <si>
+    <t>tertawa pancing pidato closingnya beranta tertawapancing pancingpidato pidatoclosingnya closingnyaberanta</t>
+  </si>
+  <si>
+    <t>bukan tidak percaya ini tni pak taruh nyawa tni lebih tni tni bukantidak tidakpercaya percayaini initni tnipak paktaruh taruhnyawa nyawatni tnilebih lebihtni tnitni</t>
+  </si>
+  <si>
+    <t>gemetar apes malam kata di bentak jenderal prabowobentengnkri gemetarapes apesmalam malamkata katadi dibentak bentakjenderal jenderalprabowobentengnkri</t>
   </si>
   <si>
     <t>positive</t>
